--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\Model-Compression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB4B85-A959-4885-BE4A-B3971EC510A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA048FD-18B1-4E8A-843C-0806510D2311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2175" windowWidth="24120" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="90" windowWidth="16710" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实验结果" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">实验结果!$A$1:$I$79</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="171">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResNet-20 Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quantization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,27 +349,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simplenet_v2_mnist Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Simplenet_mnist Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simplenet_mnist Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResNet-44 cifar Base</t>
   </si>
   <si>
     <t>ResNet-44 cifar Pruning</t>
   </si>
   <si>
-    <t>ResNet-44 cifar Quantization</t>
-  </si>
-  <si>
     <t>ResNet-50 imagenet Base</t>
   </si>
   <si>
@@ -375,18 +366,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResNet-18 imagenet Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResNet-50 imagenet Pruning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResNet-50 imagenet Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResNet-44 cifar  Distiller</t>
   </si>
   <si>
@@ -534,147 +517,173 @@
     <t>Knowledge Distiller(ResNet-14)+Pruning+Quantization</t>
   </si>
   <si>
+    <t>Knowledge Distiller(ResNet-8)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-8)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>78.07%/24.93%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.07%/24.99%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>77.02%/27.52%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.02%/27.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.34%/26.23%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.34%/26.25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%/27.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%/27.58%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.91%/22.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.91%/22.17%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.95%/27.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.95%/27.26%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.67%/21.13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.67%/21.22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.14%/19.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-18)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Pruning+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.1%/10.07%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.1%/10.03%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.78%/12.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.78%/12.21%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Pruning+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.92%/14.44%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.19%/11.88%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet-44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simplenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD + P +Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Knowledge Distiller(ResNet-8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Knowledge Distiller(ResNet-8)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-8)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-8)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>78.07%/24.93%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78.07%/24.99%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>77.02%/27.52%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77.02%/27.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.34%/26.23%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.34%/26.25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%/27.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%/27.58%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80.91%/22.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80.91%/22.17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75.95%/27.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75.95%/27.26%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.67%/21.13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.67%/21.22%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.14%/19.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-18)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Pruning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Pruning+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.1%/10.07%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.1%/10.03%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.78%/12.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.78%/12.21%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Pruning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Pruning+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.92%/14.44%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.19%/11.88%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,6 +691,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,8 +781,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +829,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3452284499083767E-2"/>
-          <c:y val="2.647155406971247E-2"/>
-          <c:w val="0.90869681642569222"/>
-          <c:h val="0.68733259737391761"/>
+          <c:x val="0.11165497893721317"/>
+          <c:y val="0.10715056441437211"/>
+          <c:w val="0.86578092214319857"/>
+          <c:h val="0.76335097088024273"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -830,6 +842,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>柱状图!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -840,230 +863,294 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2840122815774732E-5"/>
+                  <c:y val="-1.3458067517259217E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6715-4E42-9645-01C677268BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-139F-4FC3-B02C-A6F56F290BE7}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-139F-4FC3-B02C-A6F56F290BE7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-139F-4FC3-B02C-A6F56F290BE7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-139F-4FC3-B02C-A6F56F290BE7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-139F-4FC3-B02C-A6F56F290BE7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-139F-4FC3-B02C-A6F56F290BE7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>柱状图!$A$30:$A$43</c:f>
+              <c:f>柱状图!$A$30:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ResNet-20 cifar Base</c:v>
+                  <c:v>Resnet-20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ResNet-20 Quantization</c:v>
+                  <c:v>Resnet-44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ResNet-44 cifar Base</c:v>
+                  <c:v>Simplenet</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ResNet-44 cifar Quantization</c:v>
+                  <c:v>ResNet-18</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Simplenet_v2_mnist Base</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Simplenet_v2_mnist Quantization</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Simplenet_mnist Base</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Simplenet_mnist Quantization</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ResNet-18 imagenet Base</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ResNet-18 imagenet Quantization</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ResNet-50 imagenet Base</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ResNet-50 imagenet Quantization</c:v>
+                <c:pt idx="4">
+                  <c:v>ResNet-50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>柱状图!$B$30:$B$43</c:f>
+              <c:f>柱状图!$B$30:$B$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.83320000000000005</c:v>
+                  <c:v>6.9734926686704099E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83320000000000005</c:v>
+                  <c:v>4.9084009616167198E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87380000000000002</c:v>
+                  <c:v>3.5601117196856699E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87490000000000001</c:v>
+                  <c:v>0.21851480634433099</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98819999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9879</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99160000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99129999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70420000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70479999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.77110000000000001</c:v>
+                <c:pt idx="4">
+                  <c:v>0.201744460687976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-139F-4FC3-B02C-A6F56F290BE7}"/>
+              <c16:uniqueId val="{00000000-6715-4E42-9645-01C677268BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>柱状图!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KD + P +Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1537893609951632E-3"/>
+                  <c:y val="-2.7661208554577202E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6715-4E42-9645-01C677268BC1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>柱状图!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Resnet-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Resnet-44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Simplenet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ResNet-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>柱状图!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.110153574612901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.98175419315829E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5172598747641396E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23374172001788299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.240743430230384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6715-4E42-9645-01C677268BC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="10"/>
-        <c:overlap val="-16"/>
-        <c:axId val="890689855"/>
-        <c:axId val="1045884591"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-8"/>
+        <c:axId val="897024207"/>
+        <c:axId val="896620287"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="890689855"/>
+        <c:axId val="897024207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1178,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1106,7 +1193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045884591"/>
+        <c:crossAx val="896620287"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,55 +1201,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045884591"/>
+        <c:axId val="896620287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:sysClr>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1170,10 +1227,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
-                  <a:t>ACCURACY</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fairness</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1181,8 +1238,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7470493456252213E-3"/>
-              <c:y val="0.19863342902794195"/>
+              <c:x val="9.5718300545544702E-3"/>
+              <c:y val="0.47933143398612227"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1197,27 +1254,13 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1228,8 +1271,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1244,7 +1287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1259,7 +1302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890689855"/>
+        <c:crossAx val="897024207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1273,6 +1316,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15058928138647648"/>
+          <c:y val="0.29210646224771497"/>
+          <c:w val="0.24754023372233558"/>
+          <c:h val="0.15174701578076888"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1299,15 +1385,15 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0.74803149606299213" l="0.70866141732283472" r="0.70866141732283472" t="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup paperSize="121" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3074,22 +3160,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2162736</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2140325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>459443</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D02103E-D5FB-44DB-8A44-3CB4475582FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA84270-8FFA-4834-95BC-BD22530C3EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,47 +3500,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -3462,19 +3546,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3482,22 +3566,22 @@
         <v>83.32</v>
       </c>
       <c r="C3" s="2">
-        <v>9.9248010000000004</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
         <v>270896</v>
       </c>
-      <c r="F3" s="4">
+      <c r="D3" s="4">
         <v>1.116668</v>
       </c>
       <c r="G3" s="2">
         <v>6.9734926686704099E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>9.9248010000000004</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -3505,22 +3589,22 @@
         <v>89.08</v>
       </c>
       <c r="C4" s="2">
-        <v>8.3052390000000003</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
         <v>120000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="D4" s="4">
         <v>0.92543200000000003</v>
       </c>
       <c r="G4" s="2">
         <v>5.69943856884167E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>8.3052390000000003</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -3528,22 +3612,22 @@
         <v>83.32</v>
       </c>
       <c r="C5" s="2">
-        <v>10.030422</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
         <v>270896</v>
       </c>
-      <c r="F5" s="4">
+      <c r="D5" s="4">
         <v>1.1150789999999999</v>
       </c>
       <c r="G5" s="2">
         <v>7.06509731001633E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>10.030422</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -3551,68 +3635,68 @@
         <v>89.16</v>
       </c>
       <c r="C6" s="2">
-        <v>8.4986969999999999</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
         <v>120000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="D6" s="4">
         <v>0.92384699999999997</v>
       </c>
       <c r="G6" s="2">
         <v>5.6782391636844502E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>8.4986969999999999</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4">
         <v>72.290000000000006</v>
       </c>
       <c r="C7" s="2">
-        <v>2.269269</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="2">
         <v>28500</v>
       </c>
-      <c r="F7" s="4">
+      <c r="D7" s="4">
         <v>0.115411</v>
       </c>
       <c r="G7" s="2">
         <v>0.12207657432939301</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>2.269269</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4">
         <v>72.209999999999994</v>
       </c>
       <c r="C8" s="2">
-        <v>2.3896959999999998</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="2">
         <v>28500</v>
       </c>
-      <c r="F8" s="4">
+      <c r="D8" s="4">
         <v>0.109725</v>
       </c>
       <c r="G8" s="2">
         <v>0.122460156785788</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>2.3896959999999998</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3620,22 +3704,22 @@
         <v>69.63</v>
       </c>
       <c r="C9" s="2">
-        <v>2.120196</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="2">
         <v>13450</v>
       </c>
-      <c r="F9" s="4">
+      <c r="D9" s="4">
         <v>6.1318999999999999E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.112280942283185</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>2.120196</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -3643,27 +3727,27 @@
         <v>69.53</v>
       </c>
       <c r="C10" s="2">
-        <v>8.6140760000000007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="2">
         <v>13450</v>
       </c>
-      <c r="F10" s="4">
+      <c r="D10" s="4">
         <v>5.8624999999999997E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.110153574612901</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3671,22 +3755,22 @@
         <v>87.38</v>
       </c>
       <c r="C14" s="2">
-        <v>20.946403</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2">
         <v>657968</v>
       </c>
-      <c r="F14" s="4">
+      <c r="D14" s="4">
         <v>2.7028509999999999</v>
       </c>
       <c r="G14" s="2">
         <v>4.9084009616167198E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>20.946403</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3694,22 +3778,22 @@
         <v>87.49</v>
       </c>
       <c r="C15" s="2">
-        <v>21.966231000000001</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2">
         <v>657968</v>
       </c>
-      <c r="F15" s="4">
+      <c r="D15" s="4">
         <v>2.7012779999999998</v>
       </c>
       <c r="G15" s="2">
         <v>6.3413642065410503E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>21.966231000000001</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3717,22 +3801,22 @@
         <v>89.12</v>
       </c>
       <c r="C16" s="2">
-        <v>18.002445000000002</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2">
         <v>271148</v>
       </c>
-      <c r="F16" s="4">
+      <c r="D16" s="4">
         <v>2.2883770000000001</v>
       </c>
       <c r="G16" s="2">
         <v>5.59299561952269E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <v>18.002445000000002</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -3740,22 +3824,22 @@
         <v>89.15</v>
       </c>
       <c r="C17" s="2">
-        <v>18.160620999999999</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2">
         <v>271148</v>
       </c>
-      <c r="F17" s="4">
+      <c r="D17" s="4">
         <v>2.2867959999999998</v>
       </c>
       <c r="G17" s="2">
         <v>5.5485583713249298E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2">
+        <v>18.160620999999999</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -3763,22 +3847,22 @@
         <v>85.36</v>
       </c>
       <c r="C18" s="2">
-        <v>9.9305280000000007</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2">
         <v>270896</v>
       </c>
-      <c r="F18" s="4">
+      <c r="D18" s="4">
         <v>1.116662</v>
       </c>
       <c r="G18" s="2">
         <v>9.0237686140547696E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="2">
+        <v>9.9305280000000007</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -3786,22 +3870,22 @@
         <v>85.33</v>
       </c>
       <c r="C19" s="2">
-        <v>10.019786</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2">
         <v>270896</v>
       </c>
-      <c r="F19" s="4">
+      <c r="D19" s="4">
         <v>1.115083</v>
       </c>
       <c r="G19" s="2">
         <v>9.0063366581535201E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2">
+        <v>10.019786</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -3809,19 +3893,19 @@
         <v>86.33</v>
       </c>
       <c r="C20" s="2">
+        <v>270896</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.1166700000000001</v>
+      </c>
+      <c r="H20" s="2">
         <v>9.999606</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2">
-        <v>270896</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.1166700000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3829,19 +3913,19 @@
         <v>86.34</v>
       </c>
       <c r="C21" s="2">
+        <v>270896</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.1150850000000001</v>
+      </c>
+      <c r="H21" s="2">
         <v>10.21219</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2">
-        <v>270896</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1.1150850000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -3849,22 +3933,22 @@
         <v>89.24</v>
       </c>
       <c r="C22" s="2">
-        <v>8.3240409999999994</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2">
         <v>120000</v>
       </c>
-      <c r="F22" s="4">
+      <c r="D22" s="4">
         <v>0.92542599999999997</v>
       </c>
       <c r="G22" s="2">
         <v>4.9084009616167198E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2">
+        <v>8.3240409999999994</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -3872,395 +3956,395 @@
         <v>89.22</v>
       </c>
       <c r="C23" s="2">
-        <v>8.6140760000000007</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
         <v>120000</v>
       </c>
-      <c r="F23" s="4">
+      <c r="D23" s="4">
         <v>0.92384699999999997</v>
       </c>
       <c r="G23" s="2">
         <v>4.92215400002885E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4">
         <v>86.8</v>
       </c>
-      <c r="C24" s="4">
-        <v>16.776167000000001</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="2">
         <v>464432</v>
       </c>
-      <c r="F24" s="4">
+      <c r="D24" s="4">
         <v>1.909734</v>
       </c>
       <c r="G24" s="2">
         <v>7.3426153378751899E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="4">
+        <v>16.776167000000001</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4">
         <v>86.82</v>
       </c>
       <c r="C25" s="2">
-        <v>16.864172</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="2">
         <v>464432</v>
       </c>
-      <c r="F25" s="4">
+      <c r="D25" s="4">
         <v>1.9081509999999999</v>
       </c>
       <c r="G25" s="2">
         <v>7.3541552879987496E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2">
+        <v>16.864172</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4">
         <v>89.59</v>
       </c>
       <c r="C26" s="2">
-        <v>14.022741999999999</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="2">
         <v>208476</v>
       </c>
-      <c r="F26" s="4">
+      <c r="D26" s="4">
         <v>1.6068739999999999</v>
       </c>
       <c r="G26" s="2">
         <v>5.1864149467623501E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="2">
+        <v>14.022741999999999</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4">
         <v>89.61</v>
       </c>
       <c r="C27" s="2">
-        <v>14.004538999999999</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="2">
         <v>208476</v>
       </c>
-      <c r="F27" s="4">
+      <c r="D27" s="4">
         <v>1.6052949999999999</v>
       </c>
       <c r="G27" s="2">
         <v>5.2060445637739199E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="2">
+        <v>14.004538999999999</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B28" s="4">
         <v>86</v>
       </c>
       <c r="C28" s="2">
-        <v>13.804232000000001</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="2">
         <v>367664</v>
       </c>
-      <c r="F28" s="4">
+      <c r="D28" s="4">
         <v>1.5132019999999999</v>
       </c>
       <c r="G28" s="2">
         <v>9.2760983177195694E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="2">
+        <v>13.804232000000001</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B29" s="4">
         <v>85.98</v>
       </c>
       <c r="C29" s="2">
-        <v>13.812071</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2">
         <v>367664</v>
       </c>
-      <c r="F29" s="4">
+      <c r="D29" s="4">
         <v>1.511619</v>
       </c>
       <c r="G29" s="2">
         <v>9.2977201506605794E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="2">
+        <v>13.812071</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B30" s="4">
         <v>89.33</v>
       </c>
       <c r="C30" s="2">
-        <v>11.645421000000001</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="2">
         <v>151336</v>
       </c>
-      <c r="F30" s="4">
+      <c r="D30" s="4">
         <v>1.2661519999999999</v>
       </c>
       <c r="G30" s="2">
         <v>5.8414125004146E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="2">
+        <v>11.645421000000001</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4">
         <v>89.33</v>
       </c>
       <c r="C31" s="2">
-        <v>11.266840999999999</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2">
         <v>151336</v>
       </c>
-      <c r="F31" s="4">
+      <c r="D31" s="4">
         <v>1.264567</v>
       </c>
       <c r="G31" s="2">
         <v>5.8465459888724002E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="2">
+        <v>11.266840999999999</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B32" s="4">
         <v>85.95</v>
       </c>
       <c r="C32" s="2">
-        <v>7.7266199999999996</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="2">
         <v>174128</v>
       </c>
-      <c r="F32" s="4">
+      <c r="D32" s="4">
         <v>0.72013199999999999</v>
       </c>
       <c r="G32" s="2">
         <v>8.5309143706873494E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="2">
+        <v>7.7266199999999996</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B33" s="4">
         <v>85.91</v>
       </c>
       <c r="C33" s="2">
-        <v>7.4747440000000003</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="2">
         <v>174128</v>
       </c>
-      <c r="F33" s="4">
+      <c r="D33" s="4">
         <v>0.71854099999999999</v>
       </c>
       <c r="G33" s="2">
         <v>8.5324615440094398E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="2">
+        <v>7.4747440000000003</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B34" s="4">
         <v>87.8</v>
       </c>
       <c r="C34" s="2">
-        <v>6.3952920000000004</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="2">
         <v>108017</v>
       </c>
-      <c r="F34" s="4">
+      <c r="D34" s="4">
         <v>0.58470800000000001</v>
       </c>
       <c r="G34" s="2">
         <v>5.2935810185544503E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="2">
+        <v>6.3952920000000004</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B35" s="4">
         <v>87.77</v>
       </c>
       <c r="C35" s="2">
-        <v>6.3420810000000003</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="2">
         <v>108017</v>
       </c>
-      <c r="F35" s="4">
+      <c r="D35" s="4">
         <v>0.583121</v>
       </c>
       <c r="G35" s="2">
         <v>5.33142570050451E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="2">
+        <v>6.3420810000000003</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B36" s="4">
         <v>82.65</v>
       </c>
       <c r="C36" s="2">
-        <v>3.7664900000000001</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="2">
         <v>77360</v>
       </c>
-      <c r="F36" s="4">
+      <c r="D36" s="4">
         <v>0.24398</v>
       </c>
       <c r="G36" s="2">
         <v>7.9778756570906703E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="2">
+        <v>3.7664900000000001</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="B37" s="4">
         <v>82.65</v>
       </c>
       <c r="C37" s="2">
-        <v>3.7241949999999999</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="2">
         <v>77360</v>
       </c>
-      <c r="F37" s="4">
+      <c r="D37" s="4">
         <v>0.242399</v>
       </c>
       <c r="G37" s="2">
         <v>8.0512421401917805E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="2">
+        <v>3.7241949999999999</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B38" s="4">
         <v>81.48</v>
       </c>
       <c r="C38" s="2">
-        <v>4.3323140000000002</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="2">
         <v>25073</v>
       </c>
-      <c r="F38" s="4">
+      <c r="D38" s="4">
         <v>0.3236</v>
       </c>
       <c r="G38" s="2">
         <v>7.9337002716260902E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="2">
+        <v>4.3323140000000002</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B39" s="4">
         <v>81.44</v>
       </c>
-      <c r="C39" s="4">
-        <v>4.4862919999999997</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39" s="2">
         <v>25073</v>
       </c>
-      <c r="F39" s="4">
+      <c r="D39" s="4">
         <v>0.322015</v>
       </c>
       <c r="G39" s="2">
         <v>7.98175419315829E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="4">
+        <v>4.4862919999999997</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -4268,22 +4352,22 @@
         <v>98.82</v>
       </c>
       <c r="C42" s="2">
-        <v>1.2237389999999999</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="2">
         <v>26000</v>
       </c>
-      <c r="F42" s="4">
+      <c r="D42" s="4">
         <v>0.105419</v>
       </c>
       <c r="G42" s="2">
         <v>8.6485078856387201E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="2">
+        <v>1.2237389999999999</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -4291,22 +4375,22 @@
         <v>98.62</v>
       </c>
       <c r="C43" s="2">
-        <v>1.1038809999999999</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="2">
         <v>4250</v>
       </c>
-      <c r="F43" s="4">
+      <c r="D43" s="4">
         <v>5.4375E-2</v>
       </c>
       <c r="G43" s="2">
         <v>5.8218386494567204E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="2">
+        <v>1.1038809999999999</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
@@ -4314,22 +4398,22 @@
         <v>98.79</v>
       </c>
       <c r="C44" s="2">
-        <v>1.2610079999999999</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="2">
         <v>26000</v>
       </c>
-      <c r="F44" s="4">
+      <c r="D44" s="4">
         <v>0.104223</v>
       </c>
       <c r="G44" s="2">
         <v>9.0671430856920105E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="2">
+        <v>1.2610079999999999</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -4337,27 +4421,27 @@
         <v>98.63</v>
       </c>
       <c r="C45" s="2">
-        <v>1.1283540000000001</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="2">
         <v>4250</v>
       </c>
-      <c r="F45" s="4">
+      <c r="D45" s="4">
         <v>5.3180999999999999E-2</v>
       </c>
       <c r="G45" s="2">
         <v>5.8009353020417997E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="2">
+        <v>1.1283540000000001</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -4365,22 +4449,22 @@
         <v>99.16</v>
       </c>
       <c r="C48" s="2">
-        <v>1.5371889999999999</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="2">
         <v>430500</v>
       </c>
-      <c r="F48" s="4">
+      <c r="D48" s="4">
         <v>1.7256480000000001</v>
       </c>
       <c r="G48" s="2">
         <v>3.5601117196856699E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <v>1.5371889999999999</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -4388,22 +4472,22 @@
         <v>99.13</v>
       </c>
       <c r="C49" s="2">
-        <v>1.7159580000000001</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="2">
         <v>430500</v>
       </c>
-      <c r="F49" s="4">
+      <c r="D49" s="4">
         <v>0.51116700000000004</v>
       </c>
       <c r="G49" s="2">
         <v>3.8375351290622101E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="2">
+        <v>1.7159580000000001</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
@@ -4411,22 +4495,22 @@
         <v>99.18</v>
       </c>
       <c r="C50" s="2">
-        <v>1.3895949999999999</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="2">
         <v>206500</v>
       </c>
-      <c r="F50" s="4">
+      <c r="D50" s="4">
         <v>1.674606</v>
       </c>
       <c r="G50" s="2">
         <v>3.8574034118390201E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="2">
+        <v>1.3895949999999999</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -4434,45 +4518,45 @@
         <v>99.19</v>
       </c>
       <c r="C51" s="2">
-        <v>1.830317</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="2">
         <v>206500</v>
       </c>
-      <c r="F51" s="4">
+      <c r="D51" s="4">
         <v>0.46012700000000001</v>
       </c>
       <c r="G51" s="2">
         <v>3.5255642920640601E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="2">
+        <v>1.830317</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B52" s="4">
         <v>98.59</v>
       </c>
       <c r="C52" s="2">
-        <v>1.095572</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="2">
         <v>26000</v>
       </c>
-      <c r="F52" s="4">
+      <c r="D52" s="4">
         <v>0.105419</v>
       </c>
       <c r="G52" s="2">
         <v>1.15464722906572E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="2">
+        <v>1.095572</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -4480,22 +4564,22 @@
         <v>98.57</v>
       </c>
       <c r="C53" s="2">
-        <v>1.253695</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="2">
         <v>26000</v>
       </c>
-      <c r="F53" s="4">
+      <c r="D53" s="4">
         <v>0.104223</v>
       </c>
       <c r="G53" s="2">
         <v>1.16085921834968E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="2">
+        <v>1.253695</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -4503,19 +4587,19 @@
         <v>98.47</v>
       </c>
       <c r="C54" s="2">
+        <v>26000</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.10541300000000001</v>
+      </c>
+      <c r="H54" s="2">
         <v>1.285355</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="2">
-        <v>26000</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.10541300000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -4523,19 +4607,19 @@
         <v>98.47</v>
       </c>
       <c r="C55" s="2">
+        <v>26000</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.104225</v>
+      </c>
+      <c r="H55" s="2">
         <v>1.242767</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="2">
-        <v>26000</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0.104225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -4543,22 +4627,22 @@
         <v>98.75</v>
       </c>
       <c r="C56" s="2">
-        <v>0.96425799999999995</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2">
         <v>4250</v>
       </c>
-      <c r="F56" s="4">
+      <c r="D56" s="4">
         <v>5.4375E-2</v>
       </c>
       <c r="G56" s="2">
         <v>4.2026482421618902E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="2">
+        <v>0.96425799999999995</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -4566,489 +4650,489 @@
         <v>98.76</v>
       </c>
       <c r="C57" s="2">
-        <v>1.029093</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="2">
         <v>4250</v>
       </c>
-      <c r="F57" s="4">
+      <c r="D57" s="4">
         <v>5.3183000000000001E-2</v>
       </c>
       <c r="G57" s="2">
         <v>4.5172598747641396E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="2">
+        <v>1.029093</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="4">
         <v>70.42</v>
       </c>
-      <c r="C60" s="5">
-        <v>2.7016203703703703E-3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="C60" s="2">
         <v>11678912</v>
       </c>
-      <c r="F60" s="4">
+      <c r="D60" s="4">
         <v>46.816065999999999</v>
       </c>
       <c r="G60" s="2">
         <v>0.21851480634433099</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="5">
+        <v>2.7016203703703703E-3</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B61" s="4">
         <v>70.27</v>
       </c>
-      <c r="C61" s="5">
-        <v>2.7006944444444448E-3</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="C61" s="2">
         <v>4680578</v>
       </c>
-      <c r="F61" s="4">
+      <c r="D61" s="4">
         <v>46.816065999999999</v>
       </c>
       <c r="G61" s="2">
         <v>0.21413630213618401</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="5">
+        <v>2.7006944444444448E-3</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="4">
         <v>70.48</v>
       </c>
-      <c r="C62" s="5">
-        <v>2.6709490740740743E-3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="C62" s="2">
         <v>11678912</v>
       </c>
-      <c r="F62" s="4">
+      <c r="D62" s="4">
         <v>45.280406999999997</v>
       </c>
       <c r="G62" s="2">
         <v>0.217732426371541</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="5">
+        <v>2.6709490740740743E-3</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B63" s="4">
         <v>70.209999999999994</v>
       </c>
-      <c r="C63" s="5">
-        <v>2.6855324074074073E-3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="C63" s="2">
         <v>4680578</v>
       </c>
-      <c r="F63" s="4">
+      <c r="D63" s="4">
         <v>45.280405000000002</v>
       </c>
       <c r="G63" s="2">
         <v>0.21532358301717699</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="5">
+        <v>2.6855324074074073E-3</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B64" s="4">
         <v>51.72</v>
       </c>
-      <c r="C64" s="5">
-        <v>3.6650925925925926E-3</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="C64" s="4">
         <v>4209088</v>
       </c>
-      <c r="F64" s="4">
+      <c r="D64" s="4">
         <v>17.040520000000001</v>
       </c>
       <c r="G64" s="2">
         <v>0.25277799049636801</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="5">
+        <v>3.6650925925925926E-3</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B65" s="4">
         <v>51.69</v>
       </c>
-      <c r="C65" s="5">
-        <v>3.7202083333333336E-3</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="C65" s="2">
         <v>4209088</v>
       </c>
-      <c r="F65" s="4">
+      <c r="D65" s="4">
         <v>13.968855</v>
       </c>
       <c r="G65" s="2">
         <v>0.25331285731124298</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="5">
+        <v>3.7202083333333336E-3</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B66" s="4">
         <v>63.15</v>
       </c>
-      <c r="C66" s="5">
-        <v>3.8203240740740745E-3</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="C66" s="2">
         <v>2329532</v>
       </c>
-      <c r="F66" s="4">
+      <c r="D66" s="4">
         <v>17.040521999999999</v>
       </c>
       <c r="G66" s="2">
         <v>0.23315852895724901</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="5">
+        <v>3.8203240740740745E-3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4">
         <v>63.2</v>
       </c>
-      <c r="C67" s="5">
-        <v>3.7037037037037034E-3</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="C67" s="2">
         <v>2329532</v>
       </c>
-      <c r="F67" s="4">
+      <c r="D67" s="4">
         <v>13.968857</v>
       </c>
       <c r="G67" s="2">
         <v>0.23374172001788299</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="5">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="4">
         <v>77.099999999999994</v>
       </c>
-      <c r="C70" s="5">
-        <v>8.0555555555555554E-3</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="C70" s="2">
         <v>25502912</v>
       </c>
-      <c r="F70" s="4">
+      <c r="D70" s="4">
         <v>102.49232499999999</v>
       </c>
       <c r="G70" s="2">
         <v>0.201744460687976</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="5">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="4">
         <v>77.11</v>
       </c>
-      <c r="C71" s="5">
-        <v>8.1613541666666675E-3</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="C71" s="2">
         <v>25502912</v>
       </c>
-      <c r="F71" s="4">
+      <c r="D71" s="4">
         <v>96.348668000000004</v>
       </c>
       <c r="G71" s="2">
         <v>0.201319795073719</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="5">
+        <v>8.1613541666666675E-3</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="4">
         <v>75.599999999999994</v>
       </c>
-      <c r="C72" s="5">
-        <v>7.962303240740742E-3</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="C72" s="2">
         <v>5108133</v>
       </c>
-      <c r="F72" s="4">
+      <c r="D72" s="4">
         <v>102.49232499999999</v>
       </c>
       <c r="G72" s="2">
         <v>0.203720688485965</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="5">
+        <v>7.962303240740742E-3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B73" s="4">
         <v>75.58</v>
       </c>
-      <c r="C73" s="5">
-        <v>8.3157407407407399E-3</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="C73" s="2">
         <v>5108133</v>
       </c>
-      <c r="F73" s="4">
+      <c r="D73" s="4">
         <v>96.348668000000004</v>
       </c>
       <c r="G73" s="2">
         <v>0.20269442819875499</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="5">
+        <v>8.3157407407407399E-3</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="4">
         <v>51.99</v>
       </c>
-      <c r="C74" s="5">
-        <v>2.7436342592592595E-3</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="C74" s="2">
         <v>11678912</v>
       </c>
-      <c r="F74" s="4">
+      <c r="D74" s="4">
         <v>46.816056000000003</v>
       </c>
       <c r="G74" s="2">
         <v>0.25332565652245498</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="5">
+        <v>2.7436342592592595E-3</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B75" s="4">
         <v>51.99</v>
       </c>
-      <c r="C75" s="5">
-        <v>2.6890046296296297E-3</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="C75" s="2">
         <v>11678912</v>
       </c>
-      <c r="F75" s="4">
+      <c r="D75" s="4">
         <v>45.280405000000002</v>
       </c>
       <c r="G75" s="2">
         <v>0.25302520592167499</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="5">
+        <v>2.6890046296296297E-3</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="4">
         <v>58.92</v>
       </c>
-      <c r="C76" s="5">
-        <v>2.6802083333333335E-3</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="C76" s="2">
         <v>4680578</v>
       </c>
-      <c r="F76" s="4">
+      <c r="D76" s="4">
         <v>46.816056000000003</v>
       </c>
       <c r="G76" s="2">
         <v>0.240339215088964</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="5">
+        <v>2.6802083333333335E-3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="4">
         <v>58.86</v>
       </c>
-      <c r="C77" s="5">
-        <v>2.6906249999999999E-3</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="C77" s="2">
         <v>4680578</v>
       </c>
-      <c r="F77" s="4">
+      <c r="D77" s="4">
         <v>45.280405000000002</v>
       </c>
       <c r="G77" s="2">
         <v>0.240743430230384</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="5">
+        <v>2.6906249999999999E-3</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4">
         <v>47.92</v>
       </c>
-      <c r="C78" s="5">
-        <v>4.6412037037037038E-3</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="C78" s="2">
         <v>21779648</v>
       </c>
-      <c r="F78" s="4">
+      <c r="D78" s="4">
         <v>87.294079999999994</v>
       </c>
       <c r="G78" s="2">
         <v>0.254144438088374</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="5">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B79" s="4">
         <v>47.9</v>
       </c>
-      <c r="C79" s="5">
-        <v>5.1597222222222218E-3</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="C79" s="2">
         <v>21779648</v>
       </c>
-      <c r="F79" s="4">
+      <c r="D79" s="4">
         <v>85.758416999999994</v>
       </c>
       <c r="G79" s="2">
         <v>0.25502562827750402</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="5">
+        <v>5.1597222222222218E-3</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B80" s="4">
         <v>58.33</v>
       </c>
-      <c r="C80" s="5">
-        <v>5.7175925925925927E-3</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="C80" s="2">
         <v>4363472</v>
       </c>
-      <c r="F80" s="4">
+      <c r="D80" s="4">
         <v>87.294079999999994</v>
       </c>
       <c r="G80" s="4">
         <v>0.24002845269050399</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="5">
+        <v>5.7175925925925927E-3</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B81" s="4">
         <v>58.3</v>
       </c>
-      <c r="C81" s="5">
-        <v>6.053240740740741E-3</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="C81" s="2">
         <v>4363472</v>
       </c>
-      <c r="F81" s="4">
+      <c r="D81" s="4">
         <v>85.758416999999994</v>
       </c>
       <c r="G81" s="2">
         <v>0.24002845269050399</v>
+      </c>
+      <c r="H81" s="5">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5061,15 +5145,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="A48:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
@@ -5081,22 +5165,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
@@ -5122,7 +5206,7 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3">
         <v>0.87380000000000002</v>
@@ -5145,7 +5229,7 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>0.85360000000000003</v>
@@ -5173,7 +5257,7 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3">
         <v>0.99160000000000004</v>
@@ -5196,7 +5280,7 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3">
         <v>0.9859</v>
@@ -5224,7 +5308,7 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
         <v>0.77100000000000002</v>
@@ -5247,7 +5331,7 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3">
         <v>0.51990000000000003</v>
@@ -5317,7 +5401,7 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3">
         <v>0.87380000000000002</v>
@@ -5340,7 +5424,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3">
         <v>0.89119999999999999</v>
@@ -5368,7 +5452,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3">
         <v>0.98819999999999997</v>
@@ -5414,7 +5498,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3">
         <v>0.99160000000000004</v>
@@ -5465,7 +5549,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3">
         <v>0.70420000000000005</v>
@@ -5511,7 +5595,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
         <v>0.77100000000000002</v>
@@ -5534,7 +5618,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3">
         <v>0.75600000000000001</v>
@@ -5556,294 +5640,262 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="C30" s="2">
-        <v>9.9248010000000004</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2">
-        <v>270896</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.116668</v>
-      </c>
-      <c r="G30" s="2">
+        <v>163</v>
+      </c>
+      <c r="B30" s="10">
         <v>6.9734926686704099E-2</v>
       </c>
+      <c r="C30" s="10">
+        <v>0.110153574612901</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10.030422</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2">
-        <v>270896</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1.1150789999999999</v>
-      </c>
-      <c r="G31" s="2">
-        <v>7.06509731001633E-2</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B31" s="10">
+        <v>4.9084009616167198E-2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>7.98175419315829E-2</v>
+      </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.87380000000000002</v>
-      </c>
-      <c r="C32" s="2">
-        <v>20.946403</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2">
-        <v>657968</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2.7028509999999999</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4.9084009616167198E-2</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3.5601117196856699E-3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4.5172598747641396E-3</v>
+      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.87490000000000001</v>
-      </c>
-      <c r="C33" s="2">
-        <v>21.966231000000001</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2">
-        <v>657968</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2.7012779999999998</v>
-      </c>
-      <c r="G33" s="2">
-        <v>6.3413642065410503E-2</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.21851480634433099</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.23374172001788299</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.201744460687976</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.240743430230384</v>
+      </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.2237389999999999</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="2">
-        <v>26000</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.105419</v>
-      </c>
-      <c r="G35" s="2">
-        <v>8.6485078856387201E-3</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.9879</v>
+        <v>163</v>
+      </c>
+      <c r="B36" s="4">
+        <v>69.53</v>
       </c>
       <c r="C36" s="2">
-        <v>1.2610079999999999</v>
+        <v>8.6140760000000007</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2">
-        <v>26000</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.104223</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="2">
-        <v>9.0671430856920105E-3</v>
+        <v>0.110153574612901</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.5371889999999999</v>
+        <v>164</v>
+      </c>
+      <c r="B37" s="4">
+        <v>81.44</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.4862919999999997</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="2">
-        <v>430500</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1.7256480000000001</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="2">
-        <v>3.5601117196856699E-3</v>
+        <v>7.98175419315829E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.99129999999999996</v>
+        <v>165</v>
+      </c>
+      <c r="B38" s="4">
+        <v>98.76</v>
       </c>
       <c r="C38" s="2">
-        <v>1.7159580000000001</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="2">
-        <v>430500</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.51116700000000004</v>
-      </c>
+        <v>1.029093</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="2">
-        <v>3.8375351290622101E-3</v>
+        <v>4.5172598747641396E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="F39" s="4"/>
+      <c r="G39" s="2">
+        <v>0.23374172001788299</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.70420000000000005</v>
-      </c>
-      <c r="C40" s="4">
-        <v>233</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="2">
-        <v>11678912</v>
-      </c>
-      <c r="F40" s="4">
-        <v>46.816065999999999</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B40" s="4">
+        <v>58.86</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.6906249999999999E-3</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="2">
-        <v>0.21851480634433099</v>
+        <v>0.240743430230384</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.70479999999999998</v>
-      </c>
-      <c r="C41" s="4">
-        <v>230</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2">
-        <v>11678912</v>
-      </c>
-      <c r="F41" s="4">
-        <v>45.280406999999997</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.217732426371541</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C42" s="4">
-        <v>696</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2">
-        <v>25502912</v>
-      </c>
-      <c r="F42" s="4">
-        <v>102.49232499999999</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B42" s="4">
+        <v>83.32</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.9248010000000004</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="2">
-        <v>0.201744460687976</v>
+        <v>6.9734926686704099E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="C43" s="4">
-        <v>705</v>
+        <v>164</v>
+      </c>
+      <c r="B43" s="4">
+        <v>87.38</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20.946403</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="2">
-        <v>25502912</v>
-      </c>
-      <c r="F43" s="4">
-        <v>96.348668000000004</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="2">
-        <v>0.201319795073719</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C44" s="10"/>
+        <v>4.9084009616167198E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="4">
+        <v>99.16</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.5371889999999999</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2">
+        <v>3.5601117196856699E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="4">
+        <v>70.42</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.7016203703703703E-3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2">
+        <v>0.21851480634433099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C46" s="5">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2">
+        <v>0.201744460687976</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5957,7 +6009,7 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4">
         <v>89.16</v>
@@ -5985,7 +6037,7 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4">
         <v>87.38</v>
@@ -6008,7 +6060,7 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4">
         <v>89.12</v>
@@ -6031,7 +6083,7 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4">
         <v>89.15</v>
@@ -6060,7 +6112,7 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4">
         <v>98.82</v>
@@ -6106,7 +6158,7 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4">
         <v>98.63</v>
@@ -6134,7 +6186,7 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4">
         <v>99.16</v>
@@ -6180,7 +6232,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4">
         <v>99.19</v>
@@ -6203,7 +6255,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
         <v>70.42</v>
@@ -6249,7 +6301,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4">
         <v>70.209999999999994</v>
@@ -6277,7 +6329,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4">
         <v>77.099999999999994</v>
@@ -6300,7 +6352,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4">
         <v>75.599999999999994</v>
@@ -6323,7 +6375,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" s="4">
         <v>75.58</v>
@@ -6349,7 +6401,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>47</v>
@@ -6361,12 +6413,12 @@
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2">
         <v>6.9734926686704099E-2</v>
@@ -6389,7 +6441,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2">
         <v>5.69943856884167E-2</v>
@@ -6412,7 +6464,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2">
         <v>5.6782391636844502E-2</v>
@@ -6435,18 +6487,18 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4">
         <v>87.38</v>
@@ -6460,7 +6512,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4">
         <v>85.36</v>
@@ -6474,7 +6526,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4">
         <v>85.33</v>
@@ -6491,7 +6543,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>47</v>
@@ -6503,12 +6555,12 @@
         <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4">
         <v>87.38</v>
@@ -6522,7 +6574,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4">
         <v>85.36</v>
@@ -6536,7 +6588,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4">
         <v>89.24</v>
@@ -6550,7 +6602,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4">
         <v>89.22</v>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\Model-Compression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3962D44-B070-410C-A949-06E56E58067E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB18D2E-C617-46D9-AFCD-714F48F4AE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="2100" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="225">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,10 @@
   </si>
   <si>
     <t>Knowledge Distiller(resnet20)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1226,13 +1230,13 @@
     <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1242,192 +1246,219 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>14715584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>14715584</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>9692000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>9692000</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>9222848</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>9222848</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>4669280</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>4669280</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1440,17 +1471,20 @@
       <c r="D23" s="3">
         <v>1.116668</v>
       </c>
+      <c r="E23" s="3">
+        <v>83.32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.9734926686704099E-2</v>
+      </c>
       <c r="G23" s="1">
-        <v>6.9734926686704099E-2</v>
-      </c>
-      <c r="H23" s="1">
         <v>9.9248010000000004</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1463,17 +1497,20 @@
       <c r="D24" s="3">
         <v>0.92543200000000003</v>
       </c>
+      <c r="E24" s="3">
+        <v>83.32</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.69943856884167E-2</v>
+      </c>
       <c r="G24" s="1">
-        <v>5.69943856884167E-2</v>
-      </c>
-      <c r="H24" s="1">
         <v>8.3052390000000003</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1486,17 +1523,20 @@
       <c r="D25" s="3">
         <v>1.1150789999999999</v>
       </c>
+      <c r="E25" s="3">
+        <v>89.08</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.06509731001633E-2</v>
+      </c>
       <c r="G25" s="1">
-        <v>7.06509731001633E-2</v>
-      </c>
-      <c r="H25" s="1">
         <v>10.030422</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1509,17 +1549,20 @@
       <c r="D26" s="3">
         <v>0.92384699999999997</v>
       </c>
+      <c r="E26" s="5">
+        <v>89.16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.6782391636844502E-2</v>
+      </c>
       <c r="G26" s="1">
-        <v>5.6782391636844502E-2</v>
-      </c>
-      <c r="H26" s="1">
         <v>8.4986969999999999</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>220</v>
       </c>
@@ -1532,17 +1575,20 @@
       <c r="D27" s="3">
         <v>0.115411</v>
       </c>
+      <c r="E27" s="5">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.12207657432939301</v>
+      </c>
       <c r="G27" s="1">
-        <v>0.12207657432939301</v>
-      </c>
-      <c r="H27" s="1">
         <v>2.269269</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>221</v>
       </c>
@@ -1555,17 +1601,20 @@
       <c r="D28" s="3">
         <v>0.109725</v>
       </c>
+      <c r="E28" s="3">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.122460156785788</v>
+      </c>
       <c r="G28" s="1">
-        <v>0.122460156785788</v>
-      </c>
-      <c r="H28" s="1">
         <v>2.3896959999999998</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>222</v>
       </c>
@@ -1578,17 +1627,20 @@
       <c r="D29" s="3">
         <v>6.1318999999999999E-2</v>
       </c>
+      <c r="E29" s="3">
+        <v>69.63</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.112280942283185</v>
+      </c>
       <c r="G29" s="1">
-        <v>0.112280942283185</v>
-      </c>
-      <c r="H29" s="1">
         <v>2.120196</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>223</v>
       </c>
@@ -1601,22 +1653,25 @@
       <c r="D30" s="3">
         <v>5.8624999999999997E-2</v>
       </c>
+      <c r="E30" s="3">
+        <v>69.53</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.110153574612901</v>
+      </c>
       <c r="G30" s="1">
-        <v>0.110153574612901</v>
-      </c>
-      <c r="H30" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,17 +1684,20 @@
       <c r="D33" s="3">
         <v>2.7028509999999999</v>
       </c>
+      <c r="E33" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.9084009616167198E-2</v>
+      </c>
       <c r="G33" s="1">
-        <v>4.9084009616167198E-2</v>
-      </c>
-      <c r="H33" s="1">
         <v>20.946403</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1652,17 +1710,20 @@
       <c r="D34" s="3">
         <v>2.7012779999999998</v>
       </c>
+      <c r="E34" s="1">
+        <v>87.49</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.3413642065410503E-2</v>
+      </c>
       <c r="G34" s="1">
-        <v>6.3413642065410503E-2</v>
-      </c>
-      <c r="H34" s="1">
         <v>21.966231000000001</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1675,17 +1736,20 @@
       <c r="D35" s="3">
         <v>2.2883770000000001</v>
       </c>
+      <c r="E35" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.59299561952269E-2</v>
+      </c>
       <c r="G35" s="1">
-        <v>5.59299561952269E-2</v>
-      </c>
-      <c r="H35" s="1">
         <v>18.002445000000002</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1698,17 +1762,20 @@
       <c r="D36" s="3">
         <v>2.2867959999999998</v>
       </c>
+      <c r="E36" s="1">
+        <v>89.15</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.5485583713249298E-2</v>
+      </c>
       <c r="G36" s="1">
-        <v>5.5485583713249298E-2</v>
-      </c>
-      <c r="H36" s="1">
         <v>18.160620999999999</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1721,17 +1788,20 @@
       <c r="D37" s="3">
         <v>1.116662</v>
       </c>
+      <c r="E37" s="1">
+        <v>85.36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.0237686140547696E-2</v>
+      </c>
       <c r="G37" s="1">
-        <v>9.0237686140547696E-2</v>
-      </c>
-      <c r="H37" s="1">
         <v>9.9305280000000007</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1744,17 +1814,20 @@
       <c r="D38" s="3">
         <v>1.115083</v>
       </c>
+      <c r="E38" s="1">
+        <v>85.33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.0063366581535201E-2</v>
+      </c>
       <c r="G38" s="1">
-        <v>9.0063366581535201E-2</v>
-      </c>
-      <c r="H38" s="1">
         <v>10.019786</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1767,17 +1840,20 @@
       <c r="D39" s="3">
         <v>0.92542599999999997</v>
       </c>
+      <c r="E39" s="1">
+        <v>89.24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.9084009616167198E-2</v>
+      </c>
       <c r="G39" s="1">
-        <v>4.9084009616167198E-2</v>
-      </c>
-      <c r="H39" s="1">
         <v>8.3240409999999994</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1790,17 +1866,20 @@
       <c r="D40" s="3">
         <v>0.92384699999999997</v>
       </c>
+      <c r="E40" s="1">
+        <v>89.22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.92215400002885E-2</v>
+      </c>
       <c r="G40" s="1">
-        <v>4.92215400002885E-2</v>
-      </c>
-      <c r="H40" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -1813,17 +1892,20 @@
       <c r="D41" s="3">
         <v>1.909734</v>
       </c>
-      <c r="G41" s="1">
+      <c r="E41" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="F41" s="1">
         <v>7.3426153378751899E-2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="G41" s="3">
         <v>16.776167000000001</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1836,17 +1918,20 @@
       <c r="D42" s="3">
         <v>1.9081509999999999</v>
       </c>
+      <c r="E42" s="1">
+        <v>86.82</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7.3541552879987496E-2</v>
+      </c>
       <c r="G42" s="1">
-        <v>7.3541552879987496E-2</v>
-      </c>
-      <c r="H42" s="1">
         <v>16.864172</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -1859,17 +1944,20 @@
       <c r="D43" s="3">
         <v>1.6068739999999999</v>
       </c>
+      <c r="E43" s="1">
+        <v>89.59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.1864149467623501E-2</v>
+      </c>
       <c r="G43" s="1">
-        <v>5.1864149467623501E-2</v>
-      </c>
-      <c r="H43" s="1">
         <v>14.022741999999999</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -1882,17 +1970,20 @@
       <c r="D44" s="3">
         <v>1.6052949999999999</v>
       </c>
+      <c r="E44" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.2060445637739199E-2</v>
+      </c>
       <c r="G44" s="1">
-        <v>5.2060445637739199E-2</v>
-      </c>
-      <c r="H44" s="1">
         <v>14.004538999999999</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -1905,17 +1996,20 @@
       <c r="D45" s="3">
         <v>1.5132019999999999</v>
       </c>
+      <c r="E45" s="1">
+        <v>86</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9.2760983177195694E-2</v>
+      </c>
       <c r="G45" s="1">
-        <v>9.2760983177195694E-2</v>
-      </c>
-      <c r="H45" s="1">
         <v>13.804232000000001</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -1928,17 +2022,20 @@
       <c r="D46" s="3">
         <v>1.511619</v>
       </c>
+      <c r="E46" s="1">
+        <v>85.98</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9.2977201506605794E-2</v>
+      </c>
       <c r="G46" s="1">
-        <v>9.2977201506605794E-2</v>
-      </c>
-      <c r="H46" s="1">
         <v>13.812071</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -1951,17 +2048,20 @@
       <c r="D47" s="3">
         <v>1.2661519999999999</v>
       </c>
+      <c r="E47" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.8414125004146E-2</v>
+      </c>
       <c r="G47" s="1">
-        <v>5.8414125004146E-2</v>
-      </c>
-      <c r="H47" s="1">
         <v>11.645421000000001</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -1974,17 +2074,20 @@
       <c r="D48" s="3">
         <v>1.264567</v>
       </c>
+      <c r="E48" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.8465459888724002E-2</v>
+      </c>
       <c r="G48" s="1">
-        <v>5.8465459888724002E-2</v>
-      </c>
-      <c r="H48" s="1">
         <v>11.266840999999999</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
@@ -1997,17 +2100,20 @@
       <c r="D49" s="3">
         <v>0.72013199999999999</v>
       </c>
+      <c r="E49" s="1">
+        <v>85.95</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8.5309143706873494E-2</v>
+      </c>
       <c r="G49" s="1">
-        <v>8.5309143706873494E-2</v>
-      </c>
-      <c r="H49" s="1">
         <v>7.7266199999999996</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -2020,17 +2126,20 @@
       <c r="D50" s="3">
         <v>0.71854099999999999</v>
       </c>
+      <c r="E50" s="1">
+        <v>85.91</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8.5324615440094398E-2</v>
+      </c>
       <c r="G50" s="1">
-        <v>8.5324615440094398E-2</v>
-      </c>
-      <c r="H50" s="1">
         <v>7.4747440000000003</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -2043,17 +2152,20 @@
       <c r="D51" s="3">
         <v>0.58470800000000001</v>
       </c>
+      <c r="E51" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.2935810185544503E-2</v>
+      </c>
       <c r="G51" s="1">
-        <v>5.2935810185544503E-2</v>
-      </c>
-      <c r="H51" s="1">
         <v>6.3952920000000004</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -2066,17 +2178,20 @@
       <c r="D52" s="3">
         <v>0.583121</v>
       </c>
+      <c r="E52" s="1">
+        <v>87.77</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.33142570050451E-2</v>
+      </c>
       <c r="G52" s="1">
-        <v>5.33142570050451E-2</v>
-      </c>
-      <c r="H52" s="1">
         <v>6.3420810000000003</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -2089,17 +2204,20 @@
       <c r="D53" s="3">
         <v>0.24398</v>
       </c>
+      <c r="E53" s="1">
+        <v>82.65</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.9778756570906703E-2</v>
+      </c>
       <c r="G53" s="1">
-        <v>7.9778756570906703E-2</v>
-      </c>
-      <c r="H53" s="1">
         <v>3.7664900000000001</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -2112,17 +2230,20 @@
       <c r="D54" s="3">
         <v>0.242399</v>
       </c>
+      <c r="E54" s="1">
+        <v>82.65</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8.0512421401917805E-2</v>
+      </c>
       <c r="G54" s="1">
-        <v>8.0512421401917805E-2</v>
-      </c>
-      <c r="H54" s="1">
         <v>3.7241949999999999</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -2135,17 +2256,20 @@
       <c r="D55" s="3">
         <v>0.3236</v>
       </c>
+      <c r="E55" s="1">
+        <v>81.48</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7.9337002716260902E-2</v>
+      </c>
       <c r="G55" s="1">
-        <v>7.9337002716260902E-2</v>
-      </c>
-      <c r="H55" s="1">
         <v>4.3323140000000002</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -2158,22 +2282,25 @@
       <c r="D56" s="3">
         <v>0.322015</v>
       </c>
-      <c r="G56" s="1">
+      <c r="E56" s="1">
+        <v>81.44</v>
+      </c>
+      <c r="F56" s="1">
         <v>7.98175419315829E-2</v>
       </c>
-      <c r="H56" s="3">
+      <c r="G56" s="3">
         <v>4.4862919999999997</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -2186,17 +2313,20 @@
       <c r="D59" s="3">
         <v>0.105419</v>
       </c>
+      <c r="E59" s="1">
+        <v>98.82</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8.6485078856387201E-3</v>
+      </c>
       <c r="G59" s="1">
-        <v>8.6485078856387201E-3</v>
-      </c>
-      <c r="H59" s="1">
         <v>1.2237389999999999</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,17 +2339,20 @@
       <c r="D60" s="3">
         <v>5.4375E-2</v>
       </c>
+      <c r="E60" s="1">
+        <v>98.62</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5.8218386494567204E-3</v>
+      </c>
       <c r="G60" s="1">
-        <v>5.8218386494567204E-3</v>
-      </c>
-      <c r="H60" s="1">
         <v>1.1038809999999999</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2232,17 +2365,20 @@
       <c r="D61" s="3">
         <v>0.104223</v>
       </c>
+      <c r="E61" s="1">
+        <v>98.79</v>
+      </c>
+      <c r="F61" s="1">
+        <v>9.0671430856920105E-3</v>
+      </c>
       <c r="G61" s="1">
-        <v>9.0671430856920105E-3</v>
-      </c>
-      <c r="H61" s="1">
         <v>1.2610079999999999</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
@@ -2255,22 +2391,25 @@
       <c r="D62" s="3">
         <v>5.3180999999999999E-2</v>
       </c>
+      <c r="E62" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5.8009353020417997E-3</v>
+      </c>
       <c r="G62" s="1">
-        <v>5.8009353020417997E-3</v>
-      </c>
-      <c r="H62" s="1">
         <v>1.1283540000000001</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -2283,17 +2422,20 @@
       <c r="D65" s="3">
         <v>1.7256480000000001</v>
       </c>
+      <c r="E65" s="1">
+        <v>99.16</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.5601117196856699E-3</v>
+      </c>
       <c r="G65" s="1">
-        <v>3.5601117196856699E-3</v>
-      </c>
-      <c r="H65" s="1">
         <v>1.5371889999999999</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
@@ -2306,17 +2448,20 @@
       <c r="D66" s="3">
         <v>0.51116700000000004</v>
       </c>
+      <c r="E66" s="1">
+        <v>99.13</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3.8375351290622101E-3</v>
+      </c>
       <c r="G66" s="1">
-        <v>3.8375351290622101E-3</v>
-      </c>
-      <c r="H66" s="1">
         <v>1.7159580000000001</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
@@ -2329,17 +2474,20 @@
       <c r="D67" s="3">
         <v>1.674606</v>
       </c>
+      <c r="E67" s="1">
+        <v>99.18</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.8574034118390201E-3</v>
+      </c>
       <c r="G67" s="1">
-        <v>3.8574034118390201E-3</v>
-      </c>
-      <c r="H67" s="1">
         <v>1.3895949999999999</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -2352,17 +2500,20 @@
       <c r="D68" s="3">
         <v>0.46012700000000001</v>
       </c>
+      <c r="E68" s="1">
+        <v>99.19</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.5255642920640601E-3</v>
+      </c>
       <c r="G68" s="1">
-        <v>3.5255642920640601E-3</v>
-      </c>
-      <c r="H68" s="1">
         <v>1.830317</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2375,17 +2526,20 @@
       <c r="D69" s="3">
         <v>0.105419</v>
       </c>
+      <c r="E69" s="1">
+        <v>98.59</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.15464722906572E-2</v>
+      </c>
       <c r="G69" s="1">
-        <v>1.15464722906572E-2</v>
-      </c>
-      <c r="H69" s="1">
         <v>1.095572</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
@@ -2398,17 +2552,20 @@
       <c r="D70" s="3">
         <v>0.104223</v>
       </c>
+      <c r="E70" s="1">
+        <v>98.57</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.16085921834968E-2</v>
+      </c>
       <c r="G70" s="1">
-        <v>1.16085921834968E-2</v>
-      </c>
-      <c r="H70" s="1">
         <v>1.253695</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>184</v>
       </c>
@@ -2421,17 +2578,20 @@
       <c r="D71" s="3">
         <v>5.4375E-2</v>
       </c>
+      <c r="E71" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4.2026482421618902E-3</v>
+      </c>
       <c r="G71" s="1">
-        <v>4.2026482421618902E-3</v>
-      </c>
-      <c r="H71" s="1">
         <v>0.96425799999999995</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>185</v>
       </c>
@@ -2444,22 +2604,25 @@
       <c r="D72" s="3">
         <v>5.3183000000000001E-2</v>
       </c>
+      <c r="E72" s="1">
+        <v>98.76</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.5172598747641396E-3</v>
+      </c>
       <c r="G72" s="1">
-        <v>4.5172598747641396E-3</v>
-      </c>
-      <c r="H72" s="1">
         <v>1.029093</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -2472,17 +2635,20 @@
       <c r="D75" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="G75" s="1">
+      <c r="E75" s="1">
+        <v>70.42</v>
+      </c>
+      <c r="F75" s="1">
         <v>0.21851480634433099</v>
       </c>
-      <c r="H75" s="4">
+      <c r="G75" s="4">
         <v>2.7016203703703703E-3</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
@@ -2495,17 +2661,20 @@
       <c r="D76" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="G76" s="1">
+      <c r="E76" s="1">
+        <v>70.27</v>
+      </c>
+      <c r="F76" s="1">
         <v>0.21413630213618401</v>
       </c>
-      <c r="H76" s="4">
+      <c r="G76" s="4">
         <v>2.7006944444444448E-3</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -2518,17 +2687,20 @@
       <c r="D77" s="3">
         <v>45.280406999999997</v>
       </c>
-      <c r="G77" s="1">
+      <c r="E77" s="1">
+        <v>70.48</v>
+      </c>
+      <c r="F77" s="1">
         <v>0.217732426371541</v>
       </c>
-      <c r="H77" s="4">
+      <c r="G77" s="4">
         <v>2.6709490740740743E-3</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
@@ -2541,17 +2713,20 @@
       <c r="D78" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="G78" s="1">
+      <c r="E78" s="1">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="F78" s="1">
         <v>0.21532358301717699</v>
       </c>
-      <c r="H78" s="4">
+      <c r="G78" s="4">
         <v>2.6855324074074073E-3</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -2564,17 +2739,20 @@
       <c r="D79" s="3">
         <v>17.040520000000001</v>
       </c>
-      <c r="G79" s="1">
+      <c r="E79" s="1">
+        <v>51.72</v>
+      </c>
+      <c r="F79" s="1">
         <v>0.25277799049636801</v>
       </c>
-      <c r="H79" s="4">
+      <c r="G79" s="4">
         <v>3.6650925925925926E-3</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
@@ -2587,17 +2765,20 @@
       <c r="D80" s="3">
         <v>13.968855</v>
       </c>
-      <c r="G80" s="1">
+      <c r="E80" s="1">
+        <v>51.69</v>
+      </c>
+      <c r="F80" s="1">
         <v>0.25331285731124298</v>
       </c>
-      <c r="H80" s="4">
+      <c r="G80" s="4">
         <v>3.7202083333333336E-3</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
@@ -2610,17 +2791,20 @@
       <c r="D81" s="3">
         <v>17.040521999999999</v>
       </c>
-      <c r="G81" s="1">
+      <c r="E81" s="1">
+        <v>63.15</v>
+      </c>
+      <c r="F81" s="1">
         <v>0.23315852895724901</v>
       </c>
-      <c r="H81" s="4">
+      <c r="G81" s="4">
         <v>3.8203240740740745E-3</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
@@ -2633,22 +2817,25 @@
       <c r="D82" s="3">
         <v>13.968857</v>
       </c>
-      <c r="G82" s="1">
+      <c r="E82" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="F82" s="1">
         <v>0.23374172001788299</v>
       </c>
-      <c r="H82" s="4">
+      <c r="G82" s="4">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -2661,17 +2848,20 @@
       <c r="D85" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="G85" s="1">
+      <c r="E85" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F85" s="1">
         <v>0.201744460687976</v>
       </c>
-      <c r="H85" s="4">
+      <c r="G85" s="4">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -2684,17 +2874,20 @@
       <c r="D86" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="G86" s="1">
+      <c r="E86" s="1">
+        <v>77.11</v>
+      </c>
+      <c r="F86" s="1">
         <v>0.201319795073719</v>
       </c>
-      <c r="H86" s="4">
+      <c r="G86" s="4">
         <v>8.1613541666666675E-3</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
@@ -2707,17 +2900,20 @@
       <c r="D87" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="G87" s="1">
+      <c r="E87" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F87" s="1">
         <v>0.203720688485965</v>
       </c>
-      <c r="H87" s="4">
+      <c r="G87" s="4">
         <v>7.962303240740742E-3</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
@@ -2730,17 +2926,20 @@
       <c r="D88" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="G88" s="1">
+      <c r="E88" s="1">
+        <v>75.58</v>
+      </c>
+      <c r="F88" s="1">
         <v>0.20269442819875499</v>
       </c>
-      <c r="H88" s="4">
+      <c r="G88" s="4">
         <v>8.3157407407407399E-3</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -2753,17 +2952,20 @@
       <c r="D89" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="G89" s="1">
+      <c r="E89" s="1">
+        <v>51.99</v>
+      </c>
+      <c r="F89" s="1">
         <v>0.25332565652245498</v>
       </c>
-      <c r="H89" s="4">
+      <c r="G89" s="4">
         <v>2.7436342592592595E-3</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -2776,17 +2978,20 @@
       <c r="D90" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="G90" s="1">
+      <c r="E90" s="1">
+        <v>51.99</v>
+      </c>
+      <c r="F90" s="1">
         <v>0.25302520592167499</v>
       </c>
-      <c r="H90" s="4">
+      <c r="G90" s="4">
         <v>2.6890046296296297E-3</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
@@ -2799,17 +3004,20 @@
       <c r="D91" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="G91" s="1">
+      <c r="E91" s="1">
+        <v>58.92</v>
+      </c>
+      <c r="F91" s="1">
         <v>0.240339215088964</v>
       </c>
-      <c r="H91" s="4">
+      <c r="G91" s="4">
         <v>2.6802083333333335E-3</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -2822,17 +3030,20 @@
       <c r="D92" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="G92" s="1">
+      <c r="E92" s="1">
+        <v>58.86</v>
+      </c>
+      <c r="F92" s="1">
         <v>0.240743430230384</v>
       </c>
-      <c r="H92" s="4">
+      <c r="G92" s="4">
         <v>2.6906249999999999E-3</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2845,17 +3056,20 @@
       <c r="D93" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="G93" s="1">
+      <c r="E93" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="F93" s="1">
         <v>0.254144438088374</v>
       </c>
-      <c r="H93" s="4">
+      <c r="G93" s="4">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2868,17 +3082,20 @@
       <c r="D94" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="G94" s="1">
+      <c r="E94" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="F94" s="1">
         <v>0.25502562827750402</v>
       </c>
-      <c r="H94" s="4">
+      <c r="G94" s="4">
         <v>5.1597222222222218E-3</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2891,17 +3108,20 @@
       <c r="D95" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="G95" s="3">
+      <c r="E95" s="1">
+        <v>58.33</v>
+      </c>
+      <c r="F95" s="3">
         <v>0.24002845269050399</v>
       </c>
-      <c r="H95" s="4">
+      <c r="G95" s="4">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2914,18 +3134,21 @@
       <c r="D96" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="G96" s="1">
+      <c r="E96" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="F96" s="1">
         <v>0.24002845269050399</v>
       </c>
-      <c r="H96" s="4">
+      <c r="G96" s="4">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
+  <autoFilter ref="A1:H94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2937,7 +3160,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="C10" sqref="C10:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB18D2E-C617-46D9-AFCD-714F48F4AE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEA9D3-E4D7-4E98-8F61-AD463275A1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2100" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="1305" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="226">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer --quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>robustness</t>
   </si>
   <si>
@@ -639,78 +635,39 @@
     <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
@@ -723,51 +680,30 @@
     <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
     <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
     <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,37 +712,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
     <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
   </si>
   <si>
-    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantization</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
-    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantization</t>
-  </si>
-  <si>
     <t>WideResNet cifar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +760,88 @@
   </si>
   <si>
     <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>99.72%/0.1045%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,25 +1222,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>151</v>
+      <c r="B1" t="s">
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1247,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1258,13 +1260,16 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>155</v>
+      <c r="I1" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
@@ -1277,96 +1282,96 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
       <c r="C3" s="1">
         <v>14715584</v>
       </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11"/>
       <c r="C4" s="1">
         <v>14715584</v>
       </c>
       <c r="H4" s="2"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11"/>
       <c r="C5" s="1">
         <v>9692000</v>
       </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="11"/>
       <c r="C6" s="1">
         <v>9692000</v>
       </c>
       <c r="H6" s="2"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="11"/>
+        <v>190</v>
+      </c>
       <c r="C7" s="1">
         <v>9222848</v>
       </c>
       <c r="H7" s="2"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="11"/>
+        <v>191</v>
+      </c>
       <c r="C8" s="1">
         <v>9222848</v>
       </c>
       <c r="H8" s="2"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="11"/>
+        <v>192</v>
+      </c>
       <c r="C9" s="1">
         <v>4669280</v>
       </c>
       <c r="H9" s="2"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>193</v>
+      </c>
       <c r="C10" s="1">
         <v>4669280</v>
       </c>
       <c r="H10" s="2"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -1379,69 +1384,69 @@
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="11"/>
       <c r="H16" s="2"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="11"/>
+        <v>194</v>
+      </c>
       <c r="H17" s="2"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="11"/>
+        <v>195</v>
+      </c>
       <c r="H18" s="2"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>196</v>
+      </c>
       <c r="H19" s="2"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>197</v>
+      </c>
       <c r="H20" s="2"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1453,17 +1458,14 @@
       </c>
       <c r="H22" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>152</v>
+      <c r="B23" t="s">
+        <v>225</v>
       </c>
       <c r="C23" s="1">
         <v>270896</v>
@@ -1482,15 +1484,15 @@
       </c>
       <c r="H23" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="C24" s="1">
         <v>120000</v>
       </c>
@@ -1508,15 +1510,15 @@
       </c>
       <c r="H24" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="C25" s="1">
         <v>270896</v>
       </c>
@@ -1534,15 +1536,15 @@
       </c>
       <c r="H25" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="C26" s="1">
         <v>120000</v>
       </c>
@@ -1561,13 +1563,13 @@
       <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I26" s="11" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1">
         <v>28500</v>
@@ -1587,13 +1589,13 @@
       <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="I27" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C28" s="1">
         <v>28500</v>
@@ -1613,13 +1615,13 @@
       <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="I28" s="11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C29" s="1">
         <v>13450</v>
@@ -1639,13 +1641,13 @@
       <c r="H29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I29" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1">
         <v>13450</v>
@@ -1664,6 +1666,9 @@
       </c>
       <c r="H30" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1671,13 +1676,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="C33" s="1">
         <v>657968</v>
       </c>
@@ -1696,14 +1698,14 @@
       <c r="H33" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="C34" s="1">
         <v>657968</v>
       </c>
@@ -1722,14 +1724,14 @@
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="C35" s="1">
         <v>271148</v>
       </c>
@@ -1748,14 +1750,14 @@
       <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="C36" s="1">
         <v>271148</v>
       </c>
@@ -1774,14 +1776,14 @@
       <c r="H36" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="C37" s="1">
         <v>270896</v>
       </c>
@@ -1800,14 +1802,14 @@
       <c r="H37" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="C38" s="1">
         <v>270896</v>
       </c>
@@ -1826,14 +1828,14 @@
       <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="C39" s="1">
         <v>120000</v>
       </c>
@@ -1852,14 +1854,14 @@
       <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="C40" s="1">
         <v>120000</v>
       </c>
@@ -1878,14 +1880,14 @@
       <c r="H40" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="C41" s="1">
         <v>464432</v>
       </c>
@@ -1904,14 +1906,14 @@
       <c r="H41" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="C42" s="1">
         <v>464432</v>
       </c>
@@ -1930,14 +1932,14 @@
       <c r="H42" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="C43" s="1">
         <v>208476</v>
       </c>
@@ -1956,14 +1958,14 @@
       <c r="H43" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="C44" s="1">
         <v>208476</v>
       </c>
@@ -1982,14 +1984,14 @@
       <c r="H44" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="C45" s="1">
         <v>367664</v>
       </c>
@@ -2008,14 +2010,14 @@
       <c r="H45" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="C46" s="1">
         <v>367664</v>
       </c>
@@ -2034,14 +2036,14 @@
       <c r="H46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="C47" s="1">
         <v>151336</v>
       </c>
@@ -2060,14 +2062,14 @@
       <c r="H47" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C48" s="1">
         <v>151336</v>
       </c>
@@ -2086,14 +2088,14 @@
       <c r="H48" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="C49" s="1">
         <v>174128</v>
       </c>
@@ -2112,14 +2114,14 @@
       <c r="H49" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>171</v>
-      </c>
       <c r="C50" s="1">
         <v>174128</v>
       </c>
@@ -2138,14 +2140,14 @@
       <c r="H50" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="C51" s="1">
         <v>108017</v>
       </c>
@@ -2164,14 +2166,14 @@
       <c r="H51" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="C52" s="1">
         <v>108017</v>
       </c>
@@ -2190,14 +2192,14 @@
       <c r="H52" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="C53" s="1">
         <v>77360</v>
       </c>
@@ -2216,14 +2218,14 @@
       <c r="H53" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="C54" s="1">
         <v>77360</v>
       </c>
@@ -2242,14 +2244,14 @@
       <c r="H54" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="C55" s="1">
         <v>25073</v>
       </c>
@@ -2268,14 +2270,14 @@
       <c r="H55" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="C56" s="1">
         <v>25073</v>
       </c>
@@ -2294,19 +2296,19 @@
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="C59" s="1">
         <v>26000</v>
       </c>
@@ -2325,14 +2327,14 @@
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="C60" s="1">
         <v>4250</v>
       </c>
@@ -2351,14 +2353,14 @@
       <c r="H60" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="C61" s="1">
         <v>26000</v>
       </c>
@@ -2377,14 +2379,14 @@
       <c r="H61" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="C62" s="1">
         <v>4250</v>
       </c>
@@ -2403,19 +2405,19 @@
       <c r="H62" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="C65" s="1">
         <v>430500</v>
       </c>
@@ -2434,14 +2436,14 @@
       <c r="H65" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="C66" s="1">
         <v>430500</v>
       </c>
@@ -2460,14 +2462,14 @@
       <c r="H66" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="C67" s="1">
         <v>206500</v>
       </c>
@@ -2486,14 +2488,14 @@
       <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="C68" s="1">
         <v>206500</v>
       </c>
@@ -2512,14 +2514,14 @@
       <c r="H68" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="C69" s="1">
         <v>26000</v>
       </c>
@@ -2538,14 +2540,14 @@
       <c r="H69" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="C70" s="1">
         <v>26000</v>
       </c>
@@ -2564,13 +2566,13 @@
       <c r="H70" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1">
         <v>4250</v>
@@ -2590,13 +2592,13 @@
       <c r="H71" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1">
         <v>4250</v>
@@ -2616,19 +2618,19 @@
       <c r="H72" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="C75" s="1">
         <v>11678912</v>
       </c>
@@ -2647,14 +2649,14 @@
       <c r="H75" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="C76" s="1">
         <v>4680578</v>
       </c>
@@ -2673,14 +2675,14 @@
       <c r="H76" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="C77" s="1">
         <v>11678912</v>
       </c>
@@ -2699,14 +2701,14 @@
       <c r="H77" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="C78" s="1">
         <v>4680578</v>
       </c>
@@ -2725,14 +2727,14 @@
       <c r="H78" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="C79" s="3">
         <v>4209088</v>
       </c>
@@ -2751,14 +2753,14 @@
       <c r="H79" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="C80" s="1">
         <v>4209088</v>
       </c>
@@ -2777,14 +2779,14 @@
       <c r="H80" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="C81" s="1">
         <v>2329532</v>
       </c>
@@ -2803,14 +2805,14 @@
       <c r="H81" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="C82" s="1">
         <v>2329532</v>
       </c>
@@ -2829,19 +2831,19 @@
       <c r="H82" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="C85" s="1">
         <v>25502912</v>
       </c>
@@ -2860,14 +2862,14 @@
       <c r="H85" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="C86" s="1">
         <v>25502912</v>
       </c>
@@ -2886,14 +2888,14 @@
       <c r="H86" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="C87" s="1">
         <v>5108133</v>
       </c>
@@ -2912,14 +2914,14 @@
       <c r="H87" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="C88" s="1">
         <v>5108133</v>
       </c>
@@ -2938,14 +2940,14 @@
       <c r="H88" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="C89" s="1">
         <v>11678912</v>
       </c>
@@ -2964,14 +2966,14 @@
       <c r="H89" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="C90" s="1">
         <v>11678912</v>
       </c>
@@ -2990,14 +2992,14 @@
       <c r="H90" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="C91" s="1">
         <v>4680578</v>
       </c>
@@ -3016,14 +3018,14 @@
       <c r="H91" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I91" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="C92" s="1">
         <v>4680578</v>
       </c>
@@ -3042,14 +3044,14 @@
       <c r="H92" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="C93" s="1">
         <v>21779648</v>
       </c>
@@ -3068,14 +3070,14 @@
       <c r="H93" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="C94" s="1">
         <v>21779648</v>
       </c>
@@ -3094,14 +3096,14 @@
       <c r="H94" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="C95" s="1">
         <v>4363472</v>
       </c>
@@ -3120,14 +3122,14 @@
       <c r="H95" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="C96" s="1">
         <v>4363472</v>
       </c>
@@ -3145,6 +3147,9 @@
       </c>
       <c r="H96" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEA9D3-E4D7-4E98-8F61-AD463275A1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4AA2B-9444-4818-86E2-E4D80EB7F71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1305" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1515" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -1222,13 +1222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4AA2B-9444-4818-86E2-E4D80EB7F71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0A0CB-8261-43D9-BB58-795E15EC9853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1515" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13470" yWindow="3855" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="237">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,9 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>robustness</t>
-  </si>
-  <si>
     <t>under carlini and wanger attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,6 +839,50 @@
   </si>
   <si>
     <t>99.72%/0.1045%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.10%/0.3753%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.66%/0.3653%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.78%/0.2283%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.33%/0.3342%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.7%/0.483%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.71%/0.5015%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>77.72%/0.2739%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.93%/0.2808%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,26 +1263,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>154</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1250,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1259,18 +1300,15 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
@@ -1281,98 +1319,130 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
+      <c r="I2" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>14715584</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="3">
+        <v>58.884934999999999</v>
+      </c>
+      <c r="E3">
+        <v>88.03</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.9476129665606198E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30.097815000000001</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <v>14715584</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="11"/>
+      <c r="B4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38.786489000000003</v>
+      </c>
+      <c r="E4">
+        <v>89.56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.8596707707415698E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26.804995999999999</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1">
-        <v>9692000</v>
-      </c>
-      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1">
-        <v>9692000</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="2"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9222848</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="11"/>
+        <v>189</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="3">
+        <v>36.906025999999997</v>
+      </c>
+      <c r="E7">
+        <v>84.51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.3647690841792794E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>26.799779000000001</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9222848</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4669280</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.688288</v>
+      </c>
+      <c r="E9">
+        <v>87.51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.5442673095730102E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25.503758000000001</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4669280</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="2"/>
-      <c r="I11" s="11"/>
+      <c r="B11" s="2"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -1383,70 +1453,127 @@
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
+      <c r="I12" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.0574069999999995</v>
+      </c>
+      <c r="E13">
+        <v>95.94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6770132610803299E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>33.362285</v>
+      </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.0550829999999998</v>
+      </c>
+      <c r="E14">
+        <v>95.69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.53650957866651E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>31.943598999999999</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="2"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.7120380000000002</v>
+      </c>
+      <c r="E17">
+        <v>80.67</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.3126848974933105E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>29.246917</v>
+      </c>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="11"/>
+        <v>232</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="11"/>
+        <v>233</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.2975599999999998</v>
+      </c>
+      <c r="E19">
+        <v>87.98</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.6968350733760798E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>29.200002000000001</v>
+      </c>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
@@ -1457,16 +1584,16 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
+      <c r="I22" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>225</v>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>270896</v>
@@ -1483,17 +1610,20 @@
       <c r="G23" s="1">
         <v>9.9248010000000004</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>152</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="1">
         <v>120000</v>
       </c>
@@ -1509,10 +1639,7 @@
       <c r="G24" s="1">
         <v>8.3052390000000003</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1520,6 +1647,9 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="1">
         <v>270896</v>
       </c>
@@ -1535,10 +1665,7 @@
       <c r="G25" s="1">
         <v>10.030422</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1546,6 +1673,9 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="1">
         <v>120000</v>
       </c>
@@ -1561,16 +1691,16 @@
       <c r="G26" s="1">
         <v>8.4986969999999999</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>199</v>
+      <c r="H26" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C27" s="1">
         <v>28500</v>
@@ -1587,16 +1717,16 @@
       <c r="G27" s="1">
         <v>2.269269</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>158</v>
+      <c r="H27" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="1">
         <v>28500</v>
@@ -1613,16 +1743,16 @@
       <c r="G28" s="1">
         <v>2.3896959999999998</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>200</v>
+      <c r="H28" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="1">
         <v>13450</v>
@@ -1639,16 +1769,16 @@
       <c r="G29" s="1">
         <v>2.120196</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>159</v>
+      <c r="H29" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="1">
         <v>13450</v>
@@ -1665,11 +1795,8 @@
       <c r="G30" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>201</v>
+      <c r="H30" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1677,10 +1804,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C33" s="1">
         <v>657968</v>
       </c>
@@ -1696,17 +1826,17 @@
       <c r="G33" s="1">
         <v>20.946403</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C34" s="1">
         <v>657968</v>
       </c>
@@ -1722,17 +1852,17 @@
       <c r="G34" s="1">
         <v>21.966231000000001</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C35" s="1">
         <v>271148</v>
       </c>
@@ -1748,17 +1878,17 @@
       <c r="G35" s="1">
         <v>18.002445000000002</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="1">
         <v>271148</v>
       </c>
@@ -1774,17 +1904,17 @@
       <c r="G36" s="1">
         <v>18.160620999999999</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C37" s="1">
         <v>270896</v>
       </c>
@@ -1800,17 +1930,17 @@
       <c r="G37" s="1">
         <v>9.9305280000000007</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="1">
         <v>270896</v>
       </c>
@@ -1826,17 +1956,17 @@
       <c r="G38" s="1">
         <v>10.019786</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C39" s="1">
         <v>120000</v>
       </c>
@@ -1852,17 +1982,17 @@
       <c r="G39" s="1">
         <v>8.3240409999999994</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C40" s="1">
         <v>120000</v>
       </c>
@@ -1878,17 +2008,17 @@
       <c r="G40" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C41" s="1">
         <v>464432</v>
       </c>
@@ -1904,17 +2034,17 @@
       <c r="G41" s="3">
         <v>16.776167000000001</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C42" s="1">
         <v>464432</v>
       </c>
@@ -1930,17 +2060,17 @@
       <c r="G42" s="1">
         <v>16.864172</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" s="1">
         <v>208476</v>
       </c>
@@ -1956,17 +2086,17 @@
       <c r="G43" s="1">
         <v>14.022741999999999</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C44" s="1">
         <v>208476</v>
       </c>
@@ -1982,17 +2112,17 @@
       <c r="G44" s="1">
         <v>14.004538999999999</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C45" s="1">
         <v>367664</v>
       </c>
@@ -2008,17 +2138,17 @@
       <c r="G45" s="1">
         <v>13.804232000000001</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C46" s="1">
         <v>367664</v>
       </c>
@@ -2034,17 +2164,17 @@
       <c r="G46" s="1">
         <v>13.812071</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C47" s="1">
         <v>151336</v>
       </c>
@@ -2060,17 +2190,17 @@
       <c r="G47" s="1">
         <v>11.645421000000001</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C48" s="1">
         <v>151336</v>
       </c>
@@ -2086,17 +2216,17 @@
       <c r="G48" s="1">
         <v>11.266840999999999</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C49" s="1">
         <v>174128</v>
       </c>
@@ -2112,17 +2242,17 @@
       <c r="G49" s="1">
         <v>7.7266199999999996</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C50" s="1">
         <v>174128</v>
       </c>
@@ -2138,17 +2268,17 @@
       <c r="G50" s="1">
         <v>7.4747440000000003</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C51" s="1">
         <v>108017</v>
       </c>
@@ -2164,17 +2294,17 @@
       <c r="G51" s="1">
         <v>6.3952920000000004</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C52" s="1">
         <v>108017</v>
       </c>
@@ -2190,17 +2320,17 @@
       <c r="G52" s="1">
         <v>6.3420810000000003</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="1">
         <v>77360</v>
       </c>
@@ -2216,17 +2346,17 @@
       <c r="G53" s="1">
         <v>3.7664900000000001</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H53" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C54" s="1">
         <v>77360</v>
       </c>
@@ -2242,17 +2372,17 @@
       <c r="G54" s="1">
         <v>3.7241949999999999</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H54" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C55" s="1">
         <v>25073</v>
       </c>
@@ -2268,17 +2398,17 @@
       <c r="G55" s="1">
         <v>4.3323140000000002</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C56" s="1">
         <v>25073</v>
       </c>
@@ -2294,22 +2424,22 @@
       <c r="G56" s="3">
         <v>4.4862919999999997</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C59" s="1">
         <v>26000</v>
       </c>
@@ -2325,17 +2455,17 @@
       <c r="G59" s="1">
         <v>1.2237389999999999</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H59" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C60" s="1">
         <v>4250</v>
       </c>
@@ -2351,17 +2481,17 @@
       <c r="G60" s="1">
         <v>1.1038809999999999</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H60" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C61" s="1">
         <v>26000</v>
       </c>
@@ -2377,17 +2507,17 @@
       <c r="G61" s="1">
         <v>1.2610079999999999</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H61" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C62" s="1">
         <v>4250</v>
       </c>
@@ -2403,22 +2533,22 @@
       <c r="G62" s="1">
         <v>1.1283540000000001</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H62" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C65" s="1">
         <v>430500</v>
       </c>
@@ -2434,17 +2564,17 @@
       <c r="G65" s="1">
         <v>1.5371889999999999</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H65" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C66" s="1">
         <v>430500</v>
       </c>
@@ -2460,17 +2590,17 @@
       <c r="G66" s="1">
         <v>1.7159580000000001</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H66" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C67" s="1">
         <v>206500</v>
       </c>
@@ -2486,17 +2616,17 @@
       <c r="G67" s="1">
         <v>1.3895949999999999</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H67" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C68" s="1">
         <v>206500</v>
       </c>
@@ -2512,17 +2642,17 @@
       <c r="G68" s="1">
         <v>1.830317</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H68" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C69" s="1">
         <v>26000</v>
       </c>
@@ -2538,17 +2668,17 @@
       <c r="G69" s="1">
         <v>1.095572</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H69" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C70" s="1">
         <v>26000</v>
       </c>
@@ -2564,16 +2694,16 @@
       <c r="G70" s="1">
         <v>1.253695</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H70" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C71" s="1">
         <v>4250</v>
@@ -2590,16 +2720,16 @@
       <c r="G71" s="1">
         <v>0.96425799999999995</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H71" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C72" s="1">
         <v>4250</v>
@@ -2616,22 +2746,22 @@
       <c r="G72" s="1">
         <v>1.029093</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H72" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C75" s="1">
         <v>11678912</v>
       </c>
@@ -2647,17 +2777,17 @@
       <c r="G75" s="4">
         <v>2.7016203703703703E-3</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" s="1">
         <v>4680578</v>
       </c>
@@ -2673,17 +2803,17 @@
       <c r="G76" s="4">
         <v>2.7006944444444448E-3</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H76" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C77" s="1">
         <v>11678912</v>
       </c>
@@ -2699,17 +2829,17 @@
       <c r="G77" s="4">
         <v>2.6709490740740743E-3</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C78" s="1">
         <v>4680578</v>
       </c>
@@ -2725,17 +2855,17 @@
       <c r="G78" s="4">
         <v>2.6855324074074073E-3</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H78" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C79" s="3">
         <v>4209088</v>
       </c>
@@ -2751,17 +2881,17 @@
       <c r="G79" s="4">
         <v>3.6650925925925926E-3</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H79" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C80" s="1">
         <v>4209088</v>
       </c>
@@ -2777,17 +2907,17 @@
       <c r="G80" s="4">
         <v>3.7202083333333336E-3</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H80" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C81" s="1">
         <v>2329532</v>
       </c>
@@ -2803,17 +2933,17 @@
       <c r="G81" s="4">
         <v>3.8203240740740745E-3</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H81" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C82" s="1">
         <v>2329532</v>
       </c>
@@ -2829,22 +2959,22 @@
       <c r="G82" s="4">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B85" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C85" s="1">
         <v>25502912</v>
       </c>
@@ -2860,17 +2990,17 @@
       <c r="G85" s="4">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H85" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B86" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C86" s="1">
         <v>25502912</v>
       </c>
@@ -2886,17 +3016,17 @@
       <c r="G86" s="4">
         <v>8.1613541666666675E-3</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H86" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B87" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C87" s="1">
         <v>5108133</v>
       </c>
@@ -2912,17 +3042,17 @@
       <c r="G87" s="4">
         <v>7.962303240740742E-3</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H87" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C88" s="1">
         <v>5108133</v>
       </c>
@@ -2938,17 +3068,17 @@
       <c r="G88" s="4">
         <v>8.3157407407407399E-3</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H88" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B89" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C89" s="1">
         <v>11678912</v>
       </c>
@@ -2964,17 +3094,17 @@
       <c r="G89" s="4">
         <v>2.7436342592592595E-3</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H89" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C90" s="1">
         <v>11678912</v>
       </c>
@@ -2990,17 +3120,17 @@
       <c r="G90" s="4">
         <v>2.6890046296296297E-3</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H90" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B91" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C91" s="1">
         <v>4680578</v>
       </c>
@@ -3016,17 +3146,17 @@
       <c r="G91" s="4">
         <v>2.6802083333333335E-3</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B92" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C92" s="1">
         <v>4680578</v>
       </c>
@@ -3042,17 +3172,17 @@
       <c r="G92" s="4">
         <v>2.6906249999999999E-3</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H92" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C93" s="1">
         <v>21779648</v>
       </c>
@@ -3068,17 +3198,17 @@
       <c r="G93" s="4">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H93" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C94" s="1">
         <v>21779648</v>
       </c>
@@ -3094,17 +3224,17 @@
       <c r="G94" s="4">
         <v>5.1597222222222218E-3</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H94" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="B95" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C95" s="1">
         <v>4363472</v>
       </c>
@@ -3120,17 +3250,17 @@
       <c r="G95" s="4">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C96" s="1">
         <v>4363472</v>
       </c>
@@ -3146,15 +3276,12 @@
       <c r="G96" s="4">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>224</v>
+      <c r="H96" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
+  <autoFilter ref="A1:G94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0A0CB-8261-43D9-BB58-795E15EC9853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B917C-50CD-4FE0-A7DB-051449BFAB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="3855" windowWidth="22260" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="1485" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="236">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,18 +744,6 @@
     <t>Knowledge Distiller(vgg11)+Pruning+Quantization</t>
   </si>
   <si>
-    <t>Knowledge Distiller(resnet20)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet20)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet20)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet20)+Pruning+Quantization</t>
-  </si>
-  <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +826,6 @@
     <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
   </si>
   <si>
-    <t>99.72%/0.1045%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>65.10%/0.3753%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,6 +868,18 @@
   <si>
     <t>74.93%/0.2808%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
   </si>
 </sst>
 </file>
@@ -940,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -973,6 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1264,42 +1261,42 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1308,62 +1305,62 @@
         <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="3">
         <v>58.884934999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>88.03</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5.9476129665606198E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>30.097815000000001</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="3">
         <v>38.786489000000003</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>89.56</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>4.8596707707415698E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>26.804995999999999</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1374,272 +1371,275 @@
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="3">
         <v>36.906025999999997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84.51</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>9.3647690841792794E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>26.799779000000001</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="2"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="3">
         <v>18.688288</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>87.51</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5.5442673095730102E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>25.503758000000001</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="2"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="2"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="3">
         <v>9.0574069999999995</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>95.94</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>2.6770132610803299E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>33.362285</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="3">
         <v>9.0550829999999998</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>95.69</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3.53650957866651E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>31.943598999999999</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="3">
+        <v>226</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="3">
         <v>2.7120380000000002</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>80.67</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>9.3126848974933105E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>29.246917</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="H18" s="11"/>
+        <v>227</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="3">
+        <v>228</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="3">
         <v>2.2975599999999998</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>87.98</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>6.6968350733760798E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>29.200002000000001</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="H20" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>270896</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>1.116668</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83.32</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>6.9734926686704099E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>9.9248010000000004</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="I23" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>120000</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>0.92543200000000003</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>83.32</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>5.69943856884167E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>8.3052390000000003</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1647,25 +1647,25 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>270896</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>1.1150789999999999</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>89.08</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>7.06509731001633E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>10.030422</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1673,130 +1673,136 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>120000</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>0.92384699999999997</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>89.16</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>5.6782391636844502E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>8.4986969999999999</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>198</v>
+      <c r="I26" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="12">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>28500</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>0.115411</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>72.290000000000006</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.12207657432939301</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>2.269269</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>28500</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>0.109725</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>72.209999999999994</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.122460156785788</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>2.3896959999999998</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>199</v>
+      <c r="I28" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>13450</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>6.1318999999999999E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>69.63</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.112280942283185</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>2.120196</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13450</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.8624999999999997E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>69.53</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.110153574612901</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="1">
-        <v>13450</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5.8624999999999997E-2</v>
-      </c>
-      <c r="E30" s="3">
-        <v>69.53</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.110153574612901</v>
-      </c>
-      <c r="G30" s="1">
-        <v>8.6140760000000007</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1804,1484 +1810,1496 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>657968</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>2.7028509999999999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>87.38</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>4.9084009616167198E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>20.946403</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>657968</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>2.7012779999999998</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>87.49</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>6.3413642065410503E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>21.966231000000001</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>271148</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>2.2883770000000001</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>89.12</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>5.59299561952269E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>18.002445000000002</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>271148</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>2.2867959999999998</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>89.15</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>5.5485583713249298E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>18.160620999999999</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>270896</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>1.116662</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>85.36</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>9.0237686140547696E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>9.9305280000000007</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>270896</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>1.115083</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>85.33</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>9.0063366581535201E-2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>10.019786</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>120000</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>0.92542599999999997</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>89.24</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>4.9084009616167198E-2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>8.3240409999999994</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>120000</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>0.92384699999999997</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>89.22</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>4.92215400002885E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>464432</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>1.909734</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>86.8</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>7.3426153378751899E-2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16.776167000000001</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>464432</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>1.9081509999999999</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>86.82</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>7.3541552879987496E-2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>16.864172</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>208476</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>1.6068739999999999</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>89.59</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>5.1864149467623501E-2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>14.022741999999999</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>208476</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>1.6052949999999999</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>89.61</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>5.2060445637739199E-2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>14.004538999999999</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>367664</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>1.5132019999999999</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>86</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>9.2760983177195694E-2</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>13.804232000000001</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>367664</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>1.511619</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>85.98</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>9.2977201506605794E-2</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>13.812071</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>151336</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>1.2661519999999999</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>89.33</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>5.8414125004146E-2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>11.645421000000001</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>151336</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>1.264567</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>89.33</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>5.8465459888724002E-2</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>11.266840999999999</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>174128</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>0.72013199999999999</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>85.95</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>8.5309143706873494E-2</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>7.7266199999999996</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>174128</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>0.71854099999999999</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>85.91</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>8.5324615440094398E-2</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>7.4747440000000003</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>108017</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>0.58470800000000001</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>87.8</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>5.2935810185544503E-2</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>6.3952920000000004</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>108017</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>0.583121</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>87.77</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>5.33142570050451E-2</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>6.3420810000000003</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>77360</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>0.24398</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>82.65</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>7.9778756570906703E-2</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>3.7664900000000001</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="I53" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>77360</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>0.242399</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>82.65</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>8.0512421401917805E-2</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>3.7241949999999999</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>25073</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>0.3236</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>81.48</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>7.9337002716260902E-2</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>4.3323140000000002</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="I55" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>25073</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>0.322015</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>81.44</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>7.98175419315829E-2</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>4.4862919999999997</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>26000</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <v>0.105419</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>98.82</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>8.6485078856387201E-3</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>1.2237389999999999</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="I59" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>4250</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>5.4375E-2</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>98.62</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>5.8218386494567204E-3</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>1.1038809999999999</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>26000</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>0.104223</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>98.79</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>9.0671430856920105E-3</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>1.2610079999999999</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>4250</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>5.3180999999999999E-2</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>98.63</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>5.8009353020417997E-3</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>1.1283540000000001</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>430500</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
         <v>1.7256480000000001</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>99.16</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>3.5601117196856699E-3</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>1.5371889999999999</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="I65" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>430500</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3">
         <v>0.51116700000000004</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>99.13</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>3.8375351290622101E-3</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>1.7159580000000001</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="I66" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>206500</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="3">
         <v>1.674606</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>99.18</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>3.8574034118390201E-3</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>1.3895949999999999</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="I67" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>206500</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E68" s="3">
         <v>0.46012700000000001</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>99.19</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>3.5255642920640601E-3</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>1.830317</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>26000</v>
       </c>
-      <c r="D69" s="3">
+      <c r="E69" s="3">
         <v>0.105419</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>98.59</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>1.15464722906572E-2</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>1.095572</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="I69" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>26000</v>
       </c>
-      <c r="D70" s="3">
+      <c r="E70" s="3">
         <v>0.104223</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>98.57</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>1.16085921834968E-2</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>1.253695</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>4250</v>
       </c>
-      <c r="D71" s="3">
+      <c r="E71" s="3">
         <v>5.4375E-2</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>98.75</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>4.2026482421618902E-3</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>0.96425799999999995</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="I71" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>4250</v>
       </c>
-      <c r="D72" s="3">
+      <c r="E72" s="3">
         <v>5.3183000000000001E-2</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>98.76</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>4.5172598747641396E-3</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>1.029093</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>11678912</v>
       </c>
-      <c r="D75" s="3">
+      <c r="E75" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>70.42</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>0.21851480634433099</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>2.7016203703703703E-3</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="I75" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>4680578</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E76" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>70.27</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>0.21413630213618401</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>2.7006944444444448E-3</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="I76" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>11678912</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="3">
         <v>45.280406999999997</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>70.48</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>0.217732426371541</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>2.6709490740740743E-3</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="I77" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>4680578</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E78" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>70.209999999999994</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>0.21532358301717699</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H78" s="4">
         <v>2.6855324074074073E-3</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>4209088</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
         <v>17.040520000000001</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>51.72</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>0.25277799049636801</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>3.6650925925925926E-3</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="I79" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>4209088</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E80" s="3">
         <v>13.968855</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>51.69</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>0.25331285731124298</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <v>3.7202083333333336E-3</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>2329532</v>
       </c>
-      <c r="D81" s="3">
+      <c r="E81" s="3">
         <v>17.040521999999999</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>63.15</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>0.23315852895724901</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <v>3.8203240740740745E-3</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="I81" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>2329532</v>
       </c>
-      <c r="D82" s="3">
+      <c r="E82" s="3">
         <v>13.968857</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>63.2</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>0.23374172001788299</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>25502912</v>
       </c>
-      <c r="D85" s="3">
+      <c r="E85" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>0.201744460687976</v>
       </c>
-      <c r="G85" s="4">
+      <c r="H85" s="4">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>25502912</v>
       </c>
-      <c r="D86" s="3">
+      <c r="E86" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>77.11</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>0.201319795073719</v>
       </c>
-      <c r="G86" s="4">
+      <c r="H86" s="4">
         <v>8.1613541666666675E-3</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="I86" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>5108133</v>
       </c>
-      <c r="D87" s="3">
+      <c r="E87" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>75.599999999999994</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>0.203720688485965</v>
       </c>
-      <c r="G87" s="4">
+      <c r="H87" s="4">
         <v>7.962303240740742E-3</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="I87" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>5108133</v>
       </c>
-      <c r="D88" s="3">
+      <c r="E88" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>75.58</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>0.20269442819875499</v>
       </c>
-      <c r="G88" s="4">
+      <c r="H88" s="4">
         <v>8.3157407407407399E-3</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>11678912</v>
       </c>
-      <c r="D89" s="3">
+      <c r="E89" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>51.99</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>0.25332565652245498</v>
       </c>
-      <c r="G89" s="4">
+      <c r="H89" s="4">
         <v>2.7436342592592595E-3</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="I89" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>11678912</v>
       </c>
-      <c r="D90" s="3">
+      <c r="E90" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>51.99</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>0.25302520592167499</v>
       </c>
-      <c r="G90" s="4">
+      <c r="H90" s="4">
         <v>2.6890046296296297E-3</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>4680578</v>
       </c>
-      <c r="D91" s="3">
+      <c r="E91" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>58.92</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>0.240339215088964</v>
       </c>
-      <c r="G91" s="4">
+      <c r="H91" s="4">
         <v>2.6802083333333335E-3</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="I91" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>4680578</v>
       </c>
-      <c r="D92" s="3">
+      <c r="E92" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>58.86</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>0.240743430230384</v>
       </c>
-      <c r="G92" s="4">
+      <c r="H92" s="4">
         <v>2.6906249999999999E-3</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>21779648</v>
       </c>
-      <c r="D93" s="3">
+      <c r="E93" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>47.92</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>0.254144438088374</v>
       </c>
-      <c r="G93" s="4">
+      <c r="H93" s="4">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>21779648</v>
       </c>
-      <c r="D94" s="3">
+      <c r="E94" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>47.9</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>0.25502562827750402</v>
       </c>
-      <c r="G94" s="4">
+      <c r="H94" s="4">
         <v>5.1597222222222218E-3</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>4363472</v>
       </c>
-      <c r="D95" s="3">
+      <c r="E95" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>58.33</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G95" s="3">
         <v>0.24002845269050399</v>
       </c>
-      <c r="G95" s="4">
+      <c r="H95" s="4">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="I95" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>4363472</v>
       </c>
-      <c r="D96" s="3">
+      <c r="E96" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>58.3</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>0.24002845269050399</v>
       </c>
-      <c r="G96" s="4">
+      <c r="H96" s="4">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>223</v>
+      <c r="I96" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
+  <autoFilter ref="A1:H94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B917C-50CD-4FE0-A7DB-051449BFAB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D48B9B-9875-48F7-8913-A65CEAF287C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="1485" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,30 +826,6 @@
     <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
   </si>
   <si>
-    <t>65.10%/0.3753%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.66%/0.3653%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82.78%/0.2283%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71.33%/0.3342%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.7%/0.483%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.71%/0.5015%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Knowledge Distiller(resnet44)</t>
   </si>
   <si>
@@ -862,14 +838,6 @@
     <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
   </si>
   <si>
-    <t>77.72%/0.2739%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74.93%/0.2808%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Knowledge Distiller(simpleNet)</t>
   </si>
   <si>
@@ -880,6 +848,38 @@
   </si>
   <si>
     <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>65.10%/37.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.66%/36.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.78%/22.83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.33%/33.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.7%/48.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.71%/50.15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.72%/27.39%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.93%/28.08%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3">
         <v>58.884934999999999</v>
@@ -1346,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3">
         <v>38.786489000000003</v>
@@ -1379,7 +1379,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3">
         <v>36.906025999999997</v>
@@ -1407,7 +1407,7 @@
         <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E9" s="3">
         <v>18.688288</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3">
         <v>9.0574069999999995</v>
@@ -1480,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E14" s="3">
         <v>9.0550829999999998</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E17" s="3">
         <v>2.7120380000000002</v>
@@ -1532,17 +1532,17 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E19" s="3">
         <v>2.2975599999999998</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="I20" s="11"/>
@@ -1647,6 +1647,9 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="12">
+        <v>0.4718</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1673,6 +1676,9 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B26" s="12">
+        <v>0.50480000000000003</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B27" s="12">
         <v>6.3600000000000004E-2</v>
@@ -1726,7 +1732,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.33410000000000001</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>62</v>
@@ -1752,7 +1761,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B29" s="12">
         <v>3.6400000000000002E-2</v>
@@ -1781,7 +1790,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.28949999999999998</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>64</v>
@@ -1843,6 +1855,9 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B34" s="12">
+        <v>0.48559999999999998</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1953,6 +1968,9 @@
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B38" s="12">
+        <v>0.42230000000000001</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2007,6 +2025,9 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.49180000000000001</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>150</v>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D48B9B-9875-48F7-8913-A65CEAF287C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771973C7-784C-4DD6-83B2-6B2C667E3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1305" yWindow="1485" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771973C7-784C-4DD6-83B2-6B2C667E3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF7498-30C0-400E-9CBD-81D743F9D394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1485" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="1305" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,556 +329,565 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Knowledge Distiller(ResNet-26)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>77.02%/27.52%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.02%/27.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.34%/26.23%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.34%/26.25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%/27.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%/27.58%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.91%/22.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.91%/22.17%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.95%/27.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.95%/27.26%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.67%/21.13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.67%/21.22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.14%/19.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-18)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-34)+Pruning+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.1%/10.07%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.1%/10.03%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.78%/12.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.78%/12.21%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(mobilenet)+Pruning+Quantization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.92%/14.44%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.19%/11.88%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Datase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression-Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-20 CIFAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)+Pr</t>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)+Pr+Quan</t>
+  </si>
+  <si>
+    <t>ResNet-44 CIFAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-8)+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-8)+Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-8)+Pr+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleNet MNIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)+Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(SimpleNet V2)+Pr+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleNet V2 MNIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-18</t>
+  </si>
+  <si>
+    <t>KD(MobileNet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(MobileNet)+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(MobileNet)+Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(MobileNet)+Pr+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-18)+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-18)+Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD(ResNet-18)+Pr+Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter percent comparing with base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size percent comparing with base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG-SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG-PARAMETES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc-change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG-ACCDORP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.01%/26.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command args</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under carlini and wanger attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(Simplenet_v2)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(Simplenet_v2)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
+  </si>
+  <si>
+    <t>WideResNet cifar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGG16 cifar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(vgg11)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(vgg11)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(vgg11)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(vgg11)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>65.10%/37.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.66%/36.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.78%/22.83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.33%/33.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.7%/48.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.71%/50.15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.72%/27.39%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.93%/28.08%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.82%/35.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Knowledge Distiller(ResNet-26)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>77.02%/27.52%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77.02%/27.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.34%/26.23%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.34%/26.25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%/27.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%/27.58%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80.91%/22.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80.91%/22.17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75.95%/27.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75.95%/27.26%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.67%/21.13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.67%/21.22%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.14%/19.6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-18)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Pruning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-34)+Pruning+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.1%/10.07%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.1%/10.03%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.78%/12.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.78%/12.21%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Pruning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(mobilenet)+Pruning+Quantization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.92%/14.44%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.19%/11.88%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Datase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compression-Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acc(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size(MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResNet-20 CIFAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pr+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)+Pr</t>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)+Pr+Quan</t>
-  </si>
-  <si>
-    <t>ResNet-44 CIFAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-8)+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-8)+Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-8)+Pr+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleNet MNIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)+Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(SimpleNet V2)+Pr+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleNet V2 MNIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResNet-18</t>
-  </si>
-  <si>
-    <t>KD(MobileNet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(MobileNet)+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(MobileNet)+Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(MobileNet)+Pr+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResNet-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResNet-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-18)+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-18)+Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD(ResNet-18)+Pr+Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter percent comparing with base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size percent comparing with base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG-SIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG-PARAMETES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc-change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG-ACCDORP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.01%/26.46%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command args</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>under carlini and wanger attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(Simplenet_v2)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(Simplenet_v2)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer</t>
-  </si>
-  <si>
-    <t>WideResNet cifar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VGG16 cifar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(vgg11)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(vgg11)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(vgg11)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(vgg11)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet20_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet20/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet20_cifar --kd-resume ../../outputsdata/resnet20/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20v2_filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet20-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet20_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet20_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet32_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet32_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet32 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet26_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet26_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet26 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet14_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet14_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet14 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet8_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet44_cifar --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet8_cifar --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet8 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a simplenetv2_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a simplenet_mnist --data ../../data.mnist --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a simplenetv2_mnist --lr 0.005 -p 50 --data ../../data.mnist/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher simplenet_mnist --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=simplenetv2_mnist --data ..\..\data.mnist --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet18 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a mobilenet --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet18 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=mobilenet --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet50 --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet18 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet18 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>-a resnet34 --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 100 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet50 --kd-resume ../../outputsdata/resnet44/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>65.10%/37.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.66%/36.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82.78%/22.83%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71.33%/33.42%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.7%/48.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.71%/50.15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77.72%/27.39%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74.93%/28.08%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.46%/35.84%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1297,15 +1306,15 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1325,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="3">
         <v>58.884934999999999</v>
@@ -1337,7 +1346,7 @@
         <v>5.9476129665606198E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>30.097815000000001</v>
+        <v>28.097815000000001</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1346,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="3">
         <v>38.786489000000003</v>
@@ -1366,20 +1375,49 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3">
+        <v>58.868802000000002</v>
+      </c>
+      <c r="F5">
+        <v>88.04</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.9297892036732601E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>29.024611</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="3">
+        <v>38.770350000000001</v>
+      </c>
+      <c r="F6">
+        <v>89.59</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.82896469235383E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>26.645790000000002</v>
+      </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3">
         <v>36.906025999999997</v>
@@ -1397,17 +1435,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="3">
         <v>18.688288</v>
@@ -1425,7 +1463,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2"/>
       <c r="I10" s="11"/>
@@ -1436,10 +1474,10 @@
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1459,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3">
         <v>9.0574069999999995</v>
@@ -1480,7 +1518,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="3">
         <v>9.0550829999999998</v>
@@ -1511,10 +1549,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="3">
         <v>2.7120380000000002</v>
@@ -1532,17 +1570,17 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="3">
         <v>2.2975599999999998</v>
@@ -1560,7 +1598,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="I20" s="11"/>
@@ -1570,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -1611,7 +1649,7 @@
         <v>9.9248010000000004</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1640,7 +1678,7 @@
         <v>8.3052390000000003</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1669,7 +1707,7 @@
         <v>10.030422</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1698,12 +1736,12 @@
         <v>8.4986969999999999</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="12">
         <v>6.3600000000000004E-2</v>
@@ -1727,12 +1765,12 @@
         <v>2.269269</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="12">
         <v>0.33410000000000001</v>
@@ -1756,12 +1794,12 @@
         <v>2.3896959999999998</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="12">
         <v>3.6400000000000002E-2</v>
@@ -1785,12 +1823,12 @@
         <v>2.120196</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="12">
         <v>0.28949999999999998</v>
@@ -1814,7 +1852,7 @@
         <v>8.6140760000000007</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1848,7 +1886,7 @@
         <v>20.946403</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1877,7 +1915,7 @@
         <v>21.966231000000001</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1906,7 +1944,7 @@
         <v>18.002445000000002</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1932,7 +1970,7 @@
         <v>18.160620999999999</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1961,7 +1999,7 @@
         <v>9.9305280000000007</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,7 +2028,7 @@
         <v>10.019786</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2019,7 +2057,7 @@
         <v>8.3240409999999994</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2030,7 +2068,7 @@
         <v>0.49180000000000001</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1">
         <v>120000</v>
@@ -2048,7 +2086,7 @@
         <v>8.6140760000000007</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2074,7 +2112,7 @@
         <v>16.776167000000001</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2100,7 +2138,7 @@
         <v>16.864172</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2108,7 +2146,7 @@
         <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1">
         <v>208476</v>
@@ -2126,7 +2164,7 @@
         <v>14.022741999999999</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2134,7 +2172,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>208476</v>
@@ -2152,15 +2190,15 @@
         <v>14.004538999999999</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>367664</v>
@@ -2178,15 +2216,15 @@
         <v>13.804232000000001</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1">
         <v>367664</v>
@@ -2204,15 +2242,15 @@
         <v>13.812071</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1">
         <v>151336</v>
@@ -2230,15 +2268,15 @@
         <v>11.645421000000001</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1">
         <v>151336</v>
@@ -2256,7 +2294,7 @@
         <v>11.266840999999999</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2264,7 +2302,7 @@
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1">
         <v>174128</v>
@@ -2282,7 +2320,7 @@
         <v>7.7266199999999996</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2290,7 +2328,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1">
         <v>174128</v>
@@ -2308,7 +2346,7 @@
         <v>7.4747440000000003</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2316,7 +2354,7 @@
         <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>108017</v>
@@ -2334,7 +2372,7 @@
         <v>6.3952920000000004</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2342,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="1">
         <v>108017</v>
@@ -2360,7 +2398,7 @@
         <v>6.3420810000000003</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2368,7 +2406,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1">
         <v>77360</v>
@@ -2386,7 +2424,7 @@
         <v>3.7664900000000001</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2394,7 +2432,7 @@
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="1">
         <v>77360</v>
@@ -2412,7 +2450,7 @@
         <v>3.7241949999999999</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2420,7 +2458,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
         <v>25073</v>
@@ -2438,7 +2476,7 @@
         <v>4.3323140000000002</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2446,7 +2484,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1">
         <v>25073</v>
@@ -2464,7 +2502,7 @@
         <v>4.4862919999999997</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2495,7 +2533,7 @@
         <v>1.2237389999999999</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2521,7 +2559,7 @@
         <v>1.1038809999999999</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2547,7 +2585,7 @@
         <v>1.2610079999999999</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2573,7 +2611,7 @@
         <v>1.1283540000000001</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2604,7 +2642,7 @@
         <v>1.5371889999999999</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,7 +2668,7 @@
         <v>1.7159580000000001</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2656,7 +2694,7 @@
         <v>1.3895949999999999</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2682,7 +2720,7 @@
         <v>1.830317</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,7 +2746,7 @@
         <v>1.095572</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2734,12 +2772,12 @@
         <v>1.253695</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
@@ -2760,12 +2798,12 @@
         <v>0.96425799999999995</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>27</v>
@@ -2786,7 +2824,7 @@
         <v>1.029093</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2817,7 +2855,7 @@
         <v>2.7016203703703703E-3</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2843,7 +2881,7 @@
         <v>2.7006944444444448E-3</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +2907,7 @@
         <v>2.6709490740740743E-3</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2895,15 +2933,15 @@
         <v>2.6855324074074073E-3</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="3">
         <v>4209088</v>
@@ -2921,15 +2959,15 @@
         <v>3.6650925925925926E-3</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" s="1">
         <v>4209088</v>
@@ -2947,15 +2985,15 @@
         <v>3.7202083333333336E-3</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="1">
         <v>2329532</v>
@@ -2973,15 +3011,15 @@
         <v>3.8203240740740745E-3</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D82" s="1">
         <v>2329532</v>
@@ -2999,7 +3037,7 @@
         <v>3.7037037037037034E-3</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3030,7 +3068,7 @@
         <v>8.0555555555555554E-3</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3056,7 +3094,7 @@
         <v>8.1613541666666675E-3</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3082,7 +3120,7 @@
         <v>7.962303240740742E-3</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3108,7 +3146,7 @@
         <v>8.3157407407407399E-3</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3134,12 +3172,12 @@
         <v>2.7436342592592595E-3</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>50</v>
@@ -3160,7 +3198,7 @@
         <v>2.6890046296296297E-3</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3186,7 +3224,7 @@
         <v>2.6802083333333335E-3</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,15 +3250,15 @@
         <v>2.6906249999999999E-3</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="1">
         <v>21779648</v>
@@ -3238,15 +3276,15 @@
         <v>4.6412037037037038E-3</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="1">
         <v>21779648</v>
@@ -3264,15 +3302,15 @@
         <v>5.1597222222222218E-3</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="1">
         <v>4363472</v>
@@ -3290,15 +3328,15 @@
         <v>5.7175925925925927E-3</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" s="1">
         <v>4363472</v>
@@ -3316,7 +3354,7 @@
         <v>6.053240740740741E-3</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3348,36 +3386,36 @@
   <sheetData>
     <row r="1" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>57</v>
@@ -3410,10 +3448,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3">
         <v>83.32</v>
@@ -3437,15 +3475,15 @@
         <v>0.99857701662445775</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C4" s="3">
         <v>89.08</v>
@@ -3475,10 +3513,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="5">
         <v>89.16</v>
@@ -3502,15 +3540,15 @@
         <v>0.82732468379142232</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5">
         <v>72.290000000000006</v>
@@ -3540,10 +3578,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3">
         <v>72.209999999999994</v>
@@ -3569,10 +3607,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3">
         <v>69.63</v>
@@ -3598,10 +3636,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3">
         <v>69.53</v>
@@ -3627,7 +3665,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>57</v>
@@ -3656,10 +3694,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3">
         <v>87.49</v>
@@ -3685,10 +3723,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3">
         <v>89.12</v>
@@ -3714,10 +3752,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C13" s="5">
         <v>82.65</v>
@@ -3743,10 +3781,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3">
         <v>89.15</v>
@@ -3772,10 +3810,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="3">
         <v>82.65</v>
@@ -3801,10 +3839,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3">
         <v>81.48</v>
@@ -3830,10 +3868,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3">
         <v>81.44</v>
@@ -3859,7 +3897,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>57</v>
@@ -3888,10 +3926,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3">
         <v>99.13</v>
@@ -3917,10 +3955,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3">
         <v>99.18</v>
@@ -3946,10 +3984,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3">
         <v>98.59</v>
@@ -3975,10 +4013,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
         <v>99.19</v>
@@ -4004,10 +4042,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3">
         <v>98.57</v>
@@ -4033,10 +4071,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C24" s="3">
         <v>98.75</v>
@@ -4062,10 +4100,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3">
         <v>98.76</v>
@@ -4091,7 +4129,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>57</v>
@@ -4120,10 +4158,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3">
         <v>98.79</v>
@@ -4149,10 +4187,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="3">
         <v>98.62</v>
@@ -4178,10 +4216,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3">
         <v>98.63</v>
@@ -4207,7 +4245,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>57</v>
@@ -4236,10 +4274,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3">
         <v>70.48</v>
@@ -4265,10 +4303,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3">
         <v>70.27</v>
@@ -4294,10 +4332,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C33" s="3">
         <v>51.72</v>
@@ -4323,10 +4361,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3">
         <v>70.209999999999994</v>
@@ -4352,10 +4390,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3">
         <v>51.69</v>
@@ -4381,10 +4419,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3">
         <v>63.15</v>
@@ -4410,10 +4448,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3">
         <v>63.2</v>
@@ -4439,7 +4477,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>57</v>
@@ -4468,10 +4506,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3">
         <v>77.11</v>
@@ -4497,10 +4535,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3">
         <v>75.599999999999994</v>
@@ -4526,10 +4564,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3">
         <v>51.99</v>
@@ -4555,10 +4593,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="3">
         <v>75.58</v>
@@ -4584,10 +4622,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="3">
         <v>51.99</v>
@@ -4613,10 +4651,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="3">
         <v>58.92</v>
@@ -4642,10 +4680,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3">
         <v>58.86</v>
@@ -4671,30 +4709,30 @@
     </row>
     <row r="47" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>57</v>
@@ -4720,10 +4758,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="3">
         <v>83.32</v>
@@ -4746,10 +4784,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C50" s="3">
         <v>89.08</v>
@@ -4772,10 +4810,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="5">
         <v>89.16</v>
@@ -4797,10 +4835,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="5">
         <v>72.290000000000006</v>
@@ -4822,10 +4860,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3">
         <v>72.209999999999994</v>
@@ -4848,10 +4886,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3">
         <v>69.63</v>
@@ -4874,10 +4912,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3">
         <v>69.53</v>
@@ -4900,7 +4938,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>57</v>
@@ -4926,10 +4964,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3">
         <v>87.49</v>
@@ -4952,10 +4990,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="3">
         <v>89.12</v>
@@ -4978,10 +5016,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="5">
         <v>82.65</v>
@@ -5003,10 +5041,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="3">
         <v>89.15</v>
@@ -5029,10 +5067,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3">
         <v>82.65</v>
@@ -5055,10 +5093,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="3">
         <v>81.48</v>
@@ -5081,10 +5119,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3">
         <v>81.44</v>
@@ -5107,7 +5145,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>57</v>
@@ -5133,10 +5171,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="3">
         <v>99.13</v>
@@ -5159,10 +5197,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="3">
         <v>99.18</v>
@@ -5185,10 +5223,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3">
         <v>98.59</v>
@@ -5211,10 +5249,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="3">
         <v>99.19</v>
@@ -5237,10 +5275,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="3">
         <v>98.57</v>
@@ -5263,10 +5301,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C70" s="3">
         <v>98.75</v>
@@ -5289,10 +5327,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="3">
         <v>98.76</v>
@@ -5315,7 +5353,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>57</v>
@@ -5341,10 +5379,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="3">
         <v>98.79</v>
@@ -5367,10 +5405,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="3">
         <v>98.62</v>
@@ -5393,10 +5431,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="3">
         <v>98.63</v>
@@ -5419,7 +5457,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>57</v>
@@ -5445,10 +5483,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="3">
         <v>70.48</v>
@@ -5471,10 +5509,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="3">
         <v>70.27</v>
@@ -5497,10 +5535,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C79" s="3">
         <v>51.72</v>
@@ -5523,10 +5561,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="3">
         <v>70.209999999999994</v>
@@ -5549,10 +5587,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="3">
         <v>51.69</v>
@@ -5575,10 +5613,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3">
         <v>63.15</v>
@@ -5601,10 +5639,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="3">
         <v>63.2</v>
@@ -5627,7 +5665,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>57</v>
@@ -5653,10 +5691,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="3">
         <v>77.11</v>
@@ -5679,10 +5717,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="3">
         <v>75.599999999999994</v>
@@ -5705,10 +5743,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="3">
         <v>51.99</v>
@@ -5731,10 +5769,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="3">
         <v>75.58</v>
@@ -5757,10 +5795,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" s="3">
         <v>51.99</v>
@@ -5783,10 +5821,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="3">
         <v>58.92</v>
@@ -5809,10 +5847,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="3">
         <v>58.86</v>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF7498-30C0-400E-9CBD-81D743F9D394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440AEE10-E7EC-4614-96D7-22E1DD0FB0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="1305" windowWidth="22320" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1320" windowWidth="22155" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="summary" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$I$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>under carlini and wanger attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 32 --workers 0 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from ../../outputsdata/resnet44/checkpoint.pth.tar --reset-optimizer</t>
   </si>
   <si>
@@ -889,6 +885,96 @@
   <si>
     <t>67.46%/35.84%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.49%/22.12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.34%/31.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.22%/62.78%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.49%/61.91%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.60%/40.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.44%/44.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.65%/1.2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/47.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/50.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/6.36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/33.41%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/3.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/28.95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.59%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/48.56%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.57%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/42.23%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/49.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.67%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under carlini and wanger L2 attack</t>
+  </si>
+  <si>
+    <t>under carlini and wanger inf attack</t>
   </si>
 </sst>
 </file>
@@ -1267,2098 +1353,2207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="3">
         <v>58.884934999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>88.03</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5.9476129665606198E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>28.097815000000001</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="3">
         <v>38.786489000000003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>89.56</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4.8596707707415698E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>26.804995999999999</v>
       </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="3">
         <v>58.868802000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>88.04</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>5.9297892036732601E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>29.024611</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38.770350000000001</v>
+      </c>
+      <c r="G6">
+        <v>89.59</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.82896469235383E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>26.645790000000002</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="3">
+        <v>36.906025999999997</v>
+      </c>
+      <c r="G7">
+        <v>84.51</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.3647690841792794E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>26.799779000000001</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="3">
-        <v>38.770350000000001</v>
-      </c>
-      <c r="F6">
-        <v>89.59</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.82896469235383E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>26.645790000000002</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F8" s="3">
+        <v>36.890360999999999</v>
+      </c>
+      <c r="G8">
+        <v>84.55</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.3732865100774498E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25.554449999999999</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="3">
-        <v>36.906025999999997</v>
-      </c>
-      <c r="F7">
-        <v>84.51</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9.3647690841792794E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>26.799779000000001</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="3">
+        <v>18.688288</v>
+      </c>
+      <c r="G9">
+        <v>87.51</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.5442673095730102E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>25.503758000000001</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="3">
-        <v>18.688288</v>
-      </c>
-      <c r="F9">
-        <v>87.51</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5.5442673095730102E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>25.503758000000001</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="3">
+        <v>18.672626999999999</v>
+      </c>
+      <c r="G10">
+        <v>87.44</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.5589927145122203E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26.960750000000001</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="3">
         <v>9.0574069999999995</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>95.94</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2.6770132610803299E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>33.362285</v>
       </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="3">
         <v>9.0550829999999998</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>95.69</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>3.53650957866651E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>31.943598999999999</v>
       </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9.0452069999999996</v>
+      </c>
+      <c r="G15">
+        <v>95.91</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.6609960541120602E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>38.287545000000001</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.0428850000000001</v>
+      </c>
+      <c r="G16">
+        <v>95.69</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.52886667359366E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>38.506022000000002</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.7120380000000002</v>
+      </c>
+      <c r="G17">
+        <v>80.67</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9.3126848974933105E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>29.246917</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.701276</v>
+      </c>
+      <c r="G18">
+        <v>80.7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.3678385980972098E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>30.244634000000001</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="3">
-        <v>2.7120380000000002</v>
-      </c>
-      <c r="F17">
-        <v>80.67</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.3126848974933105E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>29.246917</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>2.2975599999999998</v>
+      </c>
+      <c r="G19">
+        <v>87.98</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.6968350733760798E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>29.200002000000001</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.2975599999999998</v>
-      </c>
-      <c r="F19">
-        <v>87.98</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6.6968350733760798E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>29.200002000000001</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.2867999999999999</v>
+      </c>
+      <c r="G20">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6.6938777999004398E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>26.211791999999999</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>270896</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1.116668</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83.32</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>6.9734926686704099E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>9.9248010000000004</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>120000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>0.92543200000000003</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>83.32</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>5.69943856884167E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>8.3052390000000003</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12">
-        <v>0.4718</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>270896</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>1.1150789999999999</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>89.08</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>7.06509731001633E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>10.030422</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12">
-        <v>0.50480000000000003</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>120000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>0.92384699999999997</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>89.16</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>5.6782391636844502E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>8.4986969999999999</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>28500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.115411</v>
+      </c>
+      <c r="G27" s="5">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.12207657432939301</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.269269</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28500</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.109725</v>
+      </c>
+      <c r="G28" s="3">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.122460156785788</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.3896959999999998</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="12">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1">
-        <v>28500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.115411</v>
-      </c>
-      <c r="F27" s="5">
-        <v>72.290000000000006</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.12207657432939301</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2.269269</v>
-      </c>
-      <c r="I27" s="11" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13450</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6.1318999999999999E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>69.63</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.112280942283185</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.120196</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0.33410000000000001</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="1">
-        <v>28500</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.109725</v>
-      </c>
-      <c r="F28" s="3">
-        <v>72.209999999999994</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.122460156785788</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2.3896959999999998</v>
-      </c>
-      <c r="I28" s="11" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13450</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.8624999999999997E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>69.53</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.110153574612901</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13450</v>
-      </c>
-      <c r="E29" s="3">
-        <v>6.1318999999999999E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>69.63</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.112280942283185</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2.120196</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="12">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1">
-        <v>13450</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.8624999999999997E-2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>69.53</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.110153574612901</v>
-      </c>
-      <c r="H30" s="1">
-        <v>8.6140760000000007</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="12">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>657968</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2.7028509999999999</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>87.38</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>4.9084009616167198E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>20.946403</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12">
-        <v>0.48559999999999998</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>657968</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>2.7012779999999998</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>87.49</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>6.3413642065410503E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>21.966231000000001</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="12">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>271148</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2.2883770000000001</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>89.12</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>5.59299561952269E-2</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>18.002445000000002</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>271148</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>2.2867959999999998</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>89.15</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>5.5485583713249298E-2</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>18.160620999999999</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>270896</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>1.116662</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>85.36</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>9.0237686140547696E-2</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>9.9305280000000007</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="12">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>270896</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>1.115083</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>85.33</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>9.0063366581535201E-2</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>10.019786</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>120000</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>0.92542599999999997</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>89.24</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>4.9084009616167198E-2</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>8.3240409999999994</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12">
-        <v>0.49180000000000001</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>120000</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>0.92384699999999997</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>89.22</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>4.92215400002885E-2</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>464432</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1.909734</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>86.8</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>7.3426153378751899E-2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16.776167000000001</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>464432</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1.9081509999999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>86.82</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>7.3541552879987496E-2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>16.864172</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>208476</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1.6068739999999999</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>89.59</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>5.1864149467623501E-2</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>14.022741999999999</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>208476</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1.6052949999999999</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>89.61</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>5.2060445637739199E-2</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>14.004538999999999</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>367664</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1.5132019999999999</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>86</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>9.2760983177195694E-2</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>13.804232000000001</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>367664</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1.511619</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>85.98</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>9.2977201506605794E-2</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>13.812071</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>151336</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1.2661519999999999</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>89.33</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>5.8414125004146E-2</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>11.645421000000001</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>151336</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1.264567</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>89.33</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>5.8465459888724002E-2</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>11.266840999999999</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>174128</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>0.72013199999999999</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>85.95</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>8.5309143706873494E-2</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>7.7266199999999996</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>174128</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>0.71854099999999999</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>85.91</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>8.5324615440094398E-2</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>7.4747440000000003</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>108017</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>0.58470800000000001</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>87.8</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>5.2935810185544503E-2</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>6.3952920000000004</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>108017</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>0.583121</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>87.77</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>5.33142570050451E-2</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>6.3420810000000003</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>77360</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>0.24398</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>82.65</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>7.9778756570906703E-2</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>3.7664900000000001</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>77360</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>0.242399</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>82.65</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>8.0512421401917805E-2</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>3.7241949999999999</v>
       </c>
-      <c r="I54" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>25073</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>0.3236</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>81.48</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>7.9337002716260902E-2</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>4.3323140000000002</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>25073</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>0.322015</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>81.44</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>7.98175419315829E-2</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>4.4862919999999997</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>26000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>0.105419</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>98.82</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>8.6485078856387201E-3</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>1.2237389999999999</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>4250</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5.4375E-2</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>98.62</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>5.8218386494567204E-3</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>1.1038809999999999</v>
       </c>
-      <c r="I60" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>26000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>0.104223</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>98.79</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>9.0671430856920105E-3</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>1.2610079999999999</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>4250</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5.3180999999999999E-2</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>98.63</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>5.8009353020417997E-3</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>1.1283540000000001</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>430500</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>1.7256480000000001</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>99.16</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>3.5601117196856699E-3</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>1.5371889999999999</v>
       </c>
-      <c r="I65" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>430500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>0.51116700000000004</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>99.13</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>3.8375351290622101E-3</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>1.7159580000000001</v>
       </c>
-      <c r="I66" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>206500</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>1.674606</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>99.18</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>3.8574034118390201E-3</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>1.3895949999999999</v>
       </c>
-      <c r="I67" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>206500</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>0.46012700000000001</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>99.19</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>3.5255642920640601E-3</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>1.830317</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>26000</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>0.105419</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>98.59</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>1.15464722906572E-2</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>1.095572</v>
       </c>
-      <c r="I69" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>26000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>0.104223</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>98.57</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>1.16085921834968E-2</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>1.253695</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4250</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5.4375E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4.2026482421618902E-3</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.96425799999999995</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4250</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5.3183000000000001E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>98.76</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4.5172598747641396E-3</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.029093</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="1">
-        <v>4250</v>
-      </c>
-      <c r="E71" s="3">
-        <v>5.4375E-2</v>
-      </c>
-      <c r="F71" s="1">
-        <v>98.75</v>
-      </c>
-      <c r="G71" s="1">
-        <v>4.2026482421618902E-3</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.96425799999999995</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="1">
-        <v>4250</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5.3183000000000001E-2</v>
-      </c>
-      <c r="F72" s="1">
-        <v>98.76</v>
-      </c>
-      <c r="G72" s="1">
-        <v>4.5172598747641396E-3</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1.029093</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>11678912</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>70.42</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>0.21851480634433099</v>
       </c>
-      <c r="H75" s="4">
+      <c r="I75" s="4">
         <v>2.7016203703703703E-3</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>4680578</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46.816065999999999</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>70.27</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>0.21413630213618401</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I76" s="4">
         <v>2.7006944444444448E-3</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>11678912</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>45.280406999999997</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>70.48</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>0.217732426371541</v>
       </c>
-      <c r="H77" s="4">
+      <c r="I77" s="4">
         <v>2.6709490740740743E-3</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>4680578</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>70.209999999999994</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>0.21532358301717699</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I78" s="4">
         <v>2.6855324074074073E-3</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
         <v>4209088</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>17.040520000000001</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>51.72</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>0.25277799049636801</v>
       </c>
-      <c r="H79" s="4">
+      <c r="I79" s="4">
         <v>3.6650925925925926E-3</v>
       </c>
-      <c r="I79" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>4209088</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>13.968855</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>51.69</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>0.25331285731124298</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>3.7202083333333336E-3</v>
       </c>
-      <c r="I80" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>2329532</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17.040521999999999</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>63.15</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>0.23315852895724901</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>3.8203240740740745E-3</v>
       </c>
-      <c r="I81" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>2329532</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>13.968857</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>63.2</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>0.23374172001788299</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I82" s="4">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="I82" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>25502912</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>0.201744460687976</v>
       </c>
-      <c r="H85" s="4">
+      <c r="I85" s="4">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="I85" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>25502912</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>77.11</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>0.201319795073719</v>
       </c>
-      <c r="H86" s="4">
+      <c r="I86" s="4">
         <v>8.1613541666666675E-3</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>5108133</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>102.49232499999999</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>75.599999999999994</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>0.203720688485965</v>
       </c>
-      <c r="H87" s="4">
+      <c r="I87" s="4">
         <v>7.962303240740742E-3</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>5108133</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="3">
         <v>96.348668000000004</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>75.58</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>0.20269442819875499</v>
       </c>
-      <c r="H88" s="4">
+      <c r="I88" s="4">
         <v>8.3157407407407399E-3</v>
       </c>
-      <c r="I88" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>11678912</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>51.99</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>0.25332565652245498</v>
       </c>
-      <c r="H89" s="4">
+      <c r="I89" s="4">
         <v>2.7436342592592595E-3</v>
       </c>
-      <c r="I89" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>11678912</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>51.99</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>0.25302520592167499</v>
       </c>
-      <c r="H90" s="4">
+      <c r="I90" s="4">
         <v>2.6890046296296297E-3</v>
       </c>
-      <c r="I90" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>4680578</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>46.816056000000003</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>58.92</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>0.240339215088964</v>
       </c>
-      <c r="H91" s="4">
+      <c r="I91" s="4">
         <v>2.6802083333333335E-3</v>
       </c>
-      <c r="I91" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>4680578</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>45.280405000000002</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>58.86</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>0.240743430230384</v>
       </c>
-      <c r="H92" s="4">
+      <c r="I92" s="4">
         <v>2.6906249999999999E-3</v>
       </c>
-      <c r="I92" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>21779648</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>47.92</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>0.254144438088374</v>
       </c>
-      <c r="H93" s="4">
+      <c r="I93" s="4">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="I93" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>21779648</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>47.9</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>0.25502562827750402</v>
       </c>
-      <c r="H94" s="4">
+      <c r="I94" s="4">
         <v>5.1597222222222218E-3</v>
       </c>
-      <c r="I94" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>4363472</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="3">
         <v>87.294079999999994</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <v>58.33</v>
       </c>
-      <c r="G95" s="3">
+      <c r="H95" s="3">
         <v>0.24002845269050399</v>
       </c>
-      <c r="H95" s="4">
+      <c r="I95" s="4">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="I95" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>4363472</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>85.758416999999994</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>58.3</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>0.24002845269050399</v>
       </c>
-      <c r="H96" s="4">
+      <c r="I96" s="4">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="I96" s="11" t="s">
-        <v>218</v>
+      <c r="J96" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
+  <autoFilter ref="A1:I94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440AEE10-E7EC-4614-96D7-22E1DD0FB0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76402D5B-1972-41EC-B675-3D6DAB21DBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="1320" windowWidth="22155" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76402D5B-1972-41EC-B675-3D6DAB21DBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC77FC66-9092-45C8-AB67-C6FA60EEBD62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1320" windowWidth="22155" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
-    <sheet name="summary" sheetId="4" r:id="rId2"/>
+    <sheet name="summary" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="back_up" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$I$94</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="297">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -819,162 +820,312 @@
     <t xml:space="preserve"> -a=resnet34 --data ..\..\data.cifar --workers 3 --batch-size 64 --epochs=80 --lr=0.001 --compress ../agp-pruning/resnet20 _filters.schedule_agp.yaml --out-dir ../../outputsdata/ --gpu 0 --resume-from ../../outputsdata/resnet44-realkd/checkpoint.pth.tar --reset-optimizer --quantized</t>
   </si>
   <si>
+    <t>Knowledge Distiller(resnet44)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Quantization</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning</t>
+  </si>
+  <si>
+    <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
+  </si>
+  <si>
+    <t>65.10%/37.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.66%/36.53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.78%/22.83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.33%/33.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.7%/48.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.71%/50.15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.72%/27.39%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74.93%/28.08%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.82%/35.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Distiller(ResNet-26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.46%/35.84%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.49%/22.12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.34%/31.42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.22%/62.78%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.49%/61.91%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.60%/40.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.44%/44.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.65%/1.2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/47.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/50.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/6.36%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/33.41%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/3.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/28.95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.59%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/48.56%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.57%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/42.23%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/49.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0.67%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under carlini and wanger L2 attack</t>
+  </si>
+  <si>
+    <t>under carlini and wanger inf attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.99%/3.01%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.94%/3.05%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.71%/5.49%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.00%/6.98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.61%/3.87%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.52%/4.15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.33%/ 4.26%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.14%/3.98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.00%/7.27%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.99%/8.69%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.99%/6.95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.00%/7.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.97%/15.47%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.96%/15.95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.90%/10.47%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.87%/11.51%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.97%/7.52%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.99%/6.91%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.99%/9.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.00%/7.86%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg16_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 100 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg16_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/vgg16_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\vgg16-base(50)\checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg11_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 50 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet8_cifar --kd-resume ../../outputsdata/vgg16-base(50)/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg16_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 100 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg16_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/vgg16_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\vgg16-base(50)\checkpoint.pth.tar --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg11_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 50 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 64 --workers 3 --confusion --kd-teacher resnet8_cifar --kd-resume ../../outputsdata/vgg16-base(50)/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg11_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/vgg11_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\vgg16-kd-vgg11(50-100)\checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a vgg11_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/vgg11_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\vgg16-kd-vgg11(50-100)\checkpoint.pth.tar --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretrained model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\wideresnet-kd-resnet44\checkpoint.pth.tar --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/resnet44_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\wideresnet-kd-resnet44\checkpoint.pth.tar --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a wideresnet_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/wideresnet_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\cifar10_wresnet40x2_top1_3.52.pth --reset-optimizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a wideresnet_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/wideresnet_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\cifar10_wresnet40x2_top1_3.52.pth --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a wideresnet_cifar --data ../../data.cifar --lr 0.005 -p 50 --epochs 80 --gpus 0 --out-dir ../../outputsdata/ --batch-size 128 --workers 3 --confusion --compress ../agp-pruning/vgg16_filters.schedule_agp.yaml --resume-from E:\study\model-compression\git-hub\evaluate-project\outputsdata\pretrained_wideresnet.pth --reset-optimizer --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Knowledge Distiller(resnet44)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(resnet44)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Quantization</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Pruning</t>
-  </si>
-  <si>
-    <t>Knowledge Distiller(simpleNet)+Pruning+Quantization</t>
-  </si>
-  <si>
-    <t>65.10%/37.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.66%/36.53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82.78%/22.83%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71.33%/33.42%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.7%/48.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.71%/50.15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77.72%/27.39%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74.93%/28.08%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.82%/35.85%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Distiller(ResNet-26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.46%/35.84%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.49%/22.12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73.34%/31.42%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.22%/62.78%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.49%/61.91%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62.60%/40.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.44%/44.85%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92.65%/1.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/47.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/50.48%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/6.36%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/33.41%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/3.64%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/28.95%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0.59%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/48.56%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0.57%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/42.23%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/49.18%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0.67%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>under carlini and wanger L2 attack</t>
-  </si>
-  <si>
-    <t>under carlini and wanger inf attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 50 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet8_cifar --kd-resume E:\study\model-compression\git-hub\evaluate-project\outputsdata\wideresnet-pruning/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-a resnet44_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 50 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet8_cifar --kd-resume E:\study\model-compression\git-hub\evaluate-project\outputsdata\wideresnet-pruning/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1031,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1065,6 +1216,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1355,24 +1509,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5" style="13" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1548,7 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1399,9 +1556,6 @@
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>258</v>
       </c>
@@ -1422,8 +1576,14 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14715584</v>
       </c>
       <c r="F3" s="3">
         <v>58.884934999999999</v>
@@ -1437,14 +1597,22 @@
       <c r="I3" s="1">
         <v>28.097815000000001</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3909166</v>
       </c>
       <c r="F4" s="3">
         <v>38.786489000000003</v>
@@ -1458,14 +1626,19 @@
       <c r="I4" s="1">
         <v>26.804995999999999</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14715584</v>
       </c>
       <c r="F5" s="3">
         <v>58.868802000000002</v>
@@ -1478,6 +1651,9 @@
       </c>
       <c r="I5" s="1">
         <v>29.024611</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1485,7 +1661,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3909166</v>
       </c>
       <c r="F6" s="3">
         <v>38.770350000000001</v>
@@ -1499,14 +1678,22 @@
       <c r="I6" s="1">
         <v>26.645790000000002</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9222848</v>
       </c>
       <c r="F7" s="3">
         <v>36.906025999999997</v>
@@ -1520,14 +1707,19 @@
       <c r="I7" s="1">
         <v>26.799779000000001</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9222848</v>
       </c>
       <c r="F8" s="3">
         <v>36.890360999999999</v>
@@ -1541,14 +1733,22 @@
       <c r="I8" s="1">
         <v>25.554449999999999</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2189460</v>
       </c>
       <c r="F9" s="3">
         <v>18.688288</v>
@@ -1562,14 +1762,19 @@
       <c r="I9" s="1">
         <v>25.503758000000001</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2189460</v>
       </c>
       <c r="F10" s="3">
         <v>18.672626999999999</v>
@@ -1583,41 +1788,32 @@
       <c r="I10" s="1">
         <v>26.960750000000001</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2237552</v>
       </c>
       <c r="F13" s="3">
         <v>9.0574069999999995</v>
@@ -1631,14 +1827,22 @@
       <c r="I13" s="1">
         <v>33.362285</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="E14" s="1">
+        <v>671841</v>
       </c>
       <c r="F14" s="3">
         <v>9.0550829999999998</v>
@@ -1652,14 +1856,19 @@
       <c r="I14" s="1">
         <v>31.943598999999999</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2237552</v>
       </c>
       <c r="F15" s="3">
         <v>9.0452069999999996</v>
@@ -1673,14 +1882,19 @@
       <c r="I15" s="1">
         <v>38.287545000000001</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="E16" s="1">
+        <v>671841</v>
       </c>
       <c r="F16" s="3">
         <v>9.0428850000000001</v>
@@ -1694,14 +1908,22 @@
       <c r="I16" s="1">
         <v>38.506022000000002</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>294</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E17" s="1">
+        <v>657968</v>
       </c>
       <c r="F17" s="3">
         <v>2.7120380000000002</v>
@@ -1715,14 +1937,19 @@
       <c r="I17" s="1">
         <v>29.246917</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="E18" s="1">
+        <v>657968</v>
       </c>
       <c r="F18" s="3">
         <v>2.701276</v>
@@ -1736,14 +1963,22 @@
       <c r="I18" s="1">
         <v>30.244634000000001</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="E19" s="1">
+        <v>271148</v>
       </c>
       <c r="F19" s="3">
         <v>2.2975599999999998</v>
@@ -1757,14 +1992,19 @@
       <c r="I19" s="1">
         <v>29.200002000000001</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="E20" s="1">
+        <v>271148</v>
       </c>
       <c r="F20" s="3">
         <v>2.2867999999999999</v>
@@ -1778,38 +2018,22 @@
       <c r="I20" s="1">
         <v>26.211791999999999</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="J20" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1837,9 +2061,8 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -1867,10 +2090,6 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1897,10 +2116,6 @@
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
-        <v>246</v>
-      </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1925,11 +2140,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="12"/>
+        <v>221</v>
+      </c>
       <c r="C27" s="12" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>61</v>
@@ -1955,12 +2169,9 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>248</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1985,11 +2196,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="12"/>
+        <v>223</v>
+      </c>
       <c r="C29" s="12" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>63</v>
@@ -2015,12 +2225,9 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>250</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2052,9 +2259,8 @@
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2082,10 +2288,7 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
@@ -2112,9 +2315,8 @@
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2168,9 +2370,8 @@
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="12"/>
       <c r="C37" s="12" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
@@ -2198,10 +2399,7 @@
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
-        <v>255</v>
-      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2228,9 +2426,8 @@
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -2258,10 +2455,7 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
-        <v>256</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
         <v>149</v>
       </c>
@@ -2288,6 +2482,9 @@
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>78</v>
       </c>
@@ -2340,6 +2537,9 @@
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C43" t="s">
+        <v>264</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>86</v>
       </c>
@@ -2390,7 +2590,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>82</v>
@@ -2444,6 +2647,9 @@
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>85</v>
       </c>
@@ -3553,7 +3759,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I94" xr:uid="{B408463F-D185-4ACD-83FB-81FC5B67856D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3564,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9044291-897A-437E-A51C-04BEE5E6E971}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C17"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6071,4 +6276,2313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D4D41B-105B-4DAA-B61F-0A8D089385A4}">
+  <dimension ref="A1:K96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14715584</v>
+      </c>
+      <c r="G3" s="3">
+        <v>58.884934999999999</v>
+      </c>
+      <c r="H3">
+        <v>88.03</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.9476129665606198E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>28.097815000000001</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3909166</v>
+      </c>
+      <c r="G4" s="3">
+        <v>38.786489000000003</v>
+      </c>
+      <c r="H4">
+        <v>89.56</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.8596707707415698E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>26.804995999999999</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14715584</v>
+      </c>
+      <c r="G5" s="3">
+        <v>58.868802000000002</v>
+      </c>
+      <c r="H5">
+        <v>88.04</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.9297892036732601E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29.024611</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3909166</v>
+      </c>
+      <c r="G6" s="3">
+        <v>38.770350000000001</v>
+      </c>
+      <c r="H6">
+        <v>89.59</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.82896469235383E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>26.645790000000002</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9222848</v>
+      </c>
+      <c r="G7" s="3">
+        <v>36.906025999999997</v>
+      </c>
+      <c r="H7">
+        <v>84.51</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.3647690841792794E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>26.799779000000001</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9222848</v>
+      </c>
+      <c r="G8" s="3">
+        <v>36.890360999999999</v>
+      </c>
+      <c r="H8">
+        <v>84.55</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9.3732865100774498E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25.554449999999999</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2189460</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18.688288</v>
+      </c>
+      <c r="H9">
+        <v>87.51</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.5442673095730102E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>25.503758000000001</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2189460</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18.672626999999999</v>
+      </c>
+      <c r="H10">
+        <v>87.44</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.5589927145122203E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26.960750000000001</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2237552</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.0574069999999995</v>
+      </c>
+      <c r="H13">
+        <v>95.94</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.6770132610803299E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>33.362285</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="1">
+        <v>671841</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.0550829999999998</v>
+      </c>
+      <c r="H14">
+        <v>95.69</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.53650957866651E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>31.943598999999999</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2237552</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9.0452069999999996</v>
+      </c>
+      <c r="H15">
+        <v>95.91</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.6609960541120602E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>38.287545000000001</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="1">
+        <v>671841</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.0428850000000001</v>
+      </c>
+      <c r="H16">
+        <v>95.69</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.52886667359366E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>38.506022000000002</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="1">
+        <v>657968</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.7120380000000002</v>
+      </c>
+      <c r="H17">
+        <v>80.67</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9.3126848974933105E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>29.246917</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="1">
+        <v>657968</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.701276</v>
+      </c>
+      <c r="H18">
+        <v>80.7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9.3678385980972098E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>30.244634000000001</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="1">
+        <v>271148</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.2975599999999998</v>
+      </c>
+      <c r="H19">
+        <v>87.98</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.6968350733760798E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>29.200002000000001</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="1">
+        <v>271148</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.2867999999999999</v>
+      </c>
+      <c r="H20">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6.6938777999004398E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>26.211791999999999</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>270896</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.116668</v>
+      </c>
+      <c r="H23" s="3">
+        <v>83.32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6.9734926686704099E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9.9248010000000004</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.92543200000000003</v>
+      </c>
+      <c r="H24" s="3">
+        <v>83.32</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.69943856884167E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8.3052390000000003</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>270896</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.1150789999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>89.08</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.06509731001633E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10.030422</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.92384699999999997</v>
+      </c>
+      <c r="H26" s="5">
+        <v>89.16</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5.6782391636844502E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8.4986969999999999</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1">
+        <v>28500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.115411</v>
+      </c>
+      <c r="H27" s="5">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.12207657432939301</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.269269</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1">
+        <v>28500</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.109725</v>
+      </c>
+      <c r="H28" s="3">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.122460156785788</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.3896959999999998</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1">
+        <v>13450</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6.1318999999999999E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>69.63</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.112280942283185</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2.120196</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1">
+        <v>13450</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.8624999999999997E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>69.53</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.110153574612901</v>
+      </c>
+      <c r="J30" s="1">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
+        <v>657968</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2.7028509999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4.9084009616167198E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>20.946403</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>657968</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2.7012779999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>87.49</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6.3413642065410503E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>21.966231000000001</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>271148</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2.2883770000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5.59299561952269E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>18.002445000000002</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1">
+        <v>271148</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.2867959999999998</v>
+      </c>
+      <c r="H36" s="1">
+        <v>89.15</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5.5485583713249298E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>18.160620999999999</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1">
+        <v>270896</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.116662</v>
+      </c>
+      <c r="H37" s="1">
+        <v>85.36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>9.0237686140547696E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9.9305280000000007</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1">
+        <v>270896</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.115083</v>
+      </c>
+      <c r="H38" s="1">
+        <v>85.33</v>
+      </c>
+      <c r="I38" s="1">
+        <v>9.0063366581535201E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10.019786</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.92542599999999997</v>
+      </c>
+      <c r="H39" s="1">
+        <v>89.24</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4.9084009616167198E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8.3240409999999994</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.92384699999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <v>89.22</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.92215400002885E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8.6140760000000007</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="1">
+        <v>464432</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.909734</v>
+      </c>
+      <c r="H41" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7.3426153378751899E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>16.776167000000001</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="1">
+        <v>464432</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.9081509999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>86.82</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7.3541552879987496E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>16.864172</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="1">
+        <v>208476</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.6068739999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>89.59</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5.1864149467623501E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>14.022741999999999</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="1">
+        <v>208476</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1.6052949999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5.2060445637739199E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>14.004538999999999</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="1">
+        <v>367664</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.5132019999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>86</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9.2760983177195694E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>13.804232000000001</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="1">
+        <v>367664</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.511619</v>
+      </c>
+      <c r="H46" s="1">
+        <v>85.98</v>
+      </c>
+      <c r="I46" s="1">
+        <v>9.2977201506605794E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>13.812071</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="1">
+        <v>151336</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.2661519999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5.8414125004146E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>11.645421000000001</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="1">
+        <v>151336</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1.264567</v>
+      </c>
+      <c r="H48" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5.8465459888724002E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11.266840999999999</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1">
+        <v>174128</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.72013199999999999</v>
+      </c>
+      <c r="H49" s="1">
+        <v>85.95</v>
+      </c>
+      <c r="I49" s="1">
+        <v>8.5309143706873494E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7.7266199999999996</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="1">
+        <v>174128</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.71854099999999999</v>
+      </c>
+      <c r="H50" s="1">
+        <v>85.91</v>
+      </c>
+      <c r="I50" s="1">
+        <v>8.5324615440094398E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>7.4747440000000003</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="1">
+        <v>108017</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.58470800000000001</v>
+      </c>
+      <c r="H51" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5.2935810185544503E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.3952920000000004</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="1">
+        <v>108017</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.583121</v>
+      </c>
+      <c r="H52" s="1">
+        <v>87.77</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5.33142570050451E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>6.3420810000000003</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="1">
+        <v>77360</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.24398</v>
+      </c>
+      <c r="H53" s="1">
+        <v>82.65</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7.9778756570906703E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3.7664900000000001</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1">
+        <v>77360</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.242399</v>
+      </c>
+      <c r="H54" s="1">
+        <v>82.65</v>
+      </c>
+      <c r="I54" s="1">
+        <v>8.0512421401917805E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3.7241949999999999</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1">
+        <v>25073</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.3236</v>
+      </c>
+      <c r="H55" s="1">
+        <v>81.48</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7.9337002716260902E-2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4.3323140000000002</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="1">
+        <v>25073</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.322015</v>
+      </c>
+      <c r="H56" s="1">
+        <v>81.44</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7.98175419315829E-2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4.4862919999999997</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.105419</v>
+      </c>
+      <c r="H59" s="1">
+        <v>98.82</v>
+      </c>
+      <c r="I59" s="1">
+        <v>8.6485078856387201E-3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.2237389999999999</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4250</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5.4375E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>98.62</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5.8218386494567204E-3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1.1038809999999999</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.104223</v>
+      </c>
+      <c r="H61" s="1">
+        <v>98.79</v>
+      </c>
+      <c r="I61" s="1">
+        <v>9.0671430856920105E-3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.2610079999999999</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4250</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5.3180999999999999E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5.8009353020417997E-3</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1.1283540000000001</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1">
+        <v>430500</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1.7256480000000001</v>
+      </c>
+      <c r="H65" s="1">
+        <v>99.16</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3.5601117196856699E-3</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1.5371889999999999</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1">
+        <v>430500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.51116700000000004</v>
+      </c>
+      <c r="H66" s="1">
+        <v>99.13</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3.8375351290622101E-3</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.7159580000000001</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1">
+        <v>206500</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1.674606</v>
+      </c>
+      <c r="H67" s="1">
+        <v>99.18</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3.8574034118390201E-3</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1.3895949999999999</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1">
+        <v>206500</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.46012700000000001</v>
+      </c>
+      <c r="H68" s="1">
+        <v>99.19</v>
+      </c>
+      <c r="I68" s="1">
+        <v>3.5255642920640601E-3</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.830317</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.105419</v>
+      </c>
+      <c r="H69" s="1">
+        <v>98.59</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1.15464722906572E-2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1.095572</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.104223</v>
+      </c>
+      <c r="H70" s="1">
+        <v>98.57</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1.16085921834968E-2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.253695</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4250</v>
+      </c>
+      <c r="G71" s="3">
+        <v>5.4375E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4.2026482421618902E-3</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.96425799999999995</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4250</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5.3183000000000001E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>98.76</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4.5172598747641396E-3</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1.029093</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="G75" s="3">
+        <v>46.816065999999999</v>
+      </c>
+      <c r="H75" s="1">
+        <v>70.42</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.21851480634433099</v>
+      </c>
+      <c r="J75" s="4">
+        <v>2.7016203703703703E-3</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="G76" s="3">
+        <v>46.816065999999999</v>
+      </c>
+      <c r="H76" s="1">
+        <v>70.27</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.21413630213618401</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2.7006944444444448E-3</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45.280406999999997</v>
+      </c>
+      <c r="H77" s="1">
+        <v>70.48</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.217732426371541</v>
+      </c>
+      <c r="J77" s="4">
+        <v>2.6709490740740743E-3</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45.280405000000002</v>
+      </c>
+      <c r="H78" s="1">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.21532358301717699</v>
+      </c>
+      <c r="J78" s="4">
+        <v>2.6855324074074073E-3</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="3">
+        <v>4209088</v>
+      </c>
+      <c r="G79" s="3">
+        <v>17.040520000000001</v>
+      </c>
+      <c r="H79" s="1">
+        <v>51.72</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.25277799049636801</v>
+      </c>
+      <c r="J79" s="4">
+        <v>3.6650925925925926E-3</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4209088</v>
+      </c>
+      <c r="G80" s="3">
+        <v>13.968855</v>
+      </c>
+      <c r="H80" s="1">
+        <v>51.69</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.25331285731124298</v>
+      </c>
+      <c r="J80" s="4">
+        <v>3.7202083333333336E-3</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2329532</v>
+      </c>
+      <c r="G81" s="3">
+        <v>17.040521999999999</v>
+      </c>
+      <c r="H81" s="1">
+        <v>63.15</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.23315852895724901</v>
+      </c>
+      <c r="J81" s="4">
+        <v>3.8203240740740745E-3</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2329532</v>
+      </c>
+      <c r="G82" s="3">
+        <v>13.968857</v>
+      </c>
+      <c r="H82" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.23374172001788299</v>
+      </c>
+      <c r="J82" s="4">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="1">
+        <v>25502912</v>
+      </c>
+      <c r="G85" s="3">
+        <v>102.49232499999999</v>
+      </c>
+      <c r="H85" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.201744460687976</v>
+      </c>
+      <c r="J85" s="4">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="1">
+        <v>25502912</v>
+      </c>
+      <c r="G86" s="3">
+        <v>96.348668000000004</v>
+      </c>
+      <c r="H86" s="1">
+        <v>77.11</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.201319795073719</v>
+      </c>
+      <c r="J86" s="4">
+        <v>8.1613541666666675E-3</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5108133</v>
+      </c>
+      <c r="G87" s="3">
+        <v>102.49232499999999</v>
+      </c>
+      <c r="H87" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.203720688485965</v>
+      </c>
+      <c r="J87" s="4">
+        <v>7.962303240740742E-3</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5108133</v>
+      </c>
+      <c r="G88" s="3">
+        <v>96.348668000000004</v>
+      </c>
+      <c r="H88" s="1">
+        <v>75.58</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.20269442819875499</v>
+      </c>
+      <c r="J88" s="4">
+        <v>8.3157407407407399E-3</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="G89" s="3">
+        <v>46.816056000000003</v>
+      </c>
+      <c r="H89" s="1">
+        <v>51.99</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.25332565652245498</v>
+      </c>
+      <c r="J89" s="4">
+        <v>2.7436342592592595E-3</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="G90" s="3">
+        <v>45.280405000000002</v>
+      </c>
+      <c r="H90" s="1">
+        <v>51.99</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.25302520592167499</v>
+      </c>
+      <c r="J90" s="4">
+        <v>2.6890046296296297E-3</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="G91" s="3">
+        <v>46.816056000000003</v>
+      </c>
+      <c r="H91" s="1">
+        <v>58.92</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.240339215088964</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2.6802083333333335E-3</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="G92" s="3">
+        <v>45.280405000000002</v>
+      </c>
+      <c r="H92" s="1">
+        <v>58.86</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.240743430230384</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2.6906249999999999E-3</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93" s="1">
+        <v>21779648</v>
+      </c>
+      <c r="G93" s="3">
+        <v>87.294079999999994</v>
+      </c>
+      <c r="H93" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.254144438088374</v>
+      </c>
+      <c r="J93" s="4">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="1">
+        <v>21779648</v>
+      </c>
+      <c r="G94" s="3">
+        <v>85.758416999999994</v>
+      </c>
+      <c r="H94" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.25502562827750402</v>
+      </c>
+      <c r="J94" s="4">
+        <v>5.1597222222222218E-3</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4363472</v>
+      </c>
+      <c r="G95" s="3">
+        <v>87.294079999999994</v>
+      </c>
+      <c r="H95" s="1">
+        <v>58.33</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.24002845269050399</v>
+      </c>
+      <c r="J95" s="4">
+        <v>5.7175925925925927E-3</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4363472</v>
+      </c>
+      <c r="G96" s="3">
+        <v>85.758416999999994</v>
+      </c>
+      <c r="H96" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.24002845269050399</v>
+      </c>
+      <c r="J96" s="4">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC77FC66-9092-45C8-AB67-C6FA60EEBD62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3F8EC-EBC5-4E73-A92B-BF420E925CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="back_up" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="297">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1507,2254 +1507,1932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.5" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>14715584</v>
       </c>
-      <c r="F3" s="3">
+      <c r="D3" s="3">
         <v>58.884934999999999</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>88.03</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>5.9476129665606198E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="G3" s="1">
         <v>28.097815000000001</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1">
         <v>3909166</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="3">
         <v>38.786489000000003</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>89.56</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>4.8596707707415698E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="G4" s="1">
         <v>26.804995999999999</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1">
         <v>14715584</v>
       </c>
-      <c r="F5" s="3">
+      <c r="D5" s="3">
         <v>58.868802000000002</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>88.04</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>5.9297892036732601E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="G5" s="1">
         <v>29.024611</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1">
         <v>3909166</v>
       </c>
-      <c r="F6" s="3">
+      <c r="D6" s="3">
         <v>38.770350000000001</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>89.59</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>4.82896469235383E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="G6" s="1">
         <v>26.645790000000002</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1">
         <v>9222848</v>
       </c>
-      <c r="F7" s="3">
+      <c r="D7" s="3">
         <v>36.906025999999997</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>84.51</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
         <v>9.3647690841792794E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="G7" s="1">
         <v>26.799779000000001</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="1">
         <v>9222848</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D8" s="3">
         <v>36.890360999999999</v>
       </c>
-      <c r="G8">
+      <c r="E8">
         <v>84.55</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>9.3732865100774498E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="G8" s="1">
         <v>25.554449999999999</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="1">
         <v>2189460</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3">
         <v>18.688288</v>
       </c>
-      <c r="G9">
+      <c r="E9">
         <v>87.51</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>5.5442673095730102E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="G9" s="1">
         <v>25.503758000000001</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="1">
         <v>2189460</v>
       </c>
-      <c r="F10" s="3">
+      <c r="D10" s="3">
         <v>18.672626999999999</v>
       </c>
-      <c r="G10">
+      <c r="E10">
         <v>87.44</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>5.5589927145122203E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="G10" s="1">
         <v>26.960750000000001</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="1">
         <v>2237552</v>
       </c>
-      <c r="F13" s="3">
+      <c r="D13" s="3">
         <v>9.0574069999999995</v>
       </c>
-      <c r="G13">
+      <c r="E13">
         <v>95.94</v>
       </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>2.6770132610803299E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="G13" s="1">
         <v>33.362285</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="1">
         <v>671841</v>
       </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
         <v>9.0550829999999998</v>
       </c>
-      <c r="G14">
+      <c r="E14">
         <v>95.69</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>3.53650957866651E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="G14" s="1">
         <v>31.943598999999999</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="1">
         <v>2237552</v>
       </c>
-      <c r="F15" s="3">
+      <c r="D15" s="3">
         <v>9.0452069999999996</v>
       </c>
-      <c r="G15">
+      <c r="E15">
         <v>95.91</v>
       </c>
-      <c r="H15" s="1">
+      <c r="F15" s="1">
         <v>2.6609960541120602E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="G15" s="1">
         <v>38.287545000000001</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="1">
         <v>671841</v>
       </c>
-      <c r="F16" s="3">
+      <c r="D16" s="3">
         <v>9.0428850000000001</v>
       </c>
-      <c r="G16">
+      <c r="E16">
         <v>95.69</v>
       </c>
-      <c r="H16" s="1">
+      <c r="F16" s="1">
         <v>3.52886667359366E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="G16" s="1">
         <v>38.506022000000002</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="1">
         <v>657968</v>
       </c>
-      <c r="F17" s="3">
+      <c r="D17" s="3">
         <v>2.7120380000000002</v>
       </c>
-      <c r="G17">
+      <c r="E17">
         <v>80.67</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1">
         <v>9.3126848974933105E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="G17" s="1">
         <v>29.246917</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="1">
         <v>657968</v>
       </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
         <v>2.701276</v>
       </c>
-      <c r="G18">
+      <c r="E18">
         <v>80.7</v>
       </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1">
         <v>9.3678385980972098E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="G18" s="1">
         <v>30.244634000000001</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="1">
         <v>271148</v>
       </c>
-      <c r="F19" s="3">
+      <c r="D19" s="3">
         <v>2.2975599999999998</v>
       </c>
-      <c r="G19">
+      <c r="E19">
         <v>87.98</v>
       </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>6.6968350733760798E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="G19" s="1">
         <v>29.200002000000001</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="1">
         <v>271148</v>
       </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
         <v>2.2867999999999999</v>
       </c>
-      <c r="G20">
+      <c r="E20">
         <v>88</v>
       </c>
-      <c r="H20" s="1">
+      <c r="F20" s="1">
         <v>6.6938777999004398E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="G20" s="1">
         <v>26.211791999999999</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="1">
         <v>270896</v>
       </c>
-      <c r="F23" s="3">
+      <c r="D23" s="3">
         <v>1.116668</v>
       </c>
-      <c r="G23" s="3">
+      <c r="E23" s="3">
         <v>83.32</v>
       </c>
-      <c r="H23" s="1">
+      <c r="F23" s="1">
         <v>6.9734926686704099E-2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="G23" s="1">
         <v>9.9248010000000004</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C24" s="1">
         <v>120000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="D24" s="3">
         <v>0.92543200000000003</v>
       </c>
-      <c r="G24" s="3">
+      <c r="E24" s="3">
         <v>83.32</v>
       </c>
-      <c r="H24" s="1">
+      <c r="F24" s="1">
         <v>5.69943856884167E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="G24" s="1">
         <v>8.3052390000000003</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="1">
         <v>270896</v>
       </c>
-      <c r="F25" s="3">
+      <c r="D25" s="3">
         <v>1.1150789999999999</v>
       </c>
-      <c r="G25" s="3">
+      <c r="E25" s="3">
         <v>89.08</v>
       </c>
-      <c r="H25" s="1">
+      <c r="F25" s="1">
         <v>7.06509731001633E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="G25" s="1">
         <v>10.030422</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="1">
         <v>120000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="D26" s="3">
         <v>0.92384699999999997</v>
       </c>
-      <c r="G26" s="5">
+      <c r="E26" s="5">
         <v>89.16</v>
       </c>
-      <c r="H26" s="1">
+      <c r="F26" s="1">
         <v>5.6782391636844502E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="G26" s="1">
         <v>8.4986969999999999</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="1">
         <v>28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="D27" s="3">
         <v>0.115411</v>
       </c>
-      <c r="G27" s="5">
+      <c r="E27" s="5">
         <v>72.290000000000006</v>
       </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
         <v>0.12207657432939301</v>
       </c>
-      <c r="I27" s="1">
+      <c r="G27" s="1">
         <v>2.269269</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C28" s="1">
         <v>28500</v>
       </c>
-      <c r="F28" s="3">
+      <c r="D28" s="3">
         <v>0.109725</v>
       </c>
-      <c r="G28" s="3">
+      <c r="E28" s="3">
         <v>72.209999999999994</v>
       </c>
-      <c r="H28" s="1">
+      <c r="F28" s="1">
         <v>0.122460156785788</v>
       </c>
-      <c r="I28" s="1">
+      <c r="G28" s="1">
         <v>2.3896959999999998</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="1">
         <v>13450</v>
       </c>
-      <c r="F29" s="3">
+      <c r="D29" s="3">
         <v>6.1318999999999999E-2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="E29" s="3">
         <v>69.63</v>
       </c>
-      <c r="H29" s="1">
+      <c r="F29" s="1">
         <v>0.112280942283185</v>
       </c>
-      <c r="I29" s="1">
+      <c r="G29" s="1">
         <v>2.120196</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C30" s="1">
         <v>13450</v>
       </c>
-      <c r="F30" s="3">
+      <c r="D30" s="3">
         <v>5.8624999999999997E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="E30" s="3">
         <v>69.53</v>
       </c>
-      <c r="H30" s="1">
+      <c r="F30" s="1">
         <v>0.110153574612901</v>
       </c>
-      <c r="I30" s="1">
+      <c r="G30" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
+      <c r="C33" s="1">
+        <v>657968</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.7028509999999999</v>
       </c>
       <c r="E33" s="1">
-        <v>657968</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2.7028509999999999</v>
+        <v>87.38</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.9084009616167198E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>87.38</v>
-      </c>
-      <c r="H33" s="1">
-        <v>4.9084009616167198E-2</v>
-      </c>
-      <c r="I33" s="1">
         <v>20.946403</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
+      <c r="C34" s="1">
+        <v>657968</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.7012779999999998</v>
       </c>
       <c r="E34" s="1">
-        <v>657968</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2.7012779999999998</v>
+        <v>87.49</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.3413642065410503E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>87.49</v>
-      </c>
-      <c r="H34" s="1">
-        <v>6.3413642065410503E-2</v>
-      </c>
-      <c r="I34" s="1">
         <v>21.966231000000001</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
+      <c r="C35" s="1">
+        <v>271148</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.2883770000000001</v>
       </c>
       <c r="E35" s="1">
-        <v>271148</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2.2883770000000001</v>
+        <v>89.12</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.59299561952269E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>89.12</v>
-      </c>
-      <c r="H35" s="1">
-        <v>5.59299561952269E-2</v>
-      </c>
-      <c r="I35" s="1">
         <v>18.002445000000002</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
+      <c r="C36" s="1">
+        <v>271148</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.2867959999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>271148</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.2867959999999998</v>
+        <v>89.15</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.5485583713249298E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>89.15</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.5485583713249298E-2</v>
-      </c>
-      <c r="I36" s="1">
         <v>18.160620999999999</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
+      <c r="C37" s="1">
+        <v>270896</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.116662</v>
       </c>
       <c r="E37" s="1">
-        <v>270896</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1.116662</v>
+        <v>85.36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.0237686140547696E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>85.36</v>
-      </c>
-      <c r="H37" s="1">
-        <v>9.0237686140547696E-2</v>
-      </c>
-      <c r="I37" s="1">
         <v>9.9305280000000007</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
+      <c r="C38" s="1">
+        <v>270896</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.115083</v>
       </c>
       <c r="E38" s="1">
-        <v>270896</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1.115083</v>
+        <v>85.33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.0063366581535201E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>85.33</v>
-      </c>
-      <c r="H38" s="1">
-        <v>9.0063366581535201E-2</v>
-      </c>
-      <c r="I38" s="1">
         <v>10.019786</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
+      <c r="C39" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.92542599999999997</v>
       </c>
       <c r="E39" s="1">
-        <v>120000</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.92542599999999997</v>
+        <v>89.24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.9084009616167198E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>89.24</v>
-      </c>
-      <c r="H39" s="1">
-        <v>4.9084009616167198E-2</v>
-      </c>
-      <c r="I39" s="1">
         <v>8.3240409999999994</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="2" t="s">
-        <v>149</v>
+      <c r="C40" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.92384699999999997</v>
       </c>
       <c r="E40" s="1">
-        <v>120000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.92384699999999997</v>
+        <v>89.22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.92215400002885E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>89.22</v>
-      </c>
-      <c r="H40" s="1">
-        <v>4.92215400002885E-2</v>
-      </c>
-      <c r="I40" s="1">
         <v>8.6140760000000007</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
+      <c r="C41" s="1">
+        <v>464432</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.909734</v>
       </c>
       <c r="E41" s="1">
-        <v>464432</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1.909734</v>
-      </c>
-      <c r="G41" s="1">
         <v>86.8</v>
       </c>
-      <c r="H41" s="1">
+      <c r="F41" s="1">
         <v>7.3426153378751899E-2</v>
       </c>
-      <c r="I41" s="3">
+      <c r="G41" s="3">
         <v>16.776167000000001</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>77</v>
+      <c r="C42" s="1">
+        <v>464432</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.9081509999999999</v>
       </c>
       <c r="E42" s="1">
-        <v>464432</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1.9081509999999999</v>
+        <v>86.82</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7.3541552879987496E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>86.82</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.3541552879987496E-2</v>
-      </c>
-      <c r="I42" s="1">
         <v>16.864172</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
+      <c r="C43" s="1">
+        <v>208476</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.6068739999999999</v>
       </c>
       <c r="E43" s="1">
-        <v>208476</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1.6068739999999999</v>
+        <v>89.59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.1864149467623501E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>89.59</v>
-      </c>
-      <c r="H43" s="1">
-        <v>5.1864149467623501E-2</v>
-      </c>
-      <c r="I43" s="1">
         <v>14.022741999999999</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
+      <c r="C44" s="1">
+        <v>208476</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.6052949999999999</v>
       </c>
       <c r="E44" s="1">
-        <v>208476</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1.6052949999999999</v>
+        <v>89.61</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.2060445637739199E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>89.61</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5.2060445637739199E-2</v>
-      </c>
-      <c r="I44" s="1">
         <v>14.004538999999999</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
+      <c r="C45" s="1">
+        <v>367664</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.5132019999999999</v>
       </c>
       <c r="E45" s="1">
-        <v>367664</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1.5132019999999999</v>
+        <v>86</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9.2760983177195694E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>86</v>
-      </c>
-      <c r="H45" s="1">
-        <v>9.2760983177195694E-2</v>
-      </c>
-      <c r="I45" s="1">
         <v>13.804232000000001</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>83</v>
+      <c r="C46" s="1">
+        <v>367664</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.511619</v>
       </c>
       <c r="E46" s="1">
-        <v>367664</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1.511619</v>
+        <v>85.98</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9.2977201506605794E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>85.98</v>
-      </c>
-      <c r="H46" s="1">
-        <v>9.2977201506605794E-2</v>
-      </c>
-      <c r="I46" s="1">
         <v>13.812071</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>85</v>
+      <c r="C47" s="1">
+        <v>151336</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.2661519999999999</v>
       </c>
       <c r="E47" s="1">
-        <v>151336</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1.2661519999999999</v>
+        <v>89.33</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.8414125004146E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>89.33</v>
-      </c>
-      <c r="H47" s="1">
-        <v>5.8414125004146E-2</v>
-      </c>
-      <c r="I47" s="1">
         <v>11.645421000000001</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
+      <c r="C48" s="1">
+        <v>151336</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.264567</v>
       </c>
       <c r="E48" s="1">
-        <v>151336</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1.264567</v>
+        <v>89.33</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.8465459888724002E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>89.33</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5.8465459888724002E-2</v>
-      </c>
-      <c r="I48" s="1">
         <v>11.266840999999999</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
+      <c r="C49" s="1">
+        <v>174128</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.72013199999999999</v>
       </c>
       <c r="E49" s="1">
-        <v>174128</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.72013199999999999</v>
+        <v>85.95</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8.5309143706873494E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>85.95</v>
-      </c>
-      <c r="H49" s="1">
-        <v>8.5309143706873494E-2</v>
-      </c>
-      <c r="I49" s="1">
         <v>7.7266199999999996</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>89</v>
+      <c r="C50" s="1">
+        <v>174128</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.71854099999999999</v>
       </c>
       <c r="E50" s="1">
-        <v>174128</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.71854099999999999</v>
+        <v>85.91</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8.5324615440094398E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>85.91</v>
-      </c>
-      <c r="H50" s="1">
-        <v>8.5324615440094398E-2</v>
-      </c>
-      <c r="I50" s="1">
         <v>7.4747440000000003</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
+      <c r="C51" s="1">
+        <v>108017</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.58470800000000001</v>
       </c>
       <c r="E51" s="1">
-        <v>108017</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.58470800000000001</v>
+        <v>87.8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.2935810185544503E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>87.8</v>
-      </c>
-      <c r="H51" s="1">
-        <v>5.2935810185544503E-2</v>
-      </c>
-      <c r="I51" s="1">
         <v>6.3952920000000004</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>90</v>
+      <c r="C52" s="1">
+        <v>108017</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.583121</v>
       </c>
       <c r="E52" s="1">
-        <v>108017</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.583121</v>
+        <v>87.77</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.33142570050451E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>87.77</v>
-      </c>
-      <c r="H52" s="1">
-        <v>5.33142570050451E-2</v>
-      </c>
-      <c r="I52" s="1">
         <v>6.3420810000000003</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
+      <c r="C53" s="1">
+        <v>77360</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.24398</v>
       </c>
       <c r="E53" s="1">
-        <v>77360</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.24398</v>
+        <v>82.65</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.9778756570906703E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>82.65</v>
-      </c>
-      <c r="H53" s="1">
-        <v>7.9778756570906703E-2</v>
-      </c>
-      <c r="I53" s="1">
         <v>3.7664900000000001</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
+      <c r="C54" s="1">
+        <v>77360</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.242399</v>
       </c>
       <c r="E54" s="1">
-        <v>77360</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.242399</v>
+        <v>82.65</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8.0512421401917805E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>82.65</v>
-      </c>
-      <c r="H54" s="1">
-        <v>8.0512421401917805E-2</v>
-      </c>
-      <c r="I54" s="1">
         <v>3.7241949999999999</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>94</v>
+      <c r="C55" s="1">
+        <v>25073</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.3236</v>
       </c>
       <c r="E55" s="1">
-        <v>25073</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.3236</v>
+        <v>81.48</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7.9337002716260902E-2</v>
       </c>
       <c r="G55" s="1">
-        <v>81.48</v>
-      </c>
-      <c r="H55" s="1">
-        <v>7.9337002716260902E-2</v>
-      </c>
-      <c r="I55" s="1">
         <v>4.3323140000000002</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
+      <c r="C56" s="1">
+        <v>25073</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.322015</v>
       </c>
       <c r="E56" s="1">
-        <v>25073</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.322015</v>
-      </c>
-      <c r="G56" s="1">
         <v>81.44</v>
       </c>
-      <c r="H56" s="1">
+      <c r="F56" s="1">
         <v>7.98175419315829E-2</v>
       </c>
-      <c r="I56" s="3">
+      <c r="G56" s="3">
         <v>4.4862919999999997</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
+      <c r="C59" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.105419</v>
       </c>
       <c r="E59" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.105419</v>
+        <v>98.82</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8.6485078856387201E-3</v>
       </c>
       <c r="G59" s="1">
-        <v>98.82</v>
-      </c>
-      <c r="H59" s="1">
-        <v>8.6485078856387201E-3</v>
-      </c>
-      <c r="I59" s="1">
         <v>1.2237389999999999</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
+      <c r="C60" s="1">
+        <v>4250</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5.4375E-2</v>
       </c>
       <c r="E60" s="1">
-        <v>4250</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5.4375E-2</v>
+        <v>98.62</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5.8218386494567204E-3</v>
       </c>
       <c r="G60" s="1">
-        <v>98.62</v>
-      </c>
-      <c r="H60" s="1">
-        <v>5.8218386494567204E-3</v>
-      </c>
-      <c r="I60" s="1">
         <v>1.1038809999999999</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>19</v>
+      <c r="C61" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.104223</v>
       </c>
       <c r="E61" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.104223</v>
+        <v>98.79</v>
+      </c>
+      <c r="F61" s="1">
+        <v>9.0671430856920105E-3</v>
       </c>
       <c r="G61" s="1">
-        <v>98.79</v>
-      </c>
-      <c r="H61" s="1">
-        <v>9.0671430856920105E-3</v>
-      </c>
-      <c r="I61" s="1">
         <v>1.2610079999999999</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>20</v>
+      <c r="C62" s="1">
+        <v>4250</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5.3180999999999999E-2</v>
       </c>
       <c r="E62" s="1">
-        <v>4250</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5.3180999999999999E-2</v>
+        <v>98.63</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5.8009353020417997E-3</v>
       </c>
       <c r="G62" s="1">
-        <v>98.63</v>
-      </c>
-      <c r="H62" s="1">
-        <v>5.8009353020417997E-3</v>
-      </c>
-      <c r="I62" s="1">
         <v>1.1283540000000001</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>21</v>
+      <c r="C65" s="1">
+        <v>430500</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.7256480000000001</v>
       </c>
       <c r="E65" s="1">
-        <v>430500</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1.7256480000000001</v>
+        <v>99.16</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.5601117196856699E-3</v>
       </c>
       <c r="G65" s="1">
-        <v>99.16</v>
-      </c>
-      <c r="H65" s="1">
-        <v>3.5601117196856699E-3</v>
-      </c>
-      <c r="I65" s="1">
         <v>1.5371889999999999</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>22</v>
+      <c r="C66" s="1">
+        <v>430500</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.51116700000000004</v>
       </c>
       <c r="E66" s="1">
-        <v>430500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.51116700000000004</v>
+        <v>99.13</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3.8375351290622101E-3</v>
       </c>
       <c r="G66" s="1">
-        <v>99.13</v>
-      </c>
-      <c r="H66" s="1">
-        <v>3.8375351290622101E-3</v>
-      </c>
-      <c r="I66" s="1">
         <v>1.7159580000000001</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>17</v>
+      <c r="C67" s="1">
+        <v>206500</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.674606</v>
       </c>
       <c r="E67" s="1">
-        <v>206500</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1.674606</v>
+        <v>99.18</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.8574034118390201E-3</v>
       </c>
       <c r="G67" s="1">
-        <v>99.18</v>
-      </c>
-      <c r="H67" s="1">
-        <v>3.8574034118390201E-3</v>
-      </c>
-      <c r="I67" s="1">
         <v>1.3895949999999999</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>23</v>
+      <c r="C68" s="1">
+        <v>206500</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.46012700000000001</v>
       </c>
       <c r="E68" s="1">
-        <v>206500</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.46012700000000001</v>
+        <v>99.19</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.5255642920640601E-3</v>
       </c>
       <c r="G68" s="1">
-        <v>99.19</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3.5255642920640601E-3</v>
-      </c>
-      <c r="I68" s="1">
         <v>1.830317</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>24</v>
+      <c r="C69" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.105419</v>
       </c>
       <c r="E69" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.105419</v>
+        <v>98.59</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.15464722906572E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>98.59</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.15464722906572E-2</v>
-      </c>
-      <c r="I69" s="1">
         <v>1.095572</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>25</v>
+      <c r="C70" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.104223</v>
       </c>
       <c r="E70" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.104223</v>
+        <v>98.57</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.16085921834968E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>98.57</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.16085921834968E-2</v>
-      </c>
-      <c r="I70" s="1">
         <v>1.253695</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>26</v>
+      <c r="C71" s="1">
+        <v>4250</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5.4375E-2</v>
       </c>
       <c r="E71" s="1">
-        <v>4250</v>
-      </c>
-      <c r="F71" s="3">
-        <v>5.4375E-2</v>
+        <v>98.75</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4.2026482421618902E-3</v>
       </c>
       <c r="G71" s="1">
-        <v>98.75</v>
-      </c>
-      <c r="H71" s="1">
-        <v>4.2026482421618902E-3</v>
-      </c>
-      <c r="I71" s="1">
         <v>0.96425799999999995</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>27</v>
+      <c r="C72" s="1">
+        <v>4250</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5.3183000000000001E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>4250</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5.3183000000000001E-2</v>
+        <v>98.76</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.5172598747641396E-3</v>
       </c>
       <c r="G72" s="1">
-        <v>98.76</v>
-      </c>
-      <c r="H72" s="1">
-        <v>4.5172598747641396E-3</v>
-      </c>
-      <c r="I72" s="1">
         <v>1.029093</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>40</v>
+      <c r="C75" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="D75" s="3">
+        <v>46.816065999999999</v>
       </c>
       <c r="E75" s="1">
-        <v>11678912</v>
-      </c>
-      <c r="F75" s="3">
-        <v>46.816065999999999</v>
-      </c>
-      <c r="G75" s="1">
         <v>70.42</v>
       </c>
-      <c r="H75" s="1">
+      <c r="F75" s="1">
         <v>0.21851480634433099</v>
       </c>
-      <c r="I75" s="4">
+      <c r="G75" s="4">
         <v>2.7016203703703703E-3</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>41</v>
+      <c r="C76" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46.816065999999999</v>
       </c>
       <c r="E76" s="1">
-        <v>4680578</v>
-      </c>
-      <c r="F76" s="3">
-        <v>46.816065999999999</v>
-      </c>
-      <c r="G76" s="1">
         <v>70.27</v>
       </c>
-      <c r="H76" s="1">
+      <c r="F76" s="1">
         <v>0.21413630213618401</v>
       </c>
-      <c r="I76" s="4">
+      <c r="G76" s="4">
         <v>2.7006944444444448E-3</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>40</v>
+      <c r="C77" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45.280406999999997</v>
       </c>
       <c r="E77" s="1">
-        <v>11678912</v>
-      </c>
-      <c r="F77" s="3">
-        <v>45.280406999999997</v>
-      </c>
-      <c r="G77" s="1">
         <v>70.48</v>
       </c>
-      <c r="H77" s="1">
+      <c r="F77" s="1">
         <v>0.217732426371541</v>
       </c>
-      <c r="I77" s="4">
+      <c r="G77" s="4">
         <v>2.6709490740740743E-3</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>41</v>
+      <c r="C78" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45.280405000000002</v>
       </c>
       <c r="E78" s="1">
-        <v>4680578</v>
-      </c>
-      <c r="F78" s="3">
-        <v>45.280405000000002</v>
-      </c>
-      <c r="G78" s="1">
         <v>70.209999999999994</v>
       </c>
-      <c r="H78" s="1">
+      <c r="F78" s="1">
         <v>0.21532358301717699</v>
       </c>
-      <c r="I78" s="4">
+      <c r="G78" s="4">
         <v>2.6855324074074073E-3</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="C79" s="3">
         <v>4209088</v>
       </c>
-      <c r="F79" s="3">
+      <c r="D79" s="3">
         <v>17.040520000000001</v>
       </c>
-      <c r="G79" s="1">
+      <c r="E79" s="1">
         <v>51.72</v>
       </c>
-      <c r="H79" s="1">
+      <c r="F79" s="1">
         <v>0.25277799049636801</v>
       </c>
-      <c r="I79" s="4">
+      <c r="G79" s="4">
         <v>3.6650925925925926E-3</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>109</v>
+      <c r="C80" s="1">
+        <v>4209088</v>
+      </c>
+      <c r="D80" s="3">
+        <v>13.968855</v>
       </c>
       <c r="E80" s="1">
-        <v>4209088</v>
-      </c>
-      <c r="F80" s="3">
-        <v>13.968855</v>
-      </c>
-      <c r="G80" s="1">
         <v>51.69</v>
       </c>
-      <c r="H80" s="1">
+      <c r="F80" s="1">
         <v>0.25331285731124298</v>
       </c>
-      <c r="I80" s="4">
+      <c r="G80" s="4">
         <v>3.7202083333333336E-3</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>108</v>
+      <c r="C81" s="1">
+        <v>2329532</v>
+      </c>
+      <c r="D81" s="3">
+        <v>17.040521999999999</v>
       </c>
       <c r="E81" s="1">
-        <v>2329532</v>
-      </c>
-      <c r="F81" s="3">
-        <v>17.040521999999999</v>
-      </c>
-      <c r="G81" s="1">
         <v>63.15</v>
       </c>
-      <c r="H81" s="1">
+      <c r="F81" s="1">
         <v>0.23315852895724901</v>
       </c>
-      <c r="I81" s="4">
+      <c r="G81" s="4">
         <v>3.8203240740740745E-3</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>108</v>
+      <c r="C82" s="1">
+        <v>2329532</v>
+      </c>
+      <c r="D82" s="3">
+        <v>13.968857</v>
       </c>
       <c r="E82" s="1">
-        <v>2329532</v>
-      </c>
-      <c r="F82" s="3">
-        <v>13.968857</v>
-      </c>
-      <c r="G82" s="1">
         <v>63.2</v>
       </c>
-      <c r="H82" s="1">
+      <c r="F82" s="1">
         <v>0.23374172001788299</v>
       </c>
-      <c r="I82" s="4">
+      <c r="G82" s="4">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>42</v>
+      <c r="C85" s="1">
+        <v>25502912</v>
+      </c>
+      <c r="D85" s="3">
+        <v>102.49232499999999</v>
       </c>
       <c r="E85" s="1">
-        <v>25502912</v>
-      </c>
-      <c r="F85" s="3">
-        <v>102.49232499999999</v>
-      </c>
-      <c r="G85" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="H85" s="1">
+      <c r="F85" s="1">
         <v>0.201744460687976</v>
       </c>
-      <c r="I85" s="4">
+      <c r="G85" s="4">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>43</v>
+      <c r="C86" s="1">
+        <v>25502912</v>
+      </c>
+      <c r="D86" s="3">
+        <v>96.348668000000004</v>
       </c>
       <c r="E86" s="1">
-        <v>25502912</v>
-      </c>
-      <c r="F86" s="3">
-        <v>96.348668000000004</v>
-      </c>
-      <c r="G86" s="1">
         <v>77.11</v>
       </c>
-      <c r="H86" s="1">
+      <c r="F86" s="1">
         <v>0.201319795073719</v>
       </c>
-      <c r="I86" s="4">
+      <c r="G86" s="4">
         <v>8.1613541666666675E-3</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>44</v>
+      <c r="C87" s="1">
+        <v>5108133</v>
+      </c>
+      <c r="D87" s="3">
+        <v>102.49232499999999</v>
       </c>
       <c r="E87" s="1">
-        <v>5108133</v>
-      </c>
-      <c r="F87" s="3">
-        <v>102.49232499999999</v>
-      </c>
-      <c r="G87" s="1">
         <v>75.599999999999994</v>
       </c>
-      <c r="H87" s="1">
+      <c r="F87" s="1">
         <v>0.203720688485965</v>
       </c>
-      <c r="I87" s="4">
+      <c r="G87" s="4">
         <v>7.962303240740742E-3</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>45</v>
+      <c r="C88" s="1">
+        <v>5108133</v>
+      </c>
+      <c r="D88" s="3">
+        <v>96.348668000000004</v>
       </c>
       <c r="E88" s="1">
-        <v>5108133</v>
-      </c>
-      <c r="F88" s="3">
-        <v>96.348668000000004</v>
-      </c>
-      <c r="G88" s="1">
         <v>75.58</v>
       </c>
-      <c r="H88" s="1">
+      <c r="F88" s="1">
         <v>0.20269442819875499</v>
       </c>
-      <c r="I88" s="4">
+      <c r="G88" s="4">
         <v>8.3157407407407399E-3</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>49</v>
+      <c r="C89" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="D89" s="3">
+        <v>46.816056000000003</v>
       </c>
       <c r="E89" s="1">
-        <v>11678912</v>
-      </c>
-      <c r="F89" s="3">
-        <v>46.816056000000003</v>
-      </c>
-      <c r="G89" s="1">
         <v>51.99</v>
       </c>
-      <c r="H89" s="1">
+      <c r="F89" s="1">
         <v>0.25332565652245498</v>
       </c>
-      <c r="I89" s="4">
+      <c r="G89" s="4">
         <v>2.7436342592592595E-3</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>50</v>
+      <c r="C90" s="1">
+        <v>11678912</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45.280405000000002</v>
       </c>
       <c r="E90" s="1">
-        <v>11678912</v>
-      </c>
-      <c r="F90" s="3">
-        <v>45.280405000000002</v>
-      </c>
-      <c r="G90" s="1">
         <v>51.99</v>
       </c>
-      <c r="H90" s="1">
+      <c r="F90" s="1">
         <v>0.25302520592167499</v>
       </c>
-      <c r="I90" s="4">
+      <c r="G90" s="4">
         <v>2.6890046296296297E-3</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>51</v>
+      <c r="C91" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="D91" s="3">
+        <v>46.816056000000003</v>
       </c>
       <c r="E91" s="1">
-        <v>4680578</v>
-      </c>
-      <c r="F91" s="3">
-        <v>46.816056000000003</v>
-      </c>
-      <c r="G91" s="1">
         <v>58.92</v>
       </c>
-      <c r="H91" s="1">
+      <c r="F91" s="1">
         <v>0.240339215088964</v>
       </c>
-      <c r="I91" s="4">
+      <c r="G91" s="4">
         <v>2.6802083333333335E-3</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>52</v>
+      <c r="C92" s="1">
+        <v>4680578</v>
+      </c>
+      <c r="D92" s="3">
+        <v>45.280405000000002</v>
       </c>
       <c r="E92" s="1">
-        <v>4680578</v>
-      </c>
-      <c r="F92" s="3">
-        <v>45.280405000000002</v>
-      </c>
-      <c r="G92" s="1">
         <v>58.86</v>
       </c>
-      <c r="H92" s="1">
+      <c r="F92" s="1">
         <v>0.240743430230384</v>
       </c>
-      <c r="I92" s="4">
+      <c r="G92" s="4">
         <v>2.6906249999999999E-3</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>101</v>
+      <c r="C93" s="1">
+        <v>21779648</v>
+      </c>
+      <c r="D93" s="3">
+        <v>87.294079999999994</v>
       </c>
       <c r="E93" s="1">
-        <v>21779648</v>
-      </c>
-      <c r="F93" s="3">
-        <v>87.294079999999994</v>
-      </c>
-      <c r="G93" s="1">
         <v>47.92</v>
       </c>
-      <c r="H93" s="1">
+      <c r="F93" s="1">
         <v>0.254144438088374</v>
       </c>
-      <c r="I93" s="4">
+      <c r="G93" s="4">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>102</v>
+      <c r="C94" s="1">
+        <v>21779648</v>
+      </c>
+      <c r="D94" s="3">
+        <v>85.758416999999994</v>
       </c>
       <c r="E94" s="1">
-        <v>21779648</v>
-      </c>
-      <c r="F94" s="3">
-        <v>85.758416999999994</v>
-      </c>
-      <c r="G94" s="1">
         <v>47.9</v>
       </c>
-      <c r="H94" s="1">
+      <c r="F94" s="1">
         <v>0.25502562827750402</v>
       </c>
-      <c r="I94" s="4">
+      <c r="G94" s="4">
         <v>5.1597222222222218E-3</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>104</v>
+      <c r="C95" s="1">
+        <v>4363472</v>
+      </c>
+      <c r="D95" s="3">
+        <v>87.294079999999994</v>
       </c>
       <c r="E95" s="1">
-        <v>4363472</v>
+        <v>58.33</v>
       </c>
       <c r="F95" s="3">
-        <v>87.294079999999994</v>
-      </c>
-      <c r="G95" s="1">
-        <v>58.33</v>
-      </c>
-      <c r="H95" s="3">
         <v>0.24002845269050399</v>
       </c>
-      <c r="I95" s="4">
+      <c r="G95" s="4">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="H95" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>103</v>
+      <c r="C96" s="1">
+        <v>4363472</v>
+      </c>
+      <c r="D96" s="3">
+        <v>85.758416999999994</v>
       </c>
       <c r="E96" s="1">
-        <v>4363472</v>
-      </c>
-      <c r="F96" s="3">
-        <v>85.758416999999994</v>
-      </c>
-      <c r="G96" s="1">
         <v>58.3</v>
       </c>
-      <c r="H96" s="1">
+      <c r="F96" s="1">
         <v>0.24002845269050399</v>
       </c>
-      <c r="I96" s="4">
+      <c r="G96" s="4">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>217</v>
       </c>
     </row>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3F8EC-EBC5-4E73-A92B-BF420E925CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE1BC5-DF05-4AE1-BFE7-C28E34E60963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
-    <sheet name="summary" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="back_up" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="quantization-result" sheetId="6" r:id="rId2"/>
+    <sheet name="summary" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="back_up" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$94</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="314">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,6 +1126,75 @@
   </si>
   <si>
     <t>-a resnet44_cifar --lr 0.005 -p 50 --data ../../data.cifar/ -j 1 --epochs 50 --out-dir ../../outputsdata/ --wd=0.0002 --vs=0 --batch-size 128 --workers 3 --confusion --kd-teacher resnet8_cifar --kd-resume E:\study\model-compression\git-hub\evaluate-project\outputsdata\wideresnet-pruning/checkpoint.pth.tar --kd-temp 5.0 --kd-dw 0.7 --kd-sw 0.3 --quantized 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet imagenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fariness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black box attack——square attack https://arxiv.org/abs/1912.00049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraction attack——knockoff nets https://arxiv.org/abs/1812.02766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraction model accuracy  // extraction rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack success // accuracy on attatcked data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fairness in Deep Learning:
+A Computational Perspective——prediciton quality disparity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 16 model run on gpu,int model run on cpu,float 16 on both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw l2/l inf a new on pgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celebA,group fairness,individual fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficienNet 2 88.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best acc of imagenet,cifar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1206,7 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,6 +1226,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1182,7 +1267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1218,6 +1303,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1509,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676BF2-E684-4357-9568-AC81F0DD060B}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -3444,6 +3538,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="16.5" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9044291-897A-437E-A51C-04BEE5E6E971}">
   <dimension ref="A1:J91"/>
   <sheetViews>
@@ -5956,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D4D41B-105B-4DAA-B61F-0A8D089385A4}">
   <dimension ref="A1:K96"/>
   <sheetViews>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE1BC5-DF05-4AE1-BFE7-C28E34E60963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FAEC0F-0AEF-46BA-8195-427331BCCDE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="765" windowWidth="22155" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="343">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,14 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MobileNet imagenet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fariness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1169,11 +1161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Fairness in Deep Learning:
-A Computational Perspective——prediciton quality disparity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float 16 model run on gpu,int model run on cpu,float 16 on both</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1186,15 +1173,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>efficienNet 2 88.61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>best acc of imagenet,cifar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>only base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw l2 attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgd l inf attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16%/99.75%</t>
+  </si>
+  <si>
+    <t>59.47%/42.39%</t>
+  </si>
+  <si>
+    <t>15.84%/85.06%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16%/99.76%</t>
+  </si>
+  <si>
+    <t>2.39%/99.62%</t>
+  </si>
+  <si>
+    <t>56.48%/43.24%</t>
+  </si>
+  <si>
+    <t>34.01%/66.62%</t>
+  </si>
+  <si>
+    <t>3.54%/99.06%</t>
+  </si>
+  <si>
+    <t>5.62%/99.69%</t>
+  </si>
+  <si>
+    <t>12.78%/89.9%</t>
+  </si>
+  <si>
+    <t>59.5%/44.79%</t>
+  </si>
+  <si>
+    <t>3.58%/99.02%</t>
+  </si>
+  <si>
+    <t>6.41%/95.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.03%/100.0%</t>
+  </si>
+  <si>
+    <t>87.7%/99.5%</t>
+  </si>
+  <si>
+    <t>31.97%/68.58%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19%/99.82%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.49%/99.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.38%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.61%/90.16%</t>
+  </si>
+  <si>
+    <t>55.44%/48.62%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.50%/99.62%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.4%/99.97%</t>
+  </si>
+  <si>
+    <t>5.67%/99.63%</t>
+  </si>
+  <si>
+    <t>3.09%/97.51%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.78%/85.39%</t>
+  </si>
+  <si>
+    <t>3.23%/97.33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet_v2 imagenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.68%/99.76%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.61%/98.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.63%/90.75%</t>
+  </si>
+  <si>
+    <t>1.70%/98.69%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1303,7 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,21 +1332,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1267,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1304,13 +1399,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3539,183 +3637,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9" style="5"/>
-    <col min="12" max="12" width="16.5" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="18.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="18.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="16.5" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>311</v>
-      </c>
+      <c r="B28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FAEC0F-0AEF-46BA-8195-427331BCCDE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40EA26-744F-4EE3-92D6-C2CB214DAE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="765" windowWidth="22155" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="344">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,6 +1292,10 @@
   </si>
   <si>
     <t>1.70%/98.69%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WideResNet imagenet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1405,11 +1409,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3637,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3659,14 +3663,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3722,11 +3726,11 @@
       <c r="E3" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3820,8 +3824,8 @@
       <c r="A12" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3841,7 +3845,7 @@
       <c r="D15" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -3856,14 +3860,14 @@
       <c r="D16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3874,34 +3878,35 @@
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>336</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -3912,35 +3917,65 @@
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="5" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="5" t="s">
         <v>341</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40EA26-744F-4EE3-92D6-C2CB214DAE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A4943-DC62-4AD9-A078-D187C9A59D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="765" windowWidth="22155" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="345">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,6 +1297,9 @@
   <si>
     <t>WideResNet imagenet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.94%/100.0%</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1410,6 +1413,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3643,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3663,14 +3669,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3726,11 +3732,11 @@
       <c r="E3" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3845,7 +3851,9 @@
       <c r="D15" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A4943-DC62-4AD9-A078-D187C9A59D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFE1A2-AA67-4B19-ACB0-2516B1409435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="765" windowWidth="22155" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="346">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,6 +1300,9 @@
   </si>
   <si>
     <t>95.94%/100.0%</t>
+  </si>
+  <si>
+    <t>84.5%/87.3%</t>
   </si>
 </sst>
 </file>
@@ -3649,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,7 +3871,9 @@
       <c r="D16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80764\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFE1A2-AA67-4B19-ACB0-2516B1409435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631B71-4833-45E9-9B98-48F5DF3AEB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="765" windowWidth="22155" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="1035" windowWidth="22320" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="360">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,10 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memory cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>black box attack——square attack https://arxiv.org/abs/1912.00049</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,22 +1157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float 16 model run on gpu,int model run on cpu,float 16 on both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cw l2/l inf a new on pgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>celebA,group fairness,individual fairness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cw l2 attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,124 +1165,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.16%/99.75%</t>
-  </si>
-  <si>
-    <t>59.47%/42.39%</t>
-  </si>
-  <si>
-    <t>15.84%/85.06%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.16%/99.76%</t>
-  </si>
-  <si>
-    <t>2.39%/99.62%</t>
-  </si>
-  <si>
-    <t>56.48%/43.24%</t>
-  </si>
-  <si>
-    <t>34.01%/66.62%</t>
-  </si>
-  <si>
-    <t>3.54%/99.06%</t>
-  </si>
-  <si>
-    <t>5.62%/99.69%</t>
-  </si>
-  <si>
-    <t>12.78%/89.9%</t>
-  </si>
-  <si>
-    <t>59.5%/44.79%</t>
-  </si>
-  <si>
-    <t>3.58%/99.02%</t>
-  </si>
-  <si>
-    <t>6.41%/95.8%</t>
+    <t>87.38%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet_v2 imagenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WideResNet imagenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.6%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.94%/100.0%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>88.03%/100.0%</t>
-  </si>
-  <si>
-    <t>87.7%/99.5%</t>
-  </si>
-  <si>
-    <t>31.97%/68.58%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.19%/99.82%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.49%/99.64%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87.38%/100.0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.61%/90.16%</t>
-  </si>
-  <si>
-    <t>55.44%/48.62%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.50%/99.62%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87.4%/99.97%</t>
-  </si>
-  <si>
-    <t>5.67%/99.63%</t>
-  </si>
-  <si>
-    <t>3.09%/97.51%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.78%/85.39%</t>
-  </si>
-  <si>
-    <t>3.23%/97.33%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobileNet_v2 imagenet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.68%/99.76%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.61%/98.79%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.63%/90.75%</t>
-  </si>
-  <si>
-    <t>1.70%/98.69%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WideResNet imagenet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.94%/100.0%</t>
-  </si>
-  <si>
-    <t>84.5%/87.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> accuracy on attatcked data//attack success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.67%/98.49%</t>
+  </si>
+  <si>
+    <t>3.67%/99.28%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.94%/97.16%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.37%/99.09%</t>
+  </si>
+  <si>
+    <t>9.99%/89.36%</t>
+  </si>
+  <si>
+    <t>4.56%/97.76%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.42%/99.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.34%/98.09%</t>
+  </si>
+  <si>
+    <t>4.29%/97.31%</t>
+  </si>
+  <si>
+    <t>3.71%/99.25%</t>
+  </si>
+  <si>
+    <t>23.84%/76.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.29%/98.2%</t>
+  </si>
+  <si>
+    <t>87.42%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.61%/97.72%</t>
+  </si>
+  <si>
+    <t>31.26%/67.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.61%/98.88%</t>
+  </si>
+  <si>
+    <t>92.39%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.42%/99.55%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.92%/88.73%</t>
+  </si>
+  <si>
+    <t>4.42%/97.17%</t>
+  </si>
+  <si>
+    <t>9.45%/92.31%</t>
+  </si>
+  <si>
+    <t>88.09%/100.0%</t>
+  </si>
+  <si>
+    <t>87.5%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.42%/97.28%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.96%/99.16%</t>
+  </si>
+  <si>
+    <t>0.08%/99.9%</t>
+  </si>
+  <si>
+    <t>2.13%/98.15%</t>
+  </si>
+  <si>
+    <t>0.05%/99.99%</t>
+  </si>
+  <si>
+    <t>6.02%/94.73%</t>
+  </si>
+  <si>
+    <t>14.45%/82.81%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29%/96.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.17%/92.794%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.28%/98.72%</t>
+  </si>
+  <si>
+    <t>6.2%/94.51%</t>
+  </si>
+  <si>
+    <t>2.29%/97.97%</t>
+  </si>
+  <si>
+    <t>0.64%/99.33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demographic Parity</t>
+  </si>
+  <si>
+    <t>Equality of Opportunity</t>
+  </si>
+  <si>
+    <t>Predictive Quality Parity</t>
+  </si>
+  <si>
+    <t>gpu memory cost(mb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu memory cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch-size 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,7 +1365,7 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,13 +1389,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,13 +1414,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1372,7 +1457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1409,19 +1494,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3650,351 +3780,907 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="18.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="16.5" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="24.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="16.5" style="18" customWidth="1"/>
+    <col min="11" max="13" width="9" style="26"/>
+    <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="J2" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="14">
+        <v>58.884711000000003</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.3471070000000001</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="J5" s="18">
+        <v>691</v>
+      </c>
+      <c r="K5" s="26">
+        <v>28.899357999999999</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="M5" s="26">
+        <v>1006</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.99604352126607298</v>
+      </c>
+      <c r="O5" s="14">
+        <v>6.0399999999999898E-2</v>
+      </c>
+      <c r="P5" s="14">
+        <v>6.0399999999999898E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="14">
+        <v>29.445074000000002</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.406595</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="J6" s="18">
+        <v>659</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.99505440158259095</v>
+      </c>
+      <c r="O6" s="14">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="P6" s="14">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="14">
+        <v>14.812604</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="K7" s="26">
+        <v>22.466858999999999</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="M7" s="26">
+        <v>901</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.98822374877330699</v>
+      </c>
+      <c r="O7" s="14">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6.3899999999999901E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D8" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="F10" s="14">
+        <v>2.7132200000000002</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.2272130000000001</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="J10" s="18">
+        <v>611</v>
+      </c>
+      <c r="K10" s="26">
+        <v>18.120750999999998</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="M10" s="26">
+        <v>932</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.99197592778334998</v>
+      </c>
+      <c r="O10" s="14">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.383823</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.2527509999999999</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J11" s="18">
+        <v>563</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.99198396793587096</v>
+      </c>
+      <c r="O11" s="14">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="P11" s="14">
+        <v>6.0699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.743919</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="K12" s="26">
+        <v>10.534646</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.48</v>
+      </c>
+      <c r="M12" s="26">
+        <v>861</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.98306772908366502</v>
+      </c>
+      <c r="O12" s="14">
+        <v>6.1799999999999897E-2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="14">
+        <v>19.615027000000001</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1.1881010000000001</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="J15" s="18">
+        <v>637</v>
+      </c>
+      <c r="K15" s="26">
+        <v>7.9349769999999999</v>
+      </c>
+      <c r="L15" s="27">
+        <v>0.48</v>
+      </c>
+      <c r="M15" s="26">
+        <v>962</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.84255319148936103</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.2437</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="14">
+        <v>9.8313279999999992</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.3956770000000001</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="J16" s="18">
+        <v>595</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.84148936170212696</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.2442</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.2442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="14">
+        <v>5.1920979999999997</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.876</v>
+      </c>
+      <c r="K17" s="26">
+        <v>3.0385309999999999</v>
+      </c>
+      <c r="L17" s="27">
+        <v>0.48</v>
+      </c>
+      <c r="M17" s="26">
+        <v>910</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0.88114387846291298</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.50590000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14">
+        <v>102.494209</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H21" s="18">
+        <v>20.427714999999999</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2325</v>
+      </c>
+      <c r="K21" s="28">
+        <v>8.326805555555556E-3</v>
+      </c>
+      <c r="L21" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M21" s="26">
+        <v>6000</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0.106796116504854</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.496928571428571</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.69839947600559005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14">
+        <v>51.282266999999997</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="H22" s="18">
+        <v>17.972199</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1381</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0.106796116504854</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.497</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0.69849514700126103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="D23" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="14">
+        <v>26.108084000000002</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="K23" s="28">
+        <v>3.4860995370370371E-3</v>
+      </c>
+      <c r="L23" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="M23" s="26">
+        <v>5000</v>
+      </c>
+      <c r="N23" s="14">
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.69304537922517795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F25" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14">
+        <v>14.211776</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="H26" s="18">
+        <v>17.054065999999999</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2431</v>
+      </c>
+      <c r="K26" s="28">
+        <v>3.3737384259259259E-3</v>
+      </c>
+      <c r="L26" s="27">
+        <v>0.34</v>
+      </c>
+      <c r="M26" s="26">
+        <v>5700</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0.18333333333333299</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0.47114285714285697</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0.66118256265148601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="14">
+        <v>7.1423300000000003</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="H27" s="18">
+        <v>17.033526999999999</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1585</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0.17741935483870899</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.47128571428571397</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0.66097155894930604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14">
+        <v>3.8864350000000001</v>
+      </c>
+      <c r="G28" s="14">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="K28" s="28">
+        <v>7.9042824074074074E-4</v>
+      </c>
+      <c r="L28" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="M28" s="26">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="F30" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C31" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14">
+        <v>275.42082799999997</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="H31" s="18">
+        <v>33.951880000000003</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2505</v>
+      </c>
+      <c r="K31" s="28">
+        <v>1.4477291666666668E-2</v>
+      </c>
+      <c r="L31" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="M31" s="26">
+        <v>6900</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0.141304347826086</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0.50292857142857095</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0.70409000590053195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="14">
+        <v>137.96109300000001</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="H32" s="18">
+        <v>30.493341999999998</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1571</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.141304347826086</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.50335714285714195</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0.70465111701164296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="14">
+        <v>69.570575000000005</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="K33" s="28">
+        <v>7.6827083333333331E-3</v>
+      </c>
+      <c r="L33" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="M33" s="26">
+        <v>5500</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0.13043478260869501</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.50235714285714195</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0.70350483782213602</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80764\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631B71-4833-45E9-9B98-48F5DF3AEB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8332DB-17FC-44FC-B673-90CE266DB3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1035" windowWidth="22320" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="360">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,10 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>black box attack——square attack https://arxiv.org/abs/1912.00049</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,6 +1350,10 @@
   </si>
   <si>
     <t>batch-size 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,11 +1361,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,15 +1395,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,20 +1409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1450,6 +1433,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1457,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1500,22 +1520,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,32 +1538,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3780,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3795,892 +3842,1042 @@
     <col min="5" max="5" width="18.375" style="14" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9" style="18"/>
-    <col min="10" max="10" width="16.5" style="18" customWidth="1"/>
-    <col min="11" max="13" width="9" style="26"/>
-    <col min="14" max="16384" width="9" style="14"/>
+    <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="9" style="40"/>
+    <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
+    <col min="12" max="15" width="9" style="16"/>
+    <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>351</v>
+      <c r="H1" s="30" t="s">
+        <v>350</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="29" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="42"/>
+      <c r="O2" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" ht="57" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="H3" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="57" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L3" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="E5" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="24">
         <v>58.884711000000003</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="27">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="39">
         <v>0.81</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="40">
+        <f>H5*I5*250</f>
+        <v>272.78916750000002</v>
+      </c>
+      <c r="K5" s="16">
         <v>691</v>
       </c>
-      <c r="K5" s="26">
+      <c r="L5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="L5" s="27">
+      <c r="M5" s="40">
         <v>0.49</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="28"/>
+      <c r="O5" s="16">
         <v>1006</v>
       </c>
-      <c r="N5" s="14">
+      <c r="P5" s="23">
         <v>0.99604352126607298</v>
       </c>
-      <c r="O5" s="14">
+      <c r="Q5" s="23">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="R5" s="23">
         <v>6.0399999999999898E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="24">
         <v>29.445074000000002</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="27">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="40">
         <v>0.79</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="40">
+        <f t="shared" ref="J6:J33" si="0">H6*I6*250</f>
+        <v>277.80251250000003</v>
+      </c>
+      <c r="K6" s="16">
         <v>659</v>
       </c>
-      <c r="N6" s="14">
+      <c r="M6" s="40"/>
+      <c r="P6" s="23">
         <v>0.99505440158259095</v>
       </c>
-      <c r="O6" s="14">
+      <c r="Q6" s="23">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="P6" s="14">
+      <c r="R6" s="23">
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="F7" s="24">
         <v>14.812604</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>0.88090000000000002</v>
       </c>
-      <c r="K7" s="26">
+      <c r="H7" s="27"/>
+      <c r="I7" s="40"/>
+      <c r="L7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="L7" s="27">
+      <c r="M7" s="40">
         <v>0.49</v>
       </c>
-      <c r="M7" s="26">
+      <c r="N7" s="28"/>
+      <c r="O7" s="16">
         <v>901</v>
       </c>
-      <c r="N7" s="14">
+      <c r="P7" s="23">
         <v>0.98822374877330699</v>
       </c>
-      <c r="O7" s="14">
+      <c r="Q7" s="23">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="P7" s="14">
+      <c r="R7" s="23">
         <v>6.3899999999999901E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D8" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="24">
         <v>2.7132200000000002</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="27">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="40">
         <v>0.65</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="40">
+        <f t="shared" si="0"/>
+        <v>199.42211250000003</v>
+      </c>
+      <c r="K10" s="16">
         <v>611</v>
       </c>
-      <c r="K10" s="26">
+      <c r="L10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="L10" s="27">
+      <c r="M10" s="40">
         <v>0.49</v>
       </c>
-      <c r="M10" s="26">
+      <c r="N10" s="28"/>
+      <c r="O10" s="16">
         <v>932</v>
       </c>
-      <c r="N10" s="14">
+      <c r="P10" s="23">
         <v>0.99197592778334998</v>
       </c>
-      <c r="O10" s="14">
+      <c r="Q10" s="23">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="P10" s="14">
+      <c r="R10" s="23">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="F11" s="24">
         <v>1.383823</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="27">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="40">
+        <f t="shared" si="0"/>
+        <v>181.64889499999998</v>
+      </c>
+      <c r="K11" s="16">
         <v>563</v>
       </c>
-      <c r="N11" s="14">
+      <c r="M11" s="40"/>
+      <c r="P11" s="23">
         <v>0.99198396793587096</v>
       </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="23">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="P11" s="14">
+      <c r="R11" s="23">
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="14">
+      <c r="E12" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="24">
         <v>0.743919</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>0.875</v>
       </c>
-      <c r="K12" s="26">
+      <c r="H12" s="27"/>
+      <c r="I12" s="40"/>
+      <c r="L12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="L12" s="27">
+      <c r="M12" s="40">
         <v>0.48</v>
       </c>
-      <c r="M12" s="26">
+      <c r="N12" s="28"/>
+      <c r="O12" s="16">
         <v>861</v>
       </c>
-      <c r="N12" s="14">
+      <c r="P12" s="23">
         <v>0.98306772908366502</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="23">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="P12" s="14">
+      <c r="R12" s="23">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="24"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="24">
         <v>19.615027000000001</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="27">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="40">
         <v>0.52</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="40">
+        <f t="shared" si="0"/>
+        <v>154.45313000000002</v>
+      </c>
+      <c r="K15" s="16">
         <v>637</v>
       </c>
-      <c r="K15" s="26">
+      <c r="L15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="L15" s="27">
+      <c r="M15" s="40">
         <v>0.48</v>
       </c>
-      <c r="M15" s="26">
+      <c r="N15" s="28"/>
+      <c r="O15" s="16">
         <v>962</v>
       </c>
-      <c r="N15" s="14">
+      <c r="P15" s="23">
         <v>0.84255319148936103</v>
       </c>
-      <c r="O15" s="14">
+      <c r="Q15" s="23">
         <v>0.2437</v>
       </c>
-      <c r="P15" s="14">
+      <c r="R15" s="23">
         <v>0.2437</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="24">
         <v>9.8313279999999992</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="27">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="40">
         <v>0.52</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="40">
+        <f t="shared" si="0"/>
+        <v>181.43801000000002</v>
+      </c>
+      <c r="K16" s="16">
         <v>595</v>
       </c>
-      <c r="N16" s="14">
+      <c r="M16" s="40"/>
+      <c r="P16" s="23">
         <v>0.84148936170212696</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="23">
         <v>0.2442</v>
       </c>
-      <c r="P16" s="14">
+      <c r="R16" s="23">
         <v>0.2442</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="D17" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="24">
         <v>5.1920979999999997</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>0.876</v>
       </c>
-      <c r="K17" s="26">
+      <c r="H17" s="27"/>
+      <c r="I17" s="40"/>
+      <c r="L17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="L17" s="27">
+      <c r="M17" s="40">
         <v>0.48</v>
       </c>
-      <c r="M17" s="26">
+      <c r="N17" s="28"/>
+      <c r="O17" s="16">
         <v>910</v>
       </c>
-      <c r="N17" s="14">
+      <c r="P17" s="23">
         <v>0.88114387846291298</v>
       </c>
-      <c r="O17" s="14">
+      <c r="Q17" s="23">
         <v>0.50590000000000002</v>
       </c>
-      <c r="P17" s="14">
+      <c r="R17" s="23">
         <v>0.50590000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F18" s="24"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F19" s="24"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="14">
+      <c r="E21" s="17"/>
+      <c r="F21" s="24">
         <v>102.494209</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="27">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="40">
         <v>1</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="40">
+        <f t="shared" si="0"/>
+        <v>5106.92875</v>
+      </c>
+      <c r="K21" s="16">
         <v>2325</v>
       </c>
-      <c r="K21" s="28">
+      <c r="L21" s="29">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="L21" s="27">
+      <c r="M21" s="40">
         <v>0.4</v>
       </c>
-      <c r="M21" s="26">
+      <c r="N21" s="28"/>
+      <c r="O21" s="16">
         <v>6000</v>
       </c>
-      <c r="N21" s="14">
+      <c r="P21" s="23">
         <v>0.106796116504854</v>
       </c>
-      <c r="O21" s="14">
+      <c r="Q21" s="23">
         <v>0.496928571428571</v>
       </c>
-      <c r="P21" s="14">
+      <c r="R21" s="23">
         <v>0.69839947600559005</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="14">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24">
         <v>51.282266999999997</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>0.77110000000000001</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="27">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="40">
         <v>0.91</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="40">
+        <f t="shared" si="0"/>
+        <v>4088.6752724999997</v>
+      </c>
+      <c r="K22" s="16">
         <v>1381</v>
       </c>
-      <c r="N22" s="14">
+      <c r="M22" s="40"/>
+      <c r="P22" s="23">
         <v>0.106796116504854</v>
       </c>
-      <c r="O22" s="14">
+      <c r="Q22" s="23">
         <v>0.497</v>
       </c>
-      <c r="P22" s="14">
+      <c r="R22" s="23">
         <v>0.69849514700126103</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="D23" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="14">
+      <c r="B23" s="16"/>
+      <c r="D23" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="24">
         <v>26.108084000000002</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>0.76770000000000005</v>
       </c>
-      <c r="K23" s="28">
+      <c r="H23" s="27"/>
+      <c r="I23" s="40"/>
+      <c r="L23" s="29">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="L23" s="27">
+      <c r="M23" s="40">
         <v>0.46</v>
       </c>
-      <c r="M23" s="26">
+      <c r="N23" s="28"/>
+      <c r="O23" s="16">
         <v>5000</v>
       </c>
-      <c r="N23" s="14">
+      <c r="P23" s="23">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="O23" s="14">
+      <c r="Q23" s="23">
         <v>0.49299999999999999</v>
       </c>
-      <c r="P23" s="14">
+      <c r="R23" s="23">
         <v>0.69304537922517795</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F24" s="24"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14">
+      <c r="E26" s="17"/>
+      <c r="F26" s="24">
         <v>14.211776</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>0.72270000000000001</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="27">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="40">
         <v>0.85</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="40">
+        <f t="shared" si="0"/>
+        <v>3623.9890249999999</v>
+      </c>
+      <c r="K26" s="16">
         <v>2431</v>
       </c>
-      <c r="K26" s="28">
+      <c r="L26" s="29">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="L26" s="27">
+      <c r="M26" s="40">
         <v>0.34</v>
       </c>
-      <c r="M26" s="26">
+      <c r="N26" s="28"/>
+      <c r="O26" s="16">
         <v>5700</v>
       </c>
-      <c r="N26" s="14">
+      <c r="P26" s="23">
         <v>0.18333333333333299</v>
       </c>
-      <c r="O26" s="14">
+      <c r="Q26" s="23">
         <v>0.47114285714285697</v>
       </c>
-      <c r="P26" s="14">
+      <c r="R26" s="23">
         <v>0.66118256265148601</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="14">
+      <c r="D27" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="24">
         <v>7.1423300000000003</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="27">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="40">
         <v>0.59</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="40">
+        <f t="shared" si="0"/>
+        <v>2512.4452324999997</v>
+      </c>
+      <c r="K27" s="16">
         <v>1585</v>
       </c>
-      <c r="N27" s="14">
+      <c r="M27" s="40"/>
+      <c r="P27" s="23">
         <v>0.17741935483870899</v>
       </c>
-      <c r="O27" s="14">
+      <c r="Q27" s="23">
         <v>0.47128571428571397</v>
       </c>
-      <c r="P27" s="14">
+      <c r="R27" s="23">
         <v>0.66097155894930604</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14">
+      <c r="B28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="24">
         <v>3.8864350000000001</v>
       </c>
       <c r="G28" s="14">
         <v>68.349999999999994</v>
       </c>
-      <c r="K28" s="28">
+      <c r="H28" s="27"/>
+      <c r="I28" s="40"/>
+      <c r="L28" s="29">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="L28" s="27">
+      <c r="M28" s="40">
         <v>0.49</v>
       </c>
-      <c r="M28" s="26">
+      <c r="N28" s="28"/>
+      <c r="O28" s="16">
         <v>4300</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F29" s="24"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="14">
+      <c r="E31" s="17"/>
+      <c r="F31" s="24">
         <v>275.42082799999997</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>0.78690000000000004</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="27">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="40">
         <v>1</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="40">
+        <f t="shared" si="0"/>
+        <v>8487.9700000000012</v>
+      </c>
+      <c r="K31" s="16">
         <v>2505</v>
       </c>
-      <c r="K31" s="28">
+      <c r="L31" s="29">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="L31" s="27">
+      <c r="M31" s="40">
         <v>0.42</v>
       </c>
-      <c r="M31" s="26">
+      <c r="N31" s="28"/>
+      <c r="O31" s="16">
         <v>6900</v>
       </c>
-      <c r="N31" s="14">
+      <c r="P31" s="23">
         <v>0.141304347826086</v>
       </c>
-      <c r="O31" s="14">
+      <c r="Q31" s="23">
         <v>0.50292857142857095</v>
       </c>
-      <c r="P31" s="14">
+      <c r="R31" s="23">
         <v>0.70409000590053195</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14">
+      <c r="E32" s="17"/>
+      <c r="F32" s="24">
         <v>137.96109300000001</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="27">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="40">
         <v>0.91</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="40">
+        <f t="shared" si="0"/>
+        <v>6937.2353050000002</v>
+      </c>
+      <c r="K32" s="16">
         <v>1571</v>
       </c>
-      <c r="N32" s="14">
+      <c r="M32" s="40"/>
+      <c r="P32" s="23">
         <v>0.141304347826086</v>
       </c>
-      <c r="O32" s="14">
+      <c r="Q32" s="23">
         <v>0.50335714285714195</v>
       </c>
-      <c r="P32" s="14">
+      <c r="R32" s="23">
         <v>0.70465111701164296</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="14">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="24">
         <v>69.570575000000005</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>0.78449999999999998</v>
       </c>
-      <c r="K33" s="28">
+      <c r="L33" s="29">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="L33" s="27">
+      <c r="M33" s="40">
         <v>0.46</v>
       </c>
-      <c r="M33" s="26">
+      <c r="N33" s="28"/>
+      <c r="O33" s="16">
         <v>5500</v>
       </c>
-      <c r="N33" s="14">
+      <c r="P33" s="23">
         <v>0.13043478260869501</v>
       </c>
-      <c r="O33" s="14">
+      <c r="Q33" s="23">
         <v>0.50235714285714195</v>
       </c>
-      <c r="P33" s="14">
+      <c r="R33" s="23">
         <v>0.70350483782213602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="K3:M3"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8332DB-17FC-44FC-B673-90CE266DB3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D2629-85EA-4A58-A96B-BCBBDFF599F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3930" yWindow="870" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="quantization-result" sheetId="6" r:id="rId2"/>
-    <sheet name="summary" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="back_up" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="summary" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="back_up" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$94</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="374">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1354,6 +1355,57 @@
   </si>
   <si>
     <t>energy cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGG16 cifar</t>
+  </si>
+  <si>
+    <t>Resnet-44 cifar</t>
+  </si>
+  <si>
+    <t>WideResNet cifar</t>
+  </si>
+  <si>
+    <t>MobileNet_v2 imagenet</t>
+  </si>
+  <si>
+    <t>WideResNet imagenet</t>
+  </si>
+  <si>
+    <t>Model&amp;Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression  Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cost(J)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Cost(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy(J)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memery(MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,8 +1416,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1477,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1538,10 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1556,11 +1605,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1580,27 +1653,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3829,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3844,44 +3897,46 @@
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
     <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="9" style="40"/>
+    <col min="10" max="10" width="9" style="29"/>
     <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
-    <col min="12" max="15" width="9" style="16"/>
+    <col min="12" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="9.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="16"/>
     <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -3896,24 +3951,24 @@
       <c r="E2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="25" t="s">
         <v>357</v>
       </c>
       <c r="P2" s="14" t="s">
@@ -3972,19 +4027,19 @@
       <c r="E5" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>58.884711000000003</v>
       </c>
       <c r="G5" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="28">
         <v>0.81</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="29">
         <f>H5*I5*250</f>
         <v>272.78916750000002</v>
       </c>
@@ -3994,20 +4049,23 @@
       <c r="L5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="29">
         <v>0.49</v>
       </c>
-      <c r="N5" s="28"/>
+      <c r="N5" s="29">
+        <f>L5*100</f>
+        <v>2889.9357999999997</v>
+      </c>
       <c r="O5" s="16">
         <v>1006</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="22">
         <v>0.99604352126607298</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="22">
         <v>6.0399999999999898E-2</v>
       </c>
     </row>
@@ -4027,33 +4085,33 @@
       <c r="E6" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>29.445074000000002</v>
       </c>
       <c r="G6" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="29">
         <v>0.79</v>
       </c>
-      <c r="J6" s="40">
-        <f t="shared" ref="J6:J33" si="0">H6*I6*250</f>
+      <c r="J6" s="29">
+        <f t="shared" ref="J6:J32" si="0">H6*I6*250</f>
         <v>277.80251250000003</v>
       </c>
       <c r="K6" s="16">
         <v>659</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="P6" s="23">
+      <c r="M6" s="29"/>
+      <c r="P6" s="22">
         <v>0.99505440158259095</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
@@ -4067,31 +4125,34 @@
       <c r="E7" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>14.812604</v>
       </c>
       <c r="G7" s="18">
         <v>0.88090000000000002</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="40"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29"/>
       <c r="L7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="29">
         <v>0.49</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="29">
+        <f t="shared" ref="N6:N17" si="1">L7*100</f>
+        <v>2246.6858999999999</v>
+      </c>
       <c r="O7" s="16">
         <v>901</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <v>0.98822374877330699</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>6.3899999999999901E-2</v>
       </c>
     </row>
@@ -4099,13 +4160,13 @@
       <c r="D8" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -4115,13 +4176,13 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -4139,19 +4200,19 @@
       <c r="E10" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>2.7132200000000002</v>
       </c>
       <c r="G10" s="18">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="29">
         <v>0.65</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="29">
         <f t="shared" si="0"/>
         <v>199.42211250000003</v>
       </c>
@@ -4161,20 +4222,23 @@
       <c r="L10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="29">
         <v>0.49</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="29">
+        <f t="shared" si="1"/>
+        <v>1812.0750999999998</v>
+      </c>
       <c r="O10" s="16">
         <v>932</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="22">
         <v>0.99197592778334998</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -4194,33 +4258,33 @@
       <c r="E11" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>1.383823</v>
       </c>
       <c r="G11" s="18">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="29">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="29">
         <f t="shared" si="0"/>
         <v>181.64889499999998</v>
       </c>
       <c r="K11" s="16">
         <v>563</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="P11" s="23">
+      <c r="M11" s="29"/>
+      <c r="P11" s="22">
         <v>0.99198396793587096</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
@@ -4234,54 +4298,57 @@
       <c r="E12" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>0.743919</v>
       </c>
       <c r="G12" s="18">
         <v>0.875</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="40"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="29"/>
       <c r="L12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="29">
         <v>0.48</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="29">
+        <f t="shared" si="1"/>
+        <v>1053.4646</v>
+      </c>
       <c r="O12" s="16">
         <v>861</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="22">
         <v>0.98306772908366502</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F13" s="24"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -4299,19 +4366,19 @@
       <c r="E15" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>19.615027000000001</v>
       </c>
       <c r="G15" s="18">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="29">
         <v>0.52</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="29">
         <f t="shared" si="0"/>
         <v>154.45313000000002</v>
       </c>
@@ -4321,20 +4388,23 @@
       <c r="L15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="29">
         <v>0.48</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="29">
+        <f t="shared" si="1"/>
+        <v>793.49770000000001</v>
+      </c>
       <c r="O15" s="16">
         <v>962</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="22">
         <v>0.84255319148936103</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="22">
         <v>0.2437</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>0.2437</v>
       </c>
     </row>
@@ -4354,33 +4424,33 @@
       <c r="E16" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>9.8313279999999992</v>
       </c>
       <c r="G16" s="18">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="29">
         <v>0.52</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="29">
         <f t="shared" si="0"/>
         <v>181.43801000000002</v>
       </c>
       <c r="K16" s="16">
         <v>595</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="P16" s="23">
+      <c r="M16" s="29"/>
+      <c r="P16" s="22">
         <v>0.84148936170212696</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="22">
         <v>0.2442</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="22">
         <v>0.2442</v>
       </c>
     </row>
@@ -4394,64 +4464,67 @@
       <c r="E17" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>5.1920979999999997</v>
       </c>
       <c r="G17" s="18">
         <v>0.876</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="40"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="29"/>
       <c r="L17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="29">
         <v>0.48</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="29">
+        <f t="shared" si="1"/>
+        <v>303.85309999999998</v>
+      </c>
       <c r="O17" s="16">
         <v>910</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="22">
         <v>0.88114387846291298</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="22">
         <v>0.50590000000000002</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <v>0.50590000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F18" s="24"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F19" s="24"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="F20" s="25"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -4467,42 +4540,44 @@
         <v>344</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>102.494209</v>
       </c>
       <c r="G21" s="18">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="29">
         <v>1</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="29">
         <f t="shared" si="0"/>
         <v>5106.92875</v>
       </c>
       <c r="K21" s="16">
         <v>2325</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="29">
         <v>0.4</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="29">
+        <v>28776</v>
+      </c>
       <c r="O21" s="16">
         <v>6000</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="22">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="22">
         <v>0.496928571428571</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <v>0.69839947600559005</v>
       </c>
     </row>
@@ -4514,33 +4589,33 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>51.282266999999997</v>
       </c>
       <c r="G22" s="18">
         <v>0.77110000000000001</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="29">
         <v>0.91</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="29">
         <f t="shared" si="0"/>
         <v>4088.6752724999997</v>
       </c>
       <c r="K22" s="16">
         <v>1381</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="P22" s="23">
+      <c r="M22" s="29"/>
+      <c r="P22" s="22">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="22">
         <v>0.497</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="22">
         <v>0.69849514700126103</v>
       </c>
     </row>
@@ -4553,54 +4628,56 @@
         <v>345</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>26.108084000000002</v>
       </c>
       <c r="G23" s="18">
         <v>0.76770000000000005</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="40"/>
-      <c r="L23" s="29">
+      <c r="H23" s="26"/>
+      <c r="I23" s="29"/>
+      <c r="L23" s="27">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="29">
         <v>0.46</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="29">
+        <v>13855.2</v>
+      </c>
       <c r="O23" s="16">
         <v>5000</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="22">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="22">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="22">
         <v>0.69304537922517795</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="24"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -4614,42 +4691,44 @@
         <v>339</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>14.211776</v>
       </c>
       <c r="G26" s="18">
         <v>0.72270000000000001</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="29">
         <v>0.85</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="29">
         <f t="shared" si="0"/>
         <v>3623.9890249999999</v>
       </c>
       <c r="K26" s="16">
         <v>2431</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="29">
         <v>0.34</v>
       </c>
-      <c r="N26" s="28"/>
+      <c r="N26" s="29">
+        <v>9911</v>
+      </c>
       <c r="O26" s="16">
         <v>5700</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="22">
         <v>0.18333333333333299</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="22">
         <v>0.47114285714285697</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="22">
         <v>0.66118256265148601</v>
       </c>
     </row>
@@ -4665,33 +4744,33 @@
         <v>348</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>7.1423300000000003</v>
       </c>
       <c r="G27" s="18">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="26">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="29">
         <v>0.59</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="29">
         <f t="shared" si="0"/>
         <v>2512.4452324999997</v>
       </c>
       <c r="K27" s="16">
         <v>1585</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="P27" s="23">
+      <c r="M27" s="29"/>
+      <c r="P27" s="22">
         <v>0.17741935483870899</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="22">
         <v>0.47128571428571397</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="22">
         <v>0.66097155894930604</v>
       </c>
     </row>
@@ -4702,48 +4781,50 @@
       <c r="B28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>3.8864350000000001</v>
       </c>
       <c r="G28" s="14">
         <v>68.349999999999994</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="40"/>
-      <c r="L28" s="29">
+      <c r="H28" s="26"/>
+      <c r="I28" s="29"/>
+      <c r="L28" s="27">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="29">
         <v>0.49</v>
       </c>
-      <c r="N28" s="28"/>
+      <c r="N28" s="29">
+        <v>3346.7</v>
+      </c>
       <c r="O28" s="16">
         <v>4300</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F29" s="24"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
@@ -4756,42 +4837,44 @@
         <v>341</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>275.42082799999997</v>
       </c>
       <c r="G31" s="18">
         <v>0.78690000000000004</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="29">
         <v>1</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="29">
         <f t="shared" si="0"/>
         <v>8487.9700000000012</v>
       </c>
       <c r="K31" s="16">
         <v>2505</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="27">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="29">
         <v>0.42</v>
       </c>
-      <c r="N31" s="28"/>
+      <c r="N31" s="29">
+        <v>52533</v>
+      </c>
       <c r="O31" s="16">
         <v>6900</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="22">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="22">
         <v>0.50292857142857095</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="22">
         <v>0.70409000590053195</v>
       </c>
     </row>
@@ -4807,33 +4890,33 @@
         <v>347</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>137.96109300000001</v>
       </c>
       <c r="G32" s="18">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="26">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="29">
         <v>0.91</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="29">
         <f t="shared" si="0"/>
         <v>6937.2353050000002</v>
       </c>
       <c r="K32" s="16">
         <v>1571</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="P32" s="23">
+      <c r="M32" s="29"/>
+      <c r="P32" s="22">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="22">
         <v>0.50335714285714195</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="22">
         <v>0.70465111701164296</v>
       </c>
     </row>
@@ -4843,41 +4926,43 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>69.570575000000005</v>
       </c>
       <c r="G33" s="18">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="27">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="29">
         <v>0.46</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="29">
+        <v>30534.799999999999</v>
+      </c>
       <c r="O33" s="16">
         <v>5500</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="22">
         <v>0.13043478260869501</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="22">
         <v>0.50235714285714195</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="22">
         <v>0.70350483782213602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4886,6 +4971,409 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26F139-4ED4-4DC4-8314-D4F979BF44BF}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1.3471070000000001</v>
+      </c>
+      <c r="D2">
+        <v>272.78916750000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="30">
+        <v>28.899357999999999</v>
+      </c>
+      <c r="I2" s="45">
+        <v>2889.9357999999997</v>
+      </c>
+      <c r="J2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1.406595</v>
+      </c>
+      <c r="D3">
+        <v>277.80251250000003</v>
+      </c>
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="30">
+        <v>22.466858999999999</v>
+      </c>
+      <c r="I3" s="45">
+        <v>2246.6858999999999</v>
+      </c>
+      <c r="J3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="30">
+        <v>18.120750999999998</v>
+      </c>
+      <c r="I4" s="45">
+        <v>1812.0750999999998</v>
+      </c>
+      <c r="J4">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1.2272130000000001</v>
+      </c>
+      <c r="D5">
+        <v>199.42211250000003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5">
+        <v>10.534646</v>
+      </c>
+      <c r="I5" s="45">
+        <v>1053.4646</v>
+      </c>
+      <c r="J5">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1.2527509999999999</v>
+      </c>
+      <c r="D6">
+        <v>181.64889499999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>7.9349769999999999</v>
+      </c>
+      <c r="I6" s="45">
+        <v>793.49770000000001</v>
+      </c>
+      <c r="J6">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="G7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7">
+        <v>3.0385309999999999</v>
+      </c>
+      <c r="I7" s="45">
+        <v>303.85309999999998</v>
+      </c>
+      <c r="J7">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1.1881010000000001</v>
+      </c>
+      <c r="D8">
+        <v>154.45313000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="32">
+        <v>8.326805555555556E-3</v>
+      </c>
+      <c r="I8" s="45">
+        <v>28776</v>
+      </c>
+      <c r="J8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1.3956770000000001</v>
+      </c>
+      <c r="D9">
+        <v>181.43801000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" s="32">
+        <v>3.4860995370370371E-3</v>
+      </c>
+      <c r="I9" s="45">
+        <v>13855.2</v>
+      </c>
+      <c r="J9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="F10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3.3737384259259259E-3</v>
+      </c>
+      <c r="I10" s="45">
+        <v>9911</v>
+      </c>
+      <c r="J10">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="30">
+        <v>20.427714999999999</v>
+      </c>
+      <c r="D11">
+        <v>5106.92875</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="32">
+        <v>7.9042824074074074E-4</v>
+      </c>
+      <c r="I11" s="45">
+        <v>3346.7</v>
+      </c>
+      <c r="J11">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="30">
+        <v>17.972199</v>
+      </c>
+      <c r="D12">
+        <v>4088.6752724999997</v>
+      </c>
+      <c r="F12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1.4477291666666668E-2</v>
+      </c>
+      <c r="I12" s="45">
+        <v>52533</v>
+      </c>
+      <c r="J12">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H13" s="32">
+        <v>7.6827083333333331E-3</v>
+      </c>
+      <c r="I13" s="45">
+        <v>30534.799999999999</v>
+      </c>
+      <c r="J13">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>17.054065999999999</v>
+      </c>
+      <c r="D14">
+        <v>3623.9890249999999</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15">
+        <v>17.033526999999999</v>
+      </c>
+      <c r="D15">
+        <v>2512.4452324999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>33.951880000000003</v>
+      </c>
+      <c r="D17">
+        <v>8487.9700000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18">
+        <v>30.493341999999998</v>
+      </c>
+      <c r="D18">
+        <v>6937.2353050000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9044291-897A-437E-A51C-04BEE5E6E971}">
   <dimension ref="A1:J91"/>
   <sheetViews>
@@ -7398,7 +7886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D4D41B-105B-4DAA-B61F-0A8D089385A4}">
   <dimension ref="A1:K96"/>
   <sheetViews>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D2629-85EA-4A58-A96B-BCBBDFF599F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4B070-C3AC-46D8-AC62-F720163EE428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3930" yWindow="870" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="379">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,12 +1280,6 @@
     <t>2.96%/99.16%</t>
   </si>
   <si>
-    <t>0.08%/99.9%</t>
-  </si>
-  <si>
-    <t>2.13%/98.15%</t>
-  </si>
-  <si>
     <t>0.05%/99.99%</t>
   </si>
   <si>
@@ -1304,23 +1298,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.17%/92.794%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.28%/98.72%</t>
   </si>
   <si>
     <t>6.2%/94.51%</t>
   </si>
   <si>
-    <t>2.29%/97.97%</t>
-  </si>
-  <si>
-    <t>0.64%/99.33%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on gpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,6 +1389,46 @@
   </si>
   <si>
     <t>Memery(MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.79%/81.05%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0%/100.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.56%/98.43%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.99%/81.25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.34%/97.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39%/99.60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.42%/81.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10%/96.28%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.68%/96.09%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.17%/92.79%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1617,6 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1653,7 +1677,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3882,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3906,37 +3929,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
+      <c r="H1" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -3954,31 +3977,31 @@
       <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="37"/>
+      <c r="I2" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="38"/>
       <c r="K2" s="25" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" s="37"/>
+      <c r="M2" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="N2" s="38"/>
       <c r="O2" s="25" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="57" x14ac:dyDescent="0.2">
@@ -3995,10 +4018,10 @@
         <v>301</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -4140,7 +4163,7 @@
         <v>0.49</v>
       </c>
       <c r="N7" s="29">
-        <f t="shared" ref="N6:N17" si="1">L7*100</f>
+        <f t="shared" ref="N7:N17" si="1">L7*100</f>
         <v>2246.6858999999999</v>
       </c>
       <c r="O7" s="16">
@@ -4531,13 +4554,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>342</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>344</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="23">
@@ -4585,9 +4608,15 @@
       <c r="A22" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>377</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="23">
         <v>51.282266999999997</v>
@@ -4625,7 +4654,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="D23" s="17" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="23">
@@ -4683,12 +4712,14 @@
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="C26" s="17" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="23">
@@ -4736,12 +4767,14 @@
       <c r="A27" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>372</v>
+      </c>
       <c r="C27" s="17" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="23">
@@ -4831,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="23">
@@ -4884,10 +4917,10 @@
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="23">
@@ -4992,36 +5025,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
         <v>365</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" t="s">
         <v>366</v>
       </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H1" t="s">
-        <v>371</v>
-      </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -5033,7 +5066,7 @@
         <v>272.78916750000002</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -5041,7 +5074,7 @@
       <c r="H2" s="30">
         <v>28.899357999999999</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="33">
         <v>2889.9357999999997</v>
       </c>
       <c r="J2">
@@ -5050,7 +5083,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C3" s="30">
         <v>1.406595</v>
@@ -5059,12 +5092,12 @@
         <v>277.80251250000003</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H3" s="30">
         <v>22.466858999999999</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="33">
         <v>2246.6858999999999</v>
       </c>
       <c r="J3">
@@ -5073,10 +5106,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
@@ -5084,7 +5117,7 @@
       <c r="H4" s="30">
         <v>18.120750999999998</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="33">
         <v>1812.0750999999998</v>
       </c>
       <c r="J4">
@@ -5093,7 +5126,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -5105,12 +5138,12 @@
         <v>199.42211250000003</v>
       </c>
       <c r="G5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H5">
         <v>10.534646</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="33">
         <v>1053.4646</v>
       </c>
       <c r="J5">
@@ -5119,7 +5152,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C6" s="30">
         <v>1.2527509999999999</v>
@@ -5128,7 +5161,7 @@
         <v>181.64889499999998</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -5136,7 +5169,7 @@
       <c r="H6">
         <v>7.9349769999999999</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>793.49770000000001</v>
       </c>
       <c r="J6">
@@ -5145,16 +5178,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C7" s="30"/>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H7">
         <v>3.0385309999999999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>303.85309999999998</v>
       </c>
       <c r="J7">
@@ -5163,7 +5196,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -5183,7 +5216,7 @@
       <c r="H8" s="32">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>28776</v>
       </c>
       <c r="J8">
@@ -5192,7 +5225,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C9" s="30">
         <v>1.3956770000000001</v>
@@ -5201,12 +5234,12 @@
         <v>181.43801000000002</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H9" s="32">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>13855.2</v>
       </c>
       <c r="J9">
@@ -5215,11 +5248,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C10" s="30"/>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -5227,7 +5260,7 @@
       <c r="H10" s="32">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="33">
         <v>9911</v>
       </c>
       <c r="J10">
@@ -5248,12 +5281,12 @@
         <v>5106.92875</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H11" s="32">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>3346.7</v>
       </c>
       <c r="J11">
@@ -5262,7 +5295,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C12" s="30">
         <v>17.972199</v>
@@ -5271,7 +5304,7 @@
         <v>4088.6752724999997</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -5279,7 +5312,7 @@
       <c r="H12" s="32">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>52533</v>
       </c>
       <c r="J12">
@@ -5288,15 +5321,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G13" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H13" s="32">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>30534.799999999999</v>
       </c>
       <c r="J13">
@@ -5305,7 +5338,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -5317,11 +5350,11 @@
         <v>3623.9890249999999</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C15">
         <v>17.033526999999999</v>
@@ -5332,12 +5365,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -5351,7 +5384,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C18">
         <v>30.493341999999998</v>
@@ -5362,7 +5395,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4B070-C3AC-46D8-AC62-F720163EE428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B845C-9CA6-4056-B02F-E27910F7AE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1605,12 +1605,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1676,6 +1670,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3905,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3920,46 +3923,46 @@
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
     <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="9" style="29"/>
+    <col min="10" max="10" width="9" style="27"/>
     <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
     <col min="12" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="9.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
     <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="34" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -3974,24 +3977,24 @@
       <c r="E2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="23" t="s">
         <v>352</v>
       </c>
       <c r="P2" s="14" t="s">
@@ -4038,31 +4041,31 @@
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>318</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>58.884711000000003</v>
       </c>
       <c r="G5" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>0.81</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f>H5*I5*250</f>
         <v>272.78916750000002</v>
       </c>
@@ -4072,23 +4075,23 @@
       <c r="L5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="27">
         <v>0.49</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <f>L5*100</f>
         <v>2889.9357999999997</v>
       </c>
       <c r="O5" s="16">
         <v>1006</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>0.99604352126607298</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>6.0399999999999898E-2</v>
       </c>
     </row>
@@ -4096,45 +4099,45 @@
       <c r="A6" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>326</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>29.445074000000002</v>
       </c>
       <c r="G6" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="27">
         <v>0.79</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="27">
         <f t="shared" ref="J6:J32" si="0">H6*I6*250</f>
         <v>277.80251250000003</v>
       </c>
       <c r="K6" s="16">
         <v>659</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="P6" s="22">
+      <c r="M6" s="27"/>
+      <c r="P6" s="20">
         <v>0.99505440158259095</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
@@ -4142,54 +4145,58 @@
       <c r="A7" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>333</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>14.812604</v>
       </c>
       <c r="G7" s="18">
         <v>0.88090000000000002</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
       <c r="L7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <v>0.49</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <f t="shared" ref="N7:N17" si="1">L7*100</f>
         <v>2246.6858999999999</v>
       </c>
       <c r="O7" s="16">
         <v>901</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="20">
         <v>0.98822374877330699</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <v>6.3899999999999901E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -4199,43 +4206,43 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="24"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="45" t="s">
         <v>314</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>2.7132200000000002</v>
       </c>
       <c r="G10" s="18">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="27">
         <v>0.65</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <f t="shared" si="0"/>
         <v>199.42211250000003</v>
       </c>
@@ -4245,23 +4252,23 @@
       <c r="L10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <v>0.49</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <f t="shared" si="1"/>
         <v>1812.0750999999998</v>
       </c>
       <c r="O10" s="16">
         <v>932</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="20">
         <v>0.99197592778334998</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="20">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -4269,45 +4276,45 @@
       <c r="A11" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>322</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>1.383823</v>
       </c>
       <c r="G11" s="18">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <f t="shared" si="0"/>
         <v>181.64889499999998</v>
       </c>
       <c r="K11" s="16">
         <v>563</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="P11" s="22">
+      <c r="M11" s="27"/>
+      <c r="P11" s="20">
         <v>0.99198396793587096</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
@@ -4315,93 +4322,101 @@
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>336</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>0.743919</v>
       </c>
       <c r="G12" s="18">
         <v>0.875</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="29"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
       <c r="L12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <v>0.48</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="27">
         <f t="shared" si="1"/>
         <v>1053.4646</v>
       </c>
       <c r="O12" s="16">
         <v>861</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="20">
         <v>0.98306772908366502</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F13" s="23"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>321</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>19.615027000000001</v>
       </c>
       <c r="G15" s="18">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="27">
         <v>0.52</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <f t="shared" si="0"/>
         <v>154.45313000000002</v>
       </c>
@@ -4411,23 +4426,23 @@
       <c r="L15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>0.48</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <f t="shared" si="1"/>
         <v>793.49770000000001</v>
       </c>
       <c r="O15" s="16">
         <v>962</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="20">
         <v>0.84255319148936103</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="20">
         <v>0.2437</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <v>0.2437</v>
       </c>
     </row>
@@ -4435,45 +4450,45 @@
       <c r="A16" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>332</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>9.8313279999999992</v>
       </c>
       <c r="G16" s="18">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="27">
         <v>0.52</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <f t="shared" si="0"/>
         <v>181.43801000000002</v>
       </c>
       <c r="K16" s="16">
         <v>595</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="P16" s="22">
+      <c r="M16" s="27"/>
+      <c r="P16" s="20">
         <v>0.84148936170212696</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="20">
         <v>0.2442</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="20">
         <v>0.2442</v>
       </c>
     </row>
@@ -4481,126 +4496,136 @@
       <c r="A17" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>337</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>5.1920979999999997</v>
       </c>
       <c r="G17" s="18">
         <v>0.876</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="29"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
       <c r="L17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <v>0.48</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <f t="shared" si="1"/>
         <v>303.85309999999998</v>
       </c>
       <c r="O17" s="16">
         <v>910</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="20">
         <v>0.88114387846291298</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="20">
         <v>0.50590000000000002</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="20">
         <v>0.50590000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F18" s="23"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F19" s="23"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="F19" s="21"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="F20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>342</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>102.494209</v>
       </c>
       <c r="G21" s="18">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="27">
         <v>1</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
         <v>5106.92875</v>
       </c>
       <c r="K21" s="16">
         <v>2325</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="25">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>0.4</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="27">
         <v>28776</v>
       </c>
       <c r="O21" s="16">
         <v>6000</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="20">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="20">
         <v>0.496928571428571</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <v>0.69839947600559005</v>
       </c>
     </row>
@@ -4608,43 +4633,43 @@
       <c r="A22" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>51.282266999999997</v>
       </c>
       <c r="G22" s="18">
         <v>0.77110000000000001</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="24">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>0.91</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="27">
         <f t="shared" si="0"/>
         <v>4088.6752724999997</v>
       </c>
       <c r="K22" s="16">
         <v>1381</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="P22" s="22">
+      <c r="M22" s="27"/>
+      <c r="P22" s="20">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>0.497</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <v>0.69849514700126103</v>
       </c>
     </row>
@@ -4653,113 +4678,114 @@
         <v>298</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>26.108084000000002</v>
       </c>
       <c r="G23" s="18">
         <v>0.76770000000000005</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="29"/>
-      <c r="L23" s="27">
+      <c r="H23" s="24"/>
+      <c r="I23" s="27"/>
+      <c r="L23" s="25">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>0.46</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="27">
         <v>13855.2</v>
       </c>
       <c r="O23" s="16">
         <v>5000</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="20">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <v>0.69304537922517795</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="23"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>371</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>14.211776</v>
       </c>
       <c r="G26" s="18">
         <v>0.72270000000000001</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="27">
         <v>0.85</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="27">
         <f t="shared" si="0"/>
         <v>3623.9890249999999</v>
       </c>
       <c r="K26" s="16">
         <v>2431</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="25">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <v>0.34</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="27">
         <v>9911</v>
       </c>
       <c r="O26" s="16">
         <v>5700</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="20">
         <v>0.18333333333333299</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="20">
         <v>0.47114285714285697</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <v>0.66118256265148601</v>
       </c>
     </row>
@@ -4767,43 +4793,43 @@
       <c r="A27" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>373</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="23">
+      <c r="F27" s="21">
         <v>7.1423300000000003</v>
       </c>
       <c r="G27" s="18">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="27">
         <v>0.59</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="27">
         <f t="shared" si="0"/>
         <v>2512.4452324999997</v>
       </c>
       <c r="K27" s="16">
         <v>1585</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="P27" s="22">
+      <c r="M27" s="27"/>
+      <c r="P27" s="20">
         <v>0.17741935483870899</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="20">
         <v>0.47128571428571397</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
         <v>0.66097155894930604</v>
       </c>
     </row>
@@ -4814,100 +4840,107 @@
       <c r="B28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="23">
+      <c r="F28" s="21">
         <v>3.8864350000000001</v>
       </c>
       <c r="G28" s="14">
         <v>68.349999999999994</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="29"/>
-      <c r="L28" s="27">
+      <c r="H28" s="24"/>
+      <c r="I28" s="27"/>
+      <c r="L28" s="25">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <v>0.49</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="27">
         <v>3346.7</v>
       </c>
       <c r="O28" s="16">
         <v>4300</v>
       </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="P28" s="20">
+        <v>0.16828691087651401</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>0.47129768786586501</v>
+      </c>
+      <c r="R28" s="20">
+        <v>0.66037865879061197</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F29" s="23"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>339</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="23">
+      <c r="F31" s="21">
         <v>275.42082799999997</v>
       </c>
       <c r="G31" s="18">
         <v>0.78690000000000004</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="24">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="27">
         <v>1</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="27">
         <f t="shared" si="0"/>
         <v>8487.9700000000012</v>
       </c>
       <c r="K31" s="16">
         <v>2505</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="25">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <v>0.42</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="27">
         <v>52533</v>
       </c>
       <c r="O31" s="16">
         <v>6900</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="20">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="20">
         <v>0.50292857142857095</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="20">
         <v>0.70409000590053195</v>
       </c>
     </row>
@@ -4916,40 +4949,40 @@
         <v>297</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>344</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="23">
+      <c r="F32" s="21">
         <v>137.96109300000001</v>
       </c>
       <c r="G32" s="18">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="24">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="27">
         <v>0.91</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="27">
         <f t="shared" si="0"/>
         <v>6937.2353050000002</v>
       </c>
       <c r="K32" s="16">
         <v>1571</v>
       </c>
-      <c r="M32" s="29"/>
-      <c r="P32" s="22">
+      <c r="M32" s="27"/>
+      <c r="P32" s="20">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>0.50335714285714195</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="20">
         <v>0.70465111701164296</v>
       </c>
     </row>
@@ -4959,31 +4992,31 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="23">
+      <c r="F33" s="21">
         <v>69.570575000000005</v>
       </c>
       <c r="G33" s="18">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="25">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="27">
         <v>0.46</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="27">
         <v>30534.799999999999</v>
       </c>
       <c r="O33" s="16">
         <v>5500</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="20">
         <v>0.13043478260869501</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="20">
         <v>0.50235714285714195</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="20">
         <v>0.70350483782213602</v>
       </c>
     </row>
@@ -5059,7 +5092,7 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <v>1.3471070000000001</v>
       </c>
       <c r="D2">
@@ -5071,10 +5104,10 @@
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="28">
         <v>28.899357999999999</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="31">
         <v>2889.9357999999997</v>
       </c>
       <c r="J2">
@@ -5085,7 +5118,7 @@
       <c r="B3" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>1.406595</v>
       </c>
       <c r="D3">
@@ -5094,10 +5127,10 @@
       <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>22.466858999999999</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <v>2246.6858999999999</v>
       </c>
       <c r="J3">
@@ -5114,10 +5147,10 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>18.120750999999998</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <v>1812.0750999999998</v>
       </c>
       <c r="J4">
@@ -5131,7 +5164,7 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>1.2272130000000001</v>
       </c>
       <c r="D5">
@@ -5143,7 +5176,7 @@
       <c r="H5">
         <v>10.534646</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <v>1053.4646</v>
       </c>
       <c r="J5">
@@ -5154,7 +5187,7 @@
       <c r="B6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <v>1.2527509999999999</v>
       </c>
       <c r="D6">
@@ -5169,7 +5202,7 @@
       <c r="H6">
         <v>7.9349769999999999</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>793.49770000000001</v>
       </c>
       <c r="J6">
@@ -5180,14 +5213,14 @@
       <c r="B7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="28"/>
       <c r="G7" t="s">
         <v>363</v>
       </c>
       <c r="H7">
         <v>3.0385309999999999</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>303.85309999999998</v>
       </c>
       <c r="J7">
@@ -5201,7 +5234,7 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>1.1881010000000001</v>
       </c>
       <c r="D8">
@@ -5213,10 +5246,10 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="30">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>28776</v>
       </c>
       <c r="J8">
@@ -5227,7 +5260,7 @@
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>1.3956770000000001</v>
       </c>
       <c r="D9">
@@ -5236,10 +5269,10 @@
       <c r="G9" t="s">
         <v>363</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="30">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>13855.2</v>
       </c>
       <c r="J9">
@@ -5250,17 +5283,17 @@
       <c r="B10" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="28"/>
       <c r="F10" t="s">
         <v>358</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>9911</v>
       </c>
       <c r="J10">
@@ -5274,7 +5307,7 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="28">
         <v>20.427714999999999</v>
       </c>
       <c r="D11">
@@ -5283,10 +5316,10 @@
       <c r="G11" t="s">
         <v>363</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="30">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>3346.7</v>
       </c>
       <c r="J11">
@@ -5297,7 +5330,7 @@
       <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>17.972199</v>
       </c>
       <c r="D12">
@@ -5309,10 +5342,10 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>52533</v>
       </c>
       <c r="J12">
@@ -5326,10 +5359,10 @@
       <c r="G13" t="s">
         <v>363</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="30">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>30534.799999999999</v>
       </c>
       <c r="J13">
@@ -5349,8 +5382,8 @@
       <c r="D14">
         <v>3623.9890249999999</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="29"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B845C-9CA6-4056-B02F-E27910F7AE1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780334DC-1488-475B-B180-96C180CC97C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="382">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,6 +1429,18 @@
   </si>
   <si>
     <t>7.17%/92.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.27%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.22%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.95%/98.44%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1604,9 +1616,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1635,6 +1644,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1670,15 +1688,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3908,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3923,46 +3932,46 @@
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
     <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="9" style="27"/>
+    <col min="10" max="10" width="9" style="26"/>
     <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
     <col min="12" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="9.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
     <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="32" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -3977,24 +3986,24 @@
       <c r="E2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="22" t="s">
         <v>352</v>
       </c>
       <c r="P2" s="14" t="s">
@@ -4050,22 +4059,22 @@
       <c r="D5" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>58.884711000000003</v>
       </c>
       <c r="G5" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>0.81</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>H5*I5*250</f>
         <v>272.78916750000002</v>
       </c>
@@ -4075,23 +4084,23 @@
       <c r="L5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="26">
         <v>0.49</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="26">
         <f>L5*100</f>
         <v>2889.9357999999997</v>
       </c>
       <c r="O5" s="16">
         <v>1006</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <v>0.99604352126607298</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="19">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <v>6.0399999999999898E-2</v>
       </c>
     </row>
@@ -4099,45 +4108,45 @@
       <c r="A6" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>327</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>29.445074000000002</v>
       </c>
       <c r="G6" s="18">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>0.79</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f t="shared" ref="J6:J32" si="0">H6*I6*250</f>
         <v>277.80251250000003</v>
       </c>
       <c r="K6" s="16">
         <v>659</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="P6" s="20">
+      <c r="M6" s="26"/>
+      <c r="P6" s="19">
         <v>0.99505440158259095</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
@@ -4150,37 +4159,37 @@
       <c r="D7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>14.812604</v>
       </c>
       <c r="G7" s="18">
         <v>0.88090000000000002</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="26"/>
       <c r="L7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <v>0.49</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <f t="shared" ref="N7:N17" si="1">L7*100</f>
         <v>2246.6858999999999</v>
       </c>
       <c r="O7" s="16">
         <v>901</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>0.98822374877330699</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>6.3899999999999901E-2</v>
       </c>
     </row>
@@ -4190,13 +4199,14 @@
       <c r="D8" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -4206,43 +4216,43 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>2.7132200000000002</v>
       </c>
       <c r="G10" s="18">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>0.65</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f t="shared" si="0"/>
         <v>199.42211250000003</v>
       </c>
@@ -4252,23 +4262,23 @@
       <c r="L10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <v>0.49</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <f t="shared" si="1"/>
         <v>1812.0750999999998</v>
       </c>
       <c r="O10" s="16">
         <v>932</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>0.99197592778334998</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -4285,36 +4295,36 @@
       <c r="D11" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1.383823</v>
       </c>
       <c r="G11" s="18">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <f t="shared" si="0"/>
         <v>181.64889499999998</v>
       </c>
       <c r="K11" s="16">
         <v>563</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="P11" s="20">
+      <c r="M11" s="26"/>
+      <c r="P11" s="19">
         <v>0.99198396793587096</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
@@ -4327,37 +4337,37 @@
       <c r="D12" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>0.743919</v>
       </c>
       <c r="G12" s="18">
         <v>0.875</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="26"/>
       <c r="L12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="26">
         <v>0.48</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="26">
         <f t="shared" si="1"/>
         <v>1053.4646</v>
       </c>
       <c r="O12" s="16">
         <v>861</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="19">
         <v>0.98306772908366502</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
@@ -4365,13 +4375,14 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="F13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -4380,13 +4391,14 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -4395,28 +4407,28 @@
       <c r="B15" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="33" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>19.615027000000001</v>
       </c>
       <c r="G15" s="18">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>0.52</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="0"/>
         <v>154.45313000000002</v>
       </c>
@@ -4426,23 +4438,23 @@
       <c r="L15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="26">
         <v>0.48</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <f t="shared" si="1"/>
         <v>793.49770000000001</v>
       </c>
       <c r="O15" s="16">
         <v>962</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>0.84255319148936103</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <v>0.2437</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <v>0.2437</v>
       </c>
     </row>
@@ -4459,36 +4471,36 @@
       <c r="D16" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>9.8313279999999992</v>
       </c>
       <c r="G16" s="18">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>0.52</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <f t="shared" si="0"/>
         <v>181.43801000000002</v>
       </c>
       <c r="K16" s="16">
         <v>595</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="P16" s="20">
+      <c r="M16" s="26"/>
+      <c r="P16" s="19">
         <v>0.84148936170212696</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <v>0.2442</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <v>0.2442</v>
       </c>
     </row>
@@ -4501,37 +4513,37 @@
       <c r="D17" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>5.1920979999999997</v>
       </c>
       <c r="G17" s="18">
         <v>0.876</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="26"/>
       <c r="L17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <v>0.48</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="26">
         <f t="shared" si="1"/>
         <v>303.85309999999998</v>
       </c>
       <c r="O17" s="16">
         <v>910</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="19">
         <v>0.88114387846291298</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <v>0.50590000000000002</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>0.50590000000000002</v>
       </c>
     </row>
@@ -4539,40 +4551,40 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="F20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -4588,44 +4600,44 @@
         <v>342</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>102.494209</v>
       </c>
       <c r="G21" s="18">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>1</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <f t="shared" si="0"/>
         <v>5106.92875</v>
       </c>
       <c r="K21" s="16">
         <v>2325</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="24">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <v>0.4</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="26">
         <v>28776</v>
       </c>
       <c r="O21" s="16">
         <v>6000</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="19">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <v>0.496928571428571</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <v>0.69839947600559005</v>
       </c>
     </row>
@@ -4643,33 +4655,33 @@
         <v>377</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>51.282266999999997</v>
       </c>
       <c r="G22" s="18">
         <v>0.77110000000000001</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <v>0.91</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <f t="shared" si="0"/>
         <v>4088.6752724999997</v>
       </c>
       <c r="K22" s="16">
         <v>1381</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="P22" s="20">
+      <c r="M22" s="26"/>
+      <c r="P22" s="19">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="19">
         <v>0.497</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <v>0.69849514700126103</v>
       </c>
     </row>
@@ -4683,56 +4695,56 @@
         <v>378</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>26.108084000000002</v>
       </c>
       <c r="G23" s="18">
         <v>0.76770000000000005</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="27"/>
-      <c r="L23" s="25">
+      <c r="H23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="L23" s="24">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="26">
         <v>0.46</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="26">
         <v>13855.2</v>
       </c>
       <c r="O23" s="16">
         <v>5000</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="19">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="19">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="19">
         <v>0.69304537922517795</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="21"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -4747,45 +4759,47 @@
       <c r="D26" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="21">
+      <c r="E26" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="20">
         <v>14.211776</v>
       </c>
       <c r="G26" s="18">
         <v>0.72270000000000001</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>0.85</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <f t="shared" si="0"/>
         <v>3623.9890249999999</v>
       </c>
       <c r="K26" s="16">
         <v>2431</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="24">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="26">
         <v>0.34</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="26">
         <v>9911</v>
       </c>
       <c r="O26" s="16">
         <v>5700</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="19">
         <v>0.18333333333333299</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="19">
         <v>0.47114285714285697</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <v>0.66118256265148601</v>
       </c>
     </row>
@@ -4802,34 +4816,36 @@
       <c r="D27" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="21">
+      <c r="E27" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" s="20">
         <v>7.1423300000000003</v>
       </c>
       <c r="G27" s="18">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>0.59</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <f t="shared" si="0"/>
         <v>2512.4452324999997</v>
       </c>
       <c r="K27" s="16">
         <v>1585</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="P27" s="20">
+      <c r="M27" s="26"/>
+      <c r="P27" s="19">
         <v>0.17741935483870899</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="19">
         <v>0.47128571428571397</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <v>0.66097155894930604</v>
       </c>
     </row>
@@ -4838,109 +4854,111 @@
         <v>298</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="16" t="s">
+        <v>381</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>3.8864350000000001</v>
       </c>
       <c r="G28" s="14">
         <v>68.349999999999994</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="27"/>
-      <c r="L28" s="25">
+      <c r="H28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="L28" s="24">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="26">
         <v>0.49</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="26">
         <v>3346.7</v>
       </c>
       <c r="O28" s="16">
         <v>4300</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="19">
         <v>0.16828691087651401</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="19">
         <v>0.47129768786586501</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="19">
         <v>0.66037865879061197</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F29" s="21"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>339</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>275.42082799999997</v>
       </c>
       <c r="G31" s="18">
         <v>0.78690000000000004</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>1</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="26">
         <f t="shared" si="0"/>
         <v>8487.9700000000012</v>
       </c>
       <c r="K31" s="16">
         <v>2505</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="24">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="26">
         <v>0.42</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <v>52533</v>
       </c>
       <c r="O31" s="16">
         <v>6900</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="19">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="19">
         <v>0.50292857142857095</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="19">
         <v>0.70409000590053195</v>
       </c>
     </row>
@@ -4949,40 +4967,40 @@
         <v>297</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>344</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>137.96109300000001</v>
       </c>
       <c r="G32" s="18">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <v>0.91</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="26">
         <f t="shared" si="0"/>
         <v>6937.2353050000002</v>
       </c>
       <c r="K32" s="16">
         <v>1571</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="P32" s="20">
+      <c r="M32" s="26"/>
+      <c r="P32" s="19">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="19">
         <v>0.50335714285714195</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="19">
         <v>0.70465111701164296</v>
       </c>
     </row>
@@ -4992,31 +5010,31 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>69.570575000000005</v>
       </c>
       <c r="G33" s="18">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="24">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="26">
         <v>0.46</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="26">
         <v>30534.799999999999</v>
       </c>
       <c r="O33" s="16">
         <v>5500</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="19">
         <v>0.13043478260869501</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="19">
         <v>0.50235714285714195</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="19">
         <v>0.70350483782213602</v>
       </c>
     </row>
@@ -5092,7 +5110,7 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>1.3471070000000001</v>
       </c>
       <c r="D2">
@@ -5104,10 +5122,10 @@
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>28.899357999999999</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <v>2889.9357999999997</v>
       </c>
       <c r="J2">
@@ -5118,7 +5136,7 @@
       <c r="B3" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>1.406595</v>
       </c>
       <c r="D3">
@@ -5127,10 +5145,10 @@
       <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>22.466858999999999</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>2246.6858999999999</v>
       </c>
       <c r="J3">
@@ -5147,10 +5165,10 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>18.120750999999998</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>1812.0750999999998</v>
       </c>
       <c r="J4">
@@ -5164,7 +5182,7 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>1.2272130000000001</v>
       </c>
       <c r="D5">
@@ -5176,7 +5194,7 @@
       <c r="H5">
         <v>10.534646</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>1053.4646</v>
       </c>
       <c r="J5">
@@ -5187,7 +5205,7 @@
       <c r="B6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>1.2527509999999999</v>
       </c>
       <c r="D6">
@@ -5202,7 +5220,7 @@
       <c r="H6">
         <v>7.9349769999999999</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>793.49770000000001</v>
       </c>
       <c r="J6">
@@ -5213,14 +5231,14 @@
       <c r="B7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="G7" t="s">
         <v>363</v>
       </c>
       <c r="H7">
         <v>3.0385309999999999</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <v>303.85309999999998</v>
       </c>
       <c r="J7">
@@ -5234,7 +5252,7 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>1.1881010000000001</v>
       </c>
       <c r="D8">
@@ -5246,10 +5264,10 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>28776</v>
       </c>
       <c r="J8">
@@ -5260,7 +5278,7 @@
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>1.3956770000000001</v>
       </c>
       <c r="D9">
@@ -5269,10 +5287,10 @@
       <c r="G9" t="s">
         <v>363</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>13855.2</v>
       </c>
       <c r="J9">
@@ -5283,17 +5301,17 @@
       <c r="B10" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="F10" t="s">
         <v>358</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <v>9911</v>
       </c>
       <c r="J10">
@@ -5307,7 +5325,7 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>20.427714999999999</v>
       </c>
       <c r="D11">
@@ -5316,10 +5334,10 @@
       <c r="G11" t="s">
         <v>363</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>3346.7</v>
       </c>
       <c r="J11">
@@ -5330,7 +5348,7 @@
       <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>17.972199</v>
       </c>
       <c r="D12">
@@ -5342,10 +5360,10 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <v>52533</v>
       </c>
       <c r="J12">
@@ -5359,10 +5377,10 @@
       <c r="G13" t="s">
         <v>363</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="29">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>30534.799999999999</v>
       </c>
       <c r="J13">
@@ -5382,8 +5400,8 @@
       <c r="D14">
         <v>3623.9890249999999</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="28"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780334DC-1488-475B-B180-96C180CC97C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5D35A-1053-461A-BED8-9F931E843E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="384">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1441,6 +1441,14 @@
   </si>
   <si>
     <t>1.95%/98.44%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.1%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.11%/100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1688,6 +1696,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3918,7 +3929,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4599,7 +4610,9 @@
       <c r="D21" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>382</v>
+      </c>
       <c r="F21" s="20">
         <v>102.494209</v>
       </c>
@@ -4654,7 +4667,9 @@
       <c r="D22" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="F22" s="20">
         <v>51.282266999999997</v>
       </c>
@@ -4694,7 +4709,7 @@
       <c r="D23" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="20">
         <v>26.108084000000002</v>
       </c>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5D35A-1053-461A-BED8-9F931E843E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB939C0-E3E6-456C-A407-9F0CCD18BB0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="735" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="385">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,6 +1449,10 @@
   </si>
   <si>
     <t>77.11%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.25%/99.90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1696,9 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3929,7 +3930,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4709,7 +4710,9 @@
       <c r="D23" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="32" t="s">
+        <v>384</v>
+      </c>
       <c r="F23" s="20">
         <v>26.108084000000002</v>
       </c>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB939C0-E3E6-456C-A407-9F0CCD18BB0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0A6DC-904B-4D76-B42F-D3CBB04E43A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="735" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="735" windowWidth="22920" windowHeight="14385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,14 +1369,6 @@
   </si>
   <si>
     <t>Int 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Cost(J)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Cost(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3929,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4612,7 +4604,7 @@
         <v>342</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F21" s="20">
         <v>102.494209</v>
@@ -4660,16 +4652,16 @@
         <v>297</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>377</v>
-      </c>
       <c r="E22" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F22" s="20">
         <v>51.282266999999997</v>
@@ -4708,10 +4700,10 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" s="20">
         <v>26.108084000000002</v>
@@ -4769,16 +4761,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>371</v>
-      </c>
       <c r="E26" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F26" s="20">
         <v>14.211776</v>
@@ -4826,16 +4818,16 @@
         <v>297</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>374</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F27" s="20">
         <v>7.1423300000000003</v>
@@ -4873,7 +4865,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="20">
@@ -5076,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26F139-4ED4-4DC4-8314-D4F979BF44BF}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5086,6 +5078,7 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -5100,10 +5093,13 @@
         <v>361</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>364</v>
+        <v>349</v>
+      </c>
+      <c r="E1" t="s">
+        <v>350</v>
       </c>
       <c r="F1" t="s">
         <v>360</v>
@@ -5112,13 +5108,13 @@
         <v>361</v>
       </c>
       <c r="H1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J1" t="s">
         <v>366</v>
-      </c>
-      <c r="I1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5128,11 +5124,14 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="27">
-        <v>1.3471070000000001</v>
+      <c r="C2">
+        <v>0.99604352126607298</v>
       </c>
       <c r="D2">
-        <v>272.78916750000002</v>
+        <v>6.0399999999999898E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.0399999999999898E-2</v>
       </c>
       <c r="F2" t="s">
         <v>355</v>
@@ -5155,10 +5154,13 @@
         <v>362</v>
       </c>
       <c r="C3" s="27">
-        <v>1.406595</v>
+        <v>0.99505440158259095</v>
       </c>
       <c r="D3">
-        <v>277.80251250000003</v>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="G3" t="s">
         <v>363</v>
@@ -5177,6 +5179,15 @@
       <c r="B4" t="s">
         <v>363</v>
       </c>
+      <c r="C4" s="27">
+        <v>0.98822374877330699</v>
+      </c>
+      <c r="D4">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.3899999999999901E-2</v>
+      </c>
       <c r="F4" t="s">
         <v>356</v>
       </c>
@@ -5201,10 +5212,13 @@
         <v>57</v>
       </c>
       <c r="C5" s="27">
-        <v>1.2272130000000001</v>
+        <v>0.99197592778334998</v>
       </c>
       <c r="D5">
-        <v>199.42211250000003</v>
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="G5" t="s">
         <v>363</v>
@@ -5224,10 +5238,13 @@
         <v>362</v>
       </c>
       <c r="C6" s="27">
-        <v>1.2527509999999999</v>
+        <v>0.99198396793587096</v>
       </c>
       <c r="D6">
-        <v>181.64889499999998</v>
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="F6" t="s">
         <v>357</v>
@@ -5249,7 +5266,15 @@
       <c r="B7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="27">
+        <v>0.98306772908366502</v>
+      </c>
+      <c r="D7">
+        <v>6.1799999999999897E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.1800000000000001E-2</v>
+      </c>
       <c r="G7" t="s">
         <v>363</v>
       </c>
@@ -5270,11 +5295,14 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="27">
-        <v>1.1881010000000001</v>
+      <c r="C8">
+        <v>0.84255319148936103</v>
       </c>
       <c r="D8">
-        <v>154.45313000000002</v>
+        <v>0.2437</v>
+      </c>
+      <c r="E8">
+        <v>0.2437</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -5296,11 +5324,14 @@
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="27">
-        <v>1.3956770000000001</v>
+      <c r="C9">
+        <v>0.84148936170212696</v>
       </c>
       <c r="D9">
-        <v>181.43801000000002</v>
+        <v>0.2442</v>
+      </c>
+      <c r="E9">
+        <v>0.2442</v>
       </c>
       <c r="G9" t="s">
         <v>363</v>
@@ -5319,7 +5350,15 @@
       <c r="B10" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10">
+        <v>0.88114387846291298</v>
+      </c>
+      <c r="D10">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.50590000000000002</v>
+      </c>
       <c r="F10" t="s">
         <v>358</v>
       </c>
@@ -5343,11 +5382,14 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="27">
-        <v>20.427714999999999</v>
+      <c r="C11">
+        <v>0.106796116504854</v>
       </c>
       <c r="D11">
-        <v>5106.92875</v>
+        <v>0.496928571428571</v>
+      </c>
+      <c r="E11">
+        <v>0.69839947600559005</v>
       </c>
       <c r="G11" t="s">
         <v>363</v>
@@ -5366,11 +5408,14 @@
       <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="27">
-        <v>17.972199</v>
+      <c r="C12">
+        <v>0.106796116504854</v>
       </c>
       <c r="D12">
-        <v>4088.6752724999997</v>
+        <v>0.497</v>
+      </c>
+      <c r="E12">
+        <v>0.69849514700126103</v>
       </c>
       <c r="F12" t="s">
         <v>359</v>
@@ -5392,6 +5437,15 @@
       <c r="B13" t="s">
         <v>363</v>
       </c>
+      <c r="C13">
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.69304537922517795</v>
+      </c>
       <c r="G13" t="s">
         <v>363</v>
       </c>
@@ -5413,10 +5467,13 @@
         <v>57</v>
       </c>
       <c r="C14">
-        <v>17.054065999999999</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="D14">
-        <v>3623.9890249999999</v>
+        <v>0.47114285714285697</v>
+      </c>
+      <c r="E14">
+        <v>0.66118256265148601</v>
       </c>
       <c r="G14" s="28"/>
       <c r="I14" s="30"/>
@@ -5426,18 +5483,30 @@
         <v>362</v>
       </c>
       <c r="C15">
-        <v>17.033526999999999</v>
+        <v>0.17741935483870899</v>
       </c>
       <c r="D15">
-        <v>2512.4452324999997</v>
+        <v>0.47128571428571397</v>
+      </c>
+      <c r="E15">
+        <v>0.66097155894930604</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0.16828691087651401</v>
+      </c>
+      <c r="D16">
+        <v>0.47129768786586501</v>
+      </c>
+      <c r="E16">
+        <v>0.66037865879061197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>359</v>
       </c>
@@ -5445,29 +5514,44 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>33.951880000000003</v>
+        <v>0.141304347826086</v>
       </c>
       <c r="D17">
-        <v>8487.9700000000012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50292857142857095</v>
+      </c>
+      <c r="E17">
+        <v>0.70409000590053195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>362</v>
       </c>
       <c r="C18">
-        <v>30.493341999999998</v>
+        <v>0.141304347826086</v>
       </c>
       <c r="D18">
-        <v>6937.2353050000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50335714285714195</v>
+      </c>
+      <c r="E18">
+        <v>0.70465111701164296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C19">
+        <v>0.13043478260869501</v>
+      </c>
+      <c r="D19">
+        <v>0.50235714285714195</v>
+      </c>
+      <c r="E19">
+        <v>0.70350483782213602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0A6DC-904B-4D76-B42F-D3CBB04E43A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B7071-A93D-47CE-A84B-3FCBF562F2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="735" windowWidth="22920" windowHeight="14385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1215" windowWidth="22920" windowHeight="14385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="386">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1445,6 +1445,18 @@
   </si>
   <si>
     <t>76.25%/99.90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demographic Parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equality of Opportunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predictive Quality Parity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,11 +1464,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1568,7 +1581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1693,6 +1706,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -5069,7 +5084,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5077,8 +5092,8 @@
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -5093,13 +5108,13 @@
         <v>361</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="F1" t="s">
         <v>360</v>
@@ -5124,13 +5139,13 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="46">
         <v>0.99604352126607298</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="46">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="46">
         <v>6.0399999999999898E-2</v>
       </c>
       <c r="F2" t="s">
@@ -5153,13 +5168,13 @@
       <c r="B3" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="47">
         <v>0.99505440158259095</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="46">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="46">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="G3" t="s">
@@ -5179,13 +5194,13 @@
       <c r="B4" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="47">
         <v>0.98822374877330699</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="46">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="46">
         <v>6.3899999999999901E-2</v>
       </c>
       <c r="F4" t="s">
@@ -5211,13 +5226,13 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="47">
         <v>0.99197592778334998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="46">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="46">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="G5" t="s">
@@ -5237,13 +5252,13 @@
       <c r="B6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="47">
         <v>0.99198396793587096</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="46">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="46">
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="F6" t="s">
@@ -5266,13 +5281,13 @@
       <c r="B7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="47">
         <v>0.98306772908366502</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="46">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="46">
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="G7" t="s">
@@ -5295,13 +5310,13 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="46">
         <v>0.84255319148936103</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="46">
         <v>0.2437</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="46">
         <v>0.2437</v>
       </c>
       <c r="F8" t="s">
@@ -5324,13 +5339,13 @@
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="46">
         <v>0.84148936170212696</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="46">
         <v>0.2442</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="46">
         <v>0.2442</v>
       </c>
       <c r="G9" t="s">
@@ -5350,13 +5365,13 @@
       <c r="B10" t="s">
         <v>363</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="46">
         <v>0.88114387846291298</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="46">
         <v>0.50590000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="46">
         <v>0.50590000000000002</v>
       </c>
       <c r="F10" t="s">
@@ -5382,13 +5397,13 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="46">
         <v>0.106796116504854</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="46">
         <v>0.496928571428571</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="46">
         <v>0.69839947600559005</v>
       </c>
       <c r="G11" t="s">
@@ -5408,13 +5423,13 @@
       <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="46">
         <v>0.106796116504854</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="46">
         <v>0.497</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="46">
         <v>0.69849514700126103</v>
       </c>
       <c r="F12" t="s">
@@ -5437,13 +5452,13 @@
       <c r="B13" t="s">
         <v>363</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="46">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="46">
         <v>0.49299999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="46">
         <v>0.69304537922517795</v>
       </c>
       <c r="G13" t="s">
@@ -5466,13 +5481,13 @@
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="46">
         <v>0.18333333333333299</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="46">
         <v>0.47114285714285697</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="46">
         <v>0.66118256265148601</v>
       </c>
       <c r="G14" s="28"/>
@@ -5482,13 +5497,13 @@
       <c r="B15" t="s">
         <v>362</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="46">
         <v>0.17741935483870899</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="46">
         <v>0.47128571428571397</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="46">
         <v>0.66097155894930604</v>
       </c>
     </row>
@@ -5496,13 +5511,13 @@
       <c r="B16" t="s">
         <v>363</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="46">
         <v>0.16828691087651401</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="46">
         <v>0.47129768786586501</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="46">
         <v>0.66037865879061197</v>
       </c>
     </row>
@@ -5513,13 +5528,13 @@
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="46">
         <v>0.141304347826086</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="46">
         <v>0.50292857142857095</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="46">
         <v>0.70409000590053195</v>
       </c>
     </row>
@@ -5527,13 +5542,13 @@
       <c r="B18" t="s">
         <v>362</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="46">
         <v>0.141304347826086</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="46">
         <v>0.50335714285714195</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="46">
         <v>0.70465111701164296</v>
       </c>
     </row>
@@ -5541,13 +5556,13 @@
       <c r="B19" t="s">
         <v>363</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="46">
         <v>0.13043478260869501</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="46">
         <v>0.50235714285714195</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="46">
         <v>0.70350483782213602</v>
       </c>
     </row>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B7071-A93D-47CE-A84B-3FCBF562F2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C67CFF7-9804-4BA9-816A-8FC603AF403B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="22920" windowHeight="14385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1215" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="392">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,16 +1280,6 @@
     <t>2.96%/99.16%</t>
   </si>
   <si>
-    <t>0.05%/99.99%</t>
-  </si>
-  <si>
-    <t>6.02%/94.73%</t>
-  </si>
-  <si>
-    <t>14.45%/82.81%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.39%/100.0%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,12 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.28%/98.72%</t>
-  </si>
-  <si>
-    <t>6.2%/94.51%</t>
-  </si>
-  <si>
     <t>on gpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1384,10 +1368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.79%/81.05%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0%/100.0%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1396,10 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.99%/81.25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.34%/97.85%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1408,10 +1384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.42%/81.64%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.10%/96.28%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,6 +1430,52 @@
   <si>
     <t>Predictive Quality Parity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1%/99.902%</t>
+  </si>
+  <si>
+    <t>0.11%/99.86%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13%/99.85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12%/99.91%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10%/99.90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04%/99.99%</t>
+  </si>
+  <si>
+    <t>5.81%/95.10%</t>
+  </si>
+  <si>
+    <t>78.33%/99.82%</t>
+  </si>
+  <si>
+    <t>1.94%/98.06%</t>
+  </si>
+  <si>
+    <t>6.04%/94.84%</t>
+  </si>
+  <si>
+    <t>78.46%/99.97%</t>
+  </si>
+  <si>
+    <t>8.94%/91.29%</t>
+  </si>
+  <si>
+    <t>78.14%/99.89%</t>
+  </si>
+  <si>
+    <t>68.35%/100.0%</t>
   </si>
 </sst>
 </file>
@@ -1500,18 +1518,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1581,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1627,9 +1639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1670,6 +1679,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1706,8 +1717,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -3936,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:R34"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3951,46 +3960,46 @@
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
     <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="9" style="26"/>
+    <col min="10" max="10" width="9" style="25"/>
     <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
     <col min="12" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="9.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
     <col min="16" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+      <c r="H1" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -4005,34 +4014,34 @@
       <c r="E2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="I2" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="22" t="s">
-        <v>352</v>
+      <c r="M2" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="57" x14ac:dyDescent="0.2">
@@ -4049,10 +4058,10 @@
         <v>301</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -4081,19 +4090,19 @@
       <c r="E5" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>58.884711000000003</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.81</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <f>H5*I5*250</f>
         <v>272.78916750000002</v>
       </c>
@@ -4103,23 +4112,23 @@
       <c r="L5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>0.49</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f>L5*100</f>
         <v>2889.9357999999997</v>
       </c>
       <c r="O5" s="16">
         <v>1006</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <v>0.99604352126607298</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>6.0399999999999898E-2</v>
       </c>
     </row>
@@ -4127,10 +4136,10 @@
       <c r="A6" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>327</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -4139,33 +4148,33 @@
       <c r="E6" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>29.445074000000002</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.79</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <f t="shared" ref="J6:J32" si="0">H6*I6*250</f>
         <v>277.80251250000003</v>
       </c>
       <c r="K6" s="16">
         <v>659</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="P6" s="19">
+      <c r="M6" s="25"/>
+      <c r="P6" s="18">
         <v>0.99505440158259095</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
@@ -4178,37 +4187,37 @@
       <c r="D7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>14.812604</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0.88090000000000002</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
       <c r="L7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>0.49</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f t="shared" ref="N7:N17" si="1">L7*100</f>
         <v>2246.6858999999999</v>
       </c>
       <c r="O7" s="16">
         <v>901</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>0.98822374877330699</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="18">
         <v>6.3899999999999901E-2</v>
       </c>
     </row>
@@ -4219,13 +4228,13 @@
         <v>308</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -4235,43 +4244,43 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>314</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>2.7132200000000002</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>0.65</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <f t="shared" si="0"/>
         <v>199.42211250000003</v>
       </c>
@@ -4281,23 +4290,23 @@
       <c r="L10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <v>0.49</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <f t="shared" si="1"/>
         <v>1812.0750999999998</v>
       </c>
       <c r="O10" s="16">
         <v>932</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <v>0.99197592778334998</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="18">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="18">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
@@ -4317,33 +4326,33 @@
       <c r="E11" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>1.383823</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f t="shared" si="0"/>
         <v>181.64889499999998</v>
       </c>
       <c r="K11" s="16">
         <v>563</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="P11" s="19">
+      <c r="M11" s="25"/>
+      <c r="P11" s="18">
         <v>0.99198396793587096</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="18">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="18">
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
@@ -4359,34 +4368,34 @@
       <c r="E12" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>0.743919</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0.875</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
       <c r="L12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <v>0.48</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <f t="shared" si="1"/>
         <v>1053.4646</v>
       </c>
       <c r="O12" s="16">
         <v>861</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="18">
         <v>0.98306772908366502</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="18">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="18">
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
@@ -4395,13 +4404,13 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -4411,13 +4420,13 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -4426,7 +4435,7 @@
       <c r="B15" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -4435,19 +4444,19 @@
       <c r="E15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>19.615027000000001</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>0.52</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <f t="shared" si="0"/>
         <v>154.45313000000002</v>
       </c>
@@ -4457,23 +4466,23 @@
       <c r="L15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="25">
         <v>0.48</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <f t="shared" si="1"/>
         <v>793.49770000000001</v>
       </c>
       <c r="O15" s="16">
         <v>962</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <v>0.84255319148936103</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="18">
         <v>0.2437</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="18">
         <v>0.2437</v>
       </c>
     </row>
@@ -4493,33 +4502,33 @@
       <c r="E16" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>9.8313279999999992</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <v>0.52</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <f t="shared" si="0"/>
         <v>181.43801000000002</v>
       </c>
       <c r="K16" s="16">
         <v>595</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="P16" s="19">
+      <c r="M16" s="25"/>
+      <c r="P16" s="18">
         <v>0.84148936170212696</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <v>0.2442</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="18">
         <v>0.2442</v>
       </c>
     </row>
@@ -4535,34 +4544,34 @@
       <c r="E17" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>5.1920979999999997</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>0.876</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="25"/>
       <c r="L17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>0.48</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <f t="shared" si="1"/>
         <v>303.85309999999998</v>
       </c>
       <c r="O17" s="16">
         <v>910</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="18">
         <v>0.88114387846291298</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <v>0.50590000000000002</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="18">
         <v>0.50590000000000002</v>
       </c>
     </row>
@@ -4570,95 +4579,95 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" s="20">
+        <v>339</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="19">
         <v>102.494209</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <f t="shared" si="0"/>
         <v>5106.92875</v>
       </c>
       <c r="K21" s="16">
         <v>2325</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="25">
         <v>0.4</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="25">
         <v>28776</v>
       </c>
       <c r="O21" s="16">
         <v>6000</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <v>0.496928571428571</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="18">
         <v>0.69839947600559005</v>
       </c>
     </row>
@@ -4667,44 +4676,44 @@
         <v>297</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>51.282266999999997</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>0.77110000000000001</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>0.91</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <f t="shared" si="0"/>
         <v>4088.6752724999997</v>
       </c>
       <c r="K22" s="16">
         <v>1381</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="P22" s="19">
+      <c r="M22" s="25"/>
+      <c r="P22" s="18">
         <v>0.106796116504854</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <v>0.497</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="18">
         <v>0.69849514700126103</v>
       </c>
     </row>
@@ -4715,116 +4724,116 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="F23" s="20">
+        <v>368</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="19">
         <v>26.108084000000002</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>0.76770000000000005</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="26"/>
-      <c r="L23" s="24">
+      <c r="H23" s="22"/>
+      <c r="I23" s="25"/>
+      <c r="L23" s="23">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>0.46</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>13855.2</v>
       </c>
       <c r="O23" s="16">
         <v>5000</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="18">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="18">
         <v>0.69304537922517795</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="20"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>14.211776</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>0.72270000000000001</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>0.85</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <f t="shared" si="0"/>
         <v>3623.9890249999999</v>
       </c>
       <c r="K26" s="16">
         <v>2431</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="23">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>0.34</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>9911</v>
       </c>
       <c r="O26" s="16">
         <v>5700</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>0.18333333333333299</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>0.47114285714285697</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="18">
         <v>0.66118256265148601</v>
       </c>
     </row>
@@ -4833,44 +4842,44 @@
         <v>297</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>7.1423300000000003</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <v>0.72219999999999995</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>0.59</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <f t="shared" si="0"/>
         <v>2512.4452324999997</v>
       </c>
       <c r="K27" s="16">
         <v>1585</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="P27" s="19">
+      <c r="M27" s="25"/>
+      <c r="P27" s="18">
         <v>0.17741935483870899</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="18">
         <v>0.47128571428571397</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="18">
         <v>0.66097155894930604</v>
       </c>
     </row>
@@ -4880,110 +4889,116 @@
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="20">
+        <v>371</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F28" s="19">
         <v>3.8864350000000001</v>
       </c>
       <c r="G28" s="14">
         <v>68.349999999999994</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="26"/>
-      <c r="L28" s="24">
+      <c r="H28" s="22"/>
+      <c r="I28" s="25"/>
+      <c r="L28" s="23">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="25">
         <v>0.49</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="25">
         <v>3346.7</v>
       </c>
       <c r="O28" s="16">
         <v>4300</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="18">
         <v>0.16828691087651401</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="18">
         <v>0.47129768786586501</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="18">
         <v>0.66037865879061197</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F29" s="20"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20">
+      <c r="B31" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" s="19">
         <v>275.42082799999997</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <v>0.78690000000000004</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <f t="shared" si="0"/>
         <v>8487.9700000000012</v>
       </c>
       <c r="K31" s="16">
         <v>2505</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="23">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="25">
         <v>0.42</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="25">
         <v>52533</v>
       </c>
       <c r="O31" s="16">
         <v>6900</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="18">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="18">
         <v>0.50292857142857095</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="18">
         <v>0.70409000590053195</v>
       </c>
     </row>
@@ -4991,41 +5006,45 @@
       <c r="A32" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="20">
+      <c r="B32" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="19">
         <v>137.96109300000001</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <v>0.78720000000000001</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>0.91</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <f t="shared" si="0"/>
         <v>6937.2353050000002</v>
       </c>
       <c r="K32" s="16">
         <v>1571</v>
       </c>
-      <c r="M32" s="26"/>
-      <c r="P32" s="19">
+      <c r="M32" s="25"/>
+      <c r="P32" s="18">
         <v>0.141304347826086</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="18">
         <v>0.50335714285714195</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="18">
         <v>0.70465111701164296</v>
       </c>
     </row>
@@ -5033,33 +5052,39 @@
       <c r="A33" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="20">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="19">
         <v>69.570575000000005</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="23">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="25">
         <v>0.46</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="25">
         <v>30534.799999999999</v>
       </c>
       <c r="O33" s="16">
         <v>5500</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="18">
         <v>0.13043478260869501</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="18">
         <v>0.50235714285714195</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="18">
         <v>0.70350483782213602</v>
       </c>
     </row>
@@ -5083,8 +5108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26F139-4ED4-4DC4-8314-D4F979BF44BF}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5102,62 +5127,62 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" t="s">
         <v>360</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>361</v>
-      </c>
-      <c r="C1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="33">
         <v>0.99604352126607298</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="33">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="33">
         <v>6.0399999999999898E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>28.899357999999999</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>2889.9357999999997</v>
       </c>
       <c r="J2">
@@ -5166,24 +5191,24 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="47">
+        <v>357</v>
+      </c>
+      <c r="C3" s="34">
         <v>0.99505440158259095</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="33">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="33">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3" s="27">
+        <v>358</v>
+      </c>
+      <c r="H3" s="26">
         <v>22.466858999999999</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>2246.6858999999999</v>
       </c>
       <c r="J3">
@@ -5192,27 +5217,27 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="47">
+        <v>358</v>
+      </c>
+      <c r="C4" s="34">
         <v>0.98822374877330699</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="33">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="33">
         <v>6.3899999999999901E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>18.120750999999998</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>1812.0750999999998</v>
       </c>
       <c r="J4">
@@ -5221,27 +5246,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="34">
         <v>0.99197592778334998</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="33">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="33">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H5">
         <v>10.534646</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>1053.4646</v>
       </c>
       <c r="J5">
@@ -5250,19 +5275,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="47">
+        <v>357</v>
+      </c>
+      <c r="C6" s="34">
         <v>0.99198396793587096</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="33">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="33">
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -5270,7 +5295,7 @@
       <c r="H6">
         <v>7.9349769999999999</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>793.49770000000001</v>
       </c>
       <c r="J6">
@@ -5279,24 +5304,24 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" s="47">
+        <v>358</v>
+      </c>
+      <c r="C7" s="34">
         <v>0.98306772908366502</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="33">
         <v>6.1799999999999897E-2</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="33">
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H7">
         <v>3.0385309999999999</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>303.85309999999998</v>
       </c>
       <c r="J7">
@@ -5305,18 +5330,18 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="33">
         <v>0.84255319148936103</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="33">
         <v>0.2437</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="33">
         <v>0.2437</v>
       </c>
       <c r="F8" t="s">
@@ -5325,10 +5350,10 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>28776</v>
       </c>
       <c r="J8">
@@ -5337,24 +5362,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="46">
+        <v>357</v>
+      </c>
+      <c r="C9" s="33">
         <v>0.84148936170212696</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="33">
         <v>0.2442</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="33">
         <v>0.2442</v>
       </c>
       <c r="G9" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" s="29">
+        <v>358</v>
+      </c>
+      <c r="H9" s="28">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>13855.2</v>
       </c>
       <c r="J9">
@@ -5363,27 +5388,27 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="46">
+        <v>358</v>
+      </c>
+      <c r="C10" s="33">
         <v>0.88114387846291298</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="33">
         <v>0.50590000000000002</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="33">
         <v>0.50590000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>9911</v>
       </c>
       <c r="J10">
@@ -5397,22 +5422,22 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="33">
         <v>0.106796116504854</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="33">
         <v>0.496928571428571</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="33">
         <v>0.69839947600559005</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" s="29">
+        <v>358</v>
+      </c>
+      <c r="H11" s="28">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>3346.7</v>
       </c>
       <c r="J11">
@@ -5421,27 +5446,27 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="46">
+        <v>357</v>
+      </c>
+      <c r="C12" s="33">
         <v>0.106796116504854</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="33">
         <v>0.497</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="33">
         <v>0.69849514700126103</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>52533</v>
       </c>
       <c r="J12">
@@ -5450,24 +5475,24 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="46">
+        <v>358</v>
+      </c>
+      <c r="C13" s="33">
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="33">
         <v>0.49299999999999999</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="33">
         <v>0.69304537922517795</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
-      </c>
-      <c r="H13" s="29">
+        <v>358</v>
+      </c>
+      <c r="H13" s="28">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>30534.799999999999</v>
       </c>
       <c r="J13">
@@ -5476,93 +5501,93 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="33">
         <v>0.18333333333333299</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="33">
         <v>0.47114285714285697</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="33">
         <v>0.66118256265148601</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="27"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="46">
+        <v>357</v>
+      </c>
+      <c r="C15" s="33">
         <v>0.17741935483870899</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="33">
         <v>0.47128571428571397</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="33">
         <v>0.66097155894930604</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="46">
+        <v>358</v>
+      </c>
+      <c r="C16" s="33">
         <v>0.16828691087651401</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="33">
         <v>0.47129768786586501</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="33">
         <v>0.66037865879061197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="33">
         <v>0.141304347826086</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="33">
         <v>0.50292857142857095</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="33">
         <v>0.70409000590053195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="46">
+        <v>357</v>
+      </c>
+      <c r="C18" s="33">
         <v>0.141304347826086</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="33">
         <v>0.50335714285714195</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="33">
         <v>0.70465111701164296</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="46">
+        <v>358</v>
+      </c>
+      <c r="C19" s="33">
         <v>0.13043478260869501</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="33">
         <v>0.50235714285714195</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="33">
         <v>0.70350483782213602</v>
       </c>
     </row>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C67CFF7-9804-4BA9-816A-8FC603AF403B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA141970-30AB-4464-94BD-15E9DC880FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="75" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="432">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1420,18 +1420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Demographic Parity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equality of Opportunity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Predictive Quality Parity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.1%/99.902%</t>
   </si>
   <si>
@@ -1476,6 +1464,140 @@
   </si>
   <si>
     <t>68.35%/100.0%</t>
+  </si>
+  <si>
+    <t>robustness</t>
+  </si>
+  <si>
+    <t>cw l2 attack</t>
+  </si>
+  <si>
+    <t>pgd l inf attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accuracy on attatcked data//attack success</t>
+  </si>
+  <si>
+    <t>4.56%/97.76%</t>
+  </si>
+  <si>
+    <t>88.03%/100.0%</t>
+  </si>
+  <si>
+    <t>31.26%/67.85%</t>
+  </si>
+  <si>
+    <t>5.94%/97.16%</t>
+  </si>
+  <si>
+    <t>3.67%/99.28%</t>
+  </si>
+  <si>
+    <t>87.38%/100.0%</t>
+  </si>
+  <si>
+    <t>23.84%/76.64%</t>
+  </si>
+  <si>
+    <t>87.42%/100.0%</t>
+  </si>
+  <si>
+    <t>5.42%/97.28%</t>
+  </si>
+  <si>
+    <t>87.5%/100.0%</t>
+  </si>
+  <si>
+    <t>2.42%/99.46%</t>
+  </si>
+  <si>
+    <t>95.94%/100.0%</t>
+  </si>
+  <si>
+    <t>2.42%/99.55%</t>
+  </si>
+  <si>
+    <t>92.39%/100%</t>
+  </si>
+  <si>
+    <t>87.6%/100.0%</t>
+  </si>
+  <si>
+    <t>0.11%/99.86%</t>
+  </si>
+  <si>
+    <t>0.39%/100.0%</t>
+  </si>
+  <si>
+    <t>4.29%/96.48%</t>
+  </si>
+  <si>
+    <t>77.1%/100%</t>
+  </si>
+  <si>
+    <t>4.10%/96.28%</t>
+  </si>
+  <si>
+    <t>4.68%/96.09%</t>
+  </si>
+  <si>
+    <t>77.11%/100%</t>
+  </si>
+  <si>
+    <t>7.17%/92.79%</t>
+  </si>
+  <si>
+    <t>76.25%/99.90%</t>
+  </si>
+  <si>
+    <t>0.13%/99.85%</t>
+  </si>
+  <si>
+    <t>0.0%/100.0%</t>
+  </si>
+  <si>
+    <t>1.56%/98.43%</t>
+  </si>
+  <si>
+    <t>72.27%/100%</t>
+  </si>
+  <si>
+    <t>0.12%/99.91%</t>
+  </si>
+  <si>
+    <t>0.39%/99.60%</t>
+  </si>
+  <si>
+    <t>2.34%/97.85%</t>
+  </si>
+  <si>
+    <t>72.22%/100%</t>
+  </si>
+  <si>
+    <t>1.95%/98.44%</t>
+  </si>
+  <si>
+    <t>0.10%/99.90%</t>
+  </si>
+  <si>
+    <t>Square attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extraction attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.14%/99.89%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW L-2 attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGD L-Inf attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3945,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4619,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>338</v>
@@ -4676,7 +4798,7 @@
         <v>297</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>366</v>
@@ -4785,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>362</v>
@@ -4842,7 +4964,7 @@
         <v>297</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>365</v>
@@ -4892,7 +5014,7 @@
         <v>371</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F28" s="19">
         <v>3.8864350000000001</v>
@@ -4950,16 +5072,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>382</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>385</v>
       </c>
       <c r="F31" s="19">
         <v>275.42082799999997</v>
@@ -5007,16 +5129,16 @@
         <v>297</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F32" s="19">
         <v>137.96109300000001</v>
@@ -5055,10 +5177,10 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F33" s="19">
         <v>69.570575000000005</v>
@@ -5106,20 +5228,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26F139-4ED4-4DC4-8314-D4F979BF44BF}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A21" sqref="A21:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -5132,17 +5254,14 @@
       <c r="B1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
-        <v>375</v>
+      <c r="C1" s="33" t="s">
+        <v>427</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F1" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G1" t="s">
         <v>356</v>
@@ -5164,17 +5283,17 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33">
-        <v>0.99604352126607298</v>
-      </c>
-      <c r="D2" s="33">
-        <v>6.0399999999999898E-2</v>
-      </c>
-      <c r="E2" s="33">
-        <v>6.0399999999999898E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>350</v>
+      <c r="C2" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>391</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -5193,14 +5312,17 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="34">
-        <v>0.99505440158259095</v>
-      </c>
-      <c r="D3" s="33">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="E3" s="33">
-        <v>6.0499999999999998E-2</v>
+      <c r="C3" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>392</v>
       </c>
       <c r="G3" t="s">
         <v>358</v>
@@ -5219,18 +5341,14 @@
       <c r="B4" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="34">
-        <v>0.98822374877330699</v>
-      </c>
-      <c r="D4" s="33">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>6.3899999999999901E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>351</v>
-      </c>
+      <c r="C4" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33"/>
       <c r="G4" t="s">
         <v>57</v>
       </c>
@@ -5251,14 +5369,17 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="34">
-        <v>0.99197592778334998</v>
-      </c>
-      <c r="D5" s="33">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="E5" s="33">
-        <v>6.0299999999999999E-2</v>
+      <c r="C5" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>317</v>
       </c>
       <c r="G5" t="s">
         <v>358</v>
@@ -5277,17 +5398,17 @@
       <c r="B6" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="34">
-        <v>0.99198396793587096</v>
-      </c>
-      <c r="D6" s="33">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="E6" s="33">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>352</v>
+      <c r="C6" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>395</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -5306,15 +5427,14 @@
       <c r="B7" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="34">
-        <v>0.98306772908366502</v>
-      </c>
-      <c r="D7" s="33">
-        <v>6.1799999999999897E-2</v>
-      </c>
-      <c r="E7" s="33">
-        <v>6.1800000000000001E-2</v>
-      </c>
+      <c r="C7" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33"/>
       <c r="G7" t="s">
         <v>358</v>
       </c>
@@ -5335,18 +5455,14 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="33">
-        <v>0.84255319148936103</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.2437</v>
-      </c>
-      <c r="E8" s="33">
-        <v>0.2437</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
+      <c r="C8" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" t="s">
         <v>57</v>
       </c>
@@ -5364,15 +5480,14 @@
       <c r="B9" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="33">
-        <v>0.84148936170212696</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.2442</v>
-      </c>
-      <c r="E9" s="33">
-        <v>0.2442</v>
-      </c>
+      <c r="C9" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" t="s">
         <v>358</v>
       </c>
@@ -5390,17 +5505,17 @@
       <c r="B10" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="33">
-        <v>0.88114387846291298</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0.50590000000000002</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0.50590000000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>353</v>
+      <c r="C10" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>313</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -5422,14 +5537,17 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="33">
-        <v>0.106796116504854</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0.496928571428571</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0.69839947600559005</v>
+      <c r="C11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>399</v>
       </c>
       <c r="G11" t="s">
         <v>358</v>
@@ -5448,18 +5566,14 @@
       <c r="B12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="33">
-        <v>0.106796116504854</v>
-      </c>
-      <c r="D12" s="33">
-        <v>0.497</v>
-      </c>
-      <c r="E12" s="33">
-        <v>0.69849514700126103</v>
-      </c>
-      <c r="F12" t="s">
-        <v>354</v>
-      </c>
+      <c r="C12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" t="s">
         <v>57</v>
       </c>
@@ -5477,15 +5591,14 @@
       <c r="B13" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="33">
-        <v>9.90990990990991E-2</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0.69304537922517795</v>
-      </c>
+      <c r="C13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" t="s">
         <v>358</v>
       </c>
@@ -5506,15 +5619,14 @@
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="33">
-        <v>0.18333333333333299</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0.47114285714285697</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.66118256265148601</v>
-      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="27"/>
       <c r="I14" s="29"/>
     </row>
@@ -5522,76 +5634,278 @@
       <c r="B15" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="33">
-        <v>0.17741935483870899</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0.47128571428571397</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0.66097155894930604</v>
+      <c r="C15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="33">
-        <v>0.16828691087651401</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.47129768786586501</v>
-      </c>
-      <c r="E16" s="33">
-        <v>0.66037865879061197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>354</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="33">
-        <v>0.141304347826086</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.50292857142857095</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0.70409000590053195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="33">
-        <v>0.141304347826086</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.50335714285714195</v>
-      </c>
-      <c r="E18" s="33">
-        <v>0.70465111701164296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="33">
-        <v>0.13043478260869501</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.50235714285714195</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0.70350483782213602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+      <c r="E32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" t="s">
+        <v>426</v>
+      </c>
+      <c r="D33" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compression-result.xlsx
+++ b/compression-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\model-compression\git-hub\evaluate-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80764\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA141970-30AB-4464-94BD-15E9DC880FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61A8FD-EE66-4B62-9C3C-840D769C3330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="75" windowWidth="22920" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="645" windowWidth="28665" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="445">
   <si>
     <t>fariness and bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1420,6 +1420,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Demographic Parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equality of Opportunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predictive Quality Parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.1%/99.902%</t>
   </si>
   <si>
@@ -1466,138 +1478,171 @@
     <t>68.35%/100.0%</t>
   </si>
   <si>
-    <t>robustness</t>
-  </si>
-  <si>
-    <t>cw l2 attack</t>
-  </si>
-  <si>
-    <t>pgd l inf attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> accuracy on attatcked data//attack success</t>
-  </si>
-  <si>
-    <t>4.56%/97.76%</t>
-  </si>
-  <si>
-    <t>88.03%/100.0%</t>
-  </si>
-  <si>
-    <t>31.26%/67.85%</t>
-  </si>
-  <si>
-    <t>5.94%/97.16%</t>
-  </si>
-  <si>
-    <t>3.67%/99.28%</t>
-  </si>
-  <si>
-    <t>87.38%/100.0%</t>
-  </si>
-  <si>
-    <t>23.84%/76.64%</t>
-  </si>
-  <si>
-    <t>87.42%/100.0%</t>
-  </si>
-  <si>
-    <t>5.42%/97.28%</t>
-  </si>
-  <si>
-    <t>87.5%/100.0%</t>
-  </si>
-  <si>
-    <t>2.42%/99.46%</t>
-  </si>
-  <si>
-    <t>95.94%/100.0%</t>
-  </si>
-  <si>
-    <t>2.42%/99.55%</t>
-  </si>
-  <si>
-    <t>92.39%/100%</t>
-  </si>
-  <si>
-    <t>87.6%/100.0%</t>
-  </si>
-  <si>
-    <t>0.11%/99.86%</t>
-  </si>
-  <si>
-    <t>0.39%/100.0%</t>
-  </si>
-  <si>
-    <t>4.29%/96.48%</t>
-  </si>
-  <si>
-    <t>77.1%/100%</t>
-  </si>
-  <si>
-    <t>4.10%/96.28%</t>
-  </si>
-  <si>
-    <t>4.68%/96.09%</t>
-  </si>
-  <si>
-    <t>77.11%/100%</t>
-  </si>
-  <si>
-    <t>7.17%/92.79%</t>
-  </si>
-  <si>
-    <t>76.25%/99.90%</t>
-  </si>
-  <si>
-    <t>0.13%/99.85%</t>
-  </si>
-  <si>
-    <t>0.0%/100.0%</t>
-  </si>
-  <si>
-    <t>1.56%/98.43%</t>
-  </si>
-  <si>
-    <t>72.27%/100%</t>
-  </si>
-  <si>
-    <t>0.12%/99.91%</t>
-  </si>
-  <si>
-    <t>0.39%/99.60%</t>
-  </si>
-  <si>
-    <t>2.34%/97.85%</t>
-  </si>
-  <si>
-    <t>72.22%/100%</t>
-  </si>
-  <si>
-    <t>1.95%/98.44%</t>
-  </si>
-  <si>
-    <t>0.10%/99.90%</t>
-  </si>
-  <si>
-    <t>Square attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extraction attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78.14%/99.89%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CW L-2 attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGD L-Inf attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>L2 avg/max/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linf avg/max/min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91/1.00/0.38</t>
+  </si>
+  <si>
+    <t>19.55/46.29/1.85</t>
+  </si>
+  <si>
+    <t>efficiency(per pic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.63/78.36/30.27</t>
+  </si>
+  <si>
+    <t>1.89/2.00/1.01</t>
+  </si>
+  <si>
+    <t>22.23/46.32/0.00</t>
+  </si>
+  <si>
+    <t>0.90/1.00/0.00</t>
+  </si>
+  <si>
+    <t>19.55/46.28/1.85</t>
+  </si>
+  <si>
+    <t>45.38/78.37/0.56</t>
+  </si>
+  <si>
+    <t>1.79/2.00/0.39</t>
+  </si>
+  <si>
+    <t>48.59/78.61/30.22</t>
+  </si>
+  <si>
+    <t>0.91/1.00/0.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.42/78.33/0.02</t>
+  </si>
+  <si>
+    <t>1.75/2.00/0.01</t>
+  </si>
+  <si>
+    <t>0.89/1.00/0.00</t>
+  </si>
+  <si>
+    <t>21.93/46.32/0.00</t>
+  </si>
+  <si>
+    <t>1.89/2.00/1.00</t>
+  </si>
+  <si>
+    <t>48.62/77.00/30.48</t>
+  </si>
+  <si>
+    <t>22.22/46.32/0.00</t>
+  </si>
+  <si>
+    <t>22.17/46.32/0.00</t>
+  </si>
+  <si>
+    <t>0.90/1.00/0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08/46.32/0.00</t>
+  </si>
+  <si>
+    <t>0.89/1.00/0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>332.43/713.83/0.00</t>
+  </si>
+  <si>
+    <t>1.99/2.12/0.00</t>
+  </si>
+  <si>
+    <t>525.94/921.83/245.74</t>
+  </si>
+  <si>
+    <t>3.01/3.12/1.98</t>
+  </si>
+  <si>
+    <t>2.01/2.12/0.00</t>
+  </si>
+  <si>
+    <t>336.88/713.83/0.00</t>
+  </si>
+  <si>
+    <t>526.89/922.95/251.56</t>
+  </si>
+  <si>
+    <t>3.01/3.12/2.02</t>
+  </si>
+  <si>
+    <t>337.26/713.83/0.00</t>
+  </si>
+  <si>
+    <t>339.16/713.83/0.00</t>
+  </si>
+  <si>
+    <t>2.02/2.12/0.00</t>
+  </si>
+  <si>
+    <t>525.87/923.62/126.79</t>
+  </si>
+  <si>
+    <t>333.81/713.83/0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 335.52/713.83/0.00</t>
+  </si>
+  <si>
+    <t>428.81/779.22/155.51</t>
+  </si>
+  <si>
+    <t>527.14/922.46/251.35</t>
+  </si>
+  <si>
+    <t>3.02/3.12/2.09</t>
+  </si>
+  <si>
+    <t>336.87/713.83/0.00</t>
+  </si>
+  <si>
+    <t>2.51/2.64/1.68</t>
+  </si>
+  <si>
+    <t>428.81/779.22/155.52</t>
+  </si>
+  <si>
+    <t>2.51/2.64/1.69</t>
+  </si>
+  <si>
+    <t>527.25/923.90/252.10</t>
+  </si>
+  <si>
+    <t>3.01/3.12/2.14</t>
+  </si>
+  <si>
+    <t>428.81/779.22/155.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>527.27/922.86/251.85</t>
+  </si>
+  <si>
+    <t>3.02/3.12/2.14</t>
+  </si>
+  <si>
+    <t>337.28/713.83/0.00</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1804,6 +1849,18 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1817,9 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4065,128 +4119,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D852A30-ECA4-46BB-8CF0-9FCDE2518FDD}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="9" style="25"/>
-    <col min="11" max="11" width="16.5" style="16" customWidth="1"/>
-    <col min="12" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="9.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="16"/>
-    <col min="16" max="16384" width="9" style="14"/>
+    <col min="2" max="7" width="18.25" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17" style="14" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="14" customWidth="1"/>
+    <col min="11" max="13" width="18.25" style="14" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="14" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="9" style="16"/>
+    <col min="19" max="19" width="9" style="25"/>
+    <col min="20" max="20" width="16.5" style="16" customWidth="1"/>
+    <col min="21" max="22" width="9" style="16"/>
+    <col min="23" max="23" width="9.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="16"/>
+    <col min="25" max="25" width="12.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="Q1" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="35" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
-    </row>
-    <row r="2" spans="1:18" ht="57" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="41"/>
+    </row>
+    <row r="2" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="B2" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="R2" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="21" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="V2" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="21" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="K3" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>186</v>
       </c>
@@ -4194,171 +4295,252 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="14">
+        <v>7.9357999999999998E-2</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="G5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.22122700000000001</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="K5" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="M5" s="14">
+        <v>8.6477999999999999E-2</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="19">
+      <c r="O5" s="19">
         <v>58.884711000000003</v>
       </c>
-      <c r="G5" s="17">
+      <c r="P5" s="17">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H5" s="22">
+      <c r="Q5" s="22">
         <v>1.3471070000000001</v>
       </c>
-      <c r="I5" s="24">
+      <c r="R5" s="24">
         <v>0.81</v>
       </c>
-      <c r="J5" s="25">
-        <f>H5*I5*250</f>
+      <c r="S5" s="25">
+        <f>Q5*R5*250</f>
         <v>272.78916750000002</v>
       </c>
-      <c r="K5" s="16">
+      <c r="T5" s="16">
         <v>691</v>
       </c>
-      <c r="L5" s="16">
+      <c r="U5" s="16">
         <v>28.899357999999999</v>
       </c>
-      <c r="M5" s="25">
+      <c r="V5" s="25">
         <v>0.49</v>
       </c>
-      <c r="N5" s="25">
-        <f>L5*100</f>
+      <c r="W5" s="25">
+        <f>U5*100</f>
         <v>2889.9357999999997</v>
       </c>
-      <c r="O5" s="16">
+      <c r="X5" s="16">
         <v>1006</v>
       </c>
-      <c r="P5" s="18">
-        <v>0.99604352126607298</v>
-      </c>
-      <c r="Q5" s="18">
+      <c r="Y5" s="38">
+        <v>0.92250185627764902</v>
+      </c>
+      <c r="Z5" s="38">
         <v>6.0399999999999898E-2</v>
       </c>
-      <c r="R5" s="18">
-        <v>6.0399999999999898E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA5" s="38">
+        <v>5.6799999999999899E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.1234232</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.12837200000000001</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="K6" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M6" s="30">
+        <v>3.3806000000000003E-2</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="19">
+      <c r="O6" s="19">
         <v>29.445074000000002</v>
       </c>
-      <c r="G6" s="17">
+      <c r="P6" s="17">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H6" s="22">
+      <c r="Q6" s="22">
         <v>1.406595</v>
       </c>
-      <c r="I6" s="25">
+      <c r="R6" s="25">
         <v>0.79</v>
       </c>
-      <c r="J6" s="25">
-        <f t="shared" ref="J6:J32" si="0">H6*I6*250</f>
+      <c r="S6" s="25">
+        <f t="shared" ref="S6:S32" si="0">Q6*R6*250</f>
         <v>277.80251250000003</v>
       </c>
-      <c r="K6" s="16">
+      <c r="T6" s="16">
         <v>659</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="P6" s="18">
-        <v>0.99505440158259095</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="R6" s="18">
-        <v>6.0499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V6" s="25"/>
+      <c r="Y6" s="38">
+        <v>0.92250185627764902</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>6.0399999999999898E-2</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>5.6799999999999899E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="K7" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M7" s="16">
+        <v>6.3011999999999999E-2</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="19">
+      <c r="O7" s="19">
         <v>14.812604</v>
       </c>
-      <c r="G7" s="17">
+      <c r="P7" s="17">
         <v>0.88090000000000002</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="25"/>
-      <c r="L7" s="16">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="25"/>
+      <c r="U7" s="16">
         <v>22.466858999999999</v>
       </c>
-      <c r="M7" s="25">
+      <c r="V7" s="25">
         <v>0.49</v>
       </c>
-      <c r="N7" s="25">
-        <f t="shared" ref="N7:N17" si="1">L7*100</f>
+      <c r="W7" s="25">
+        <f t="shared" ref="W7:W17" si="1">U7*100</f>
         <v>2246.6858999999999</v>
       </c>
-      <c r="O7" s="16">
+      <c r="X7" s="16">
         <v>901</v>
       </c>
-      <c r="P7" s="18">
-        <v>0.98822374877330699</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="R7" s="18">
+      <c r="Y7" s="38">
+        <v>0.91938960000000003</v>
+      </c>
+      <c r="Z7" s="38">
         <v>6.3899999999999901E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA7" s="38">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="J8" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="19"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
@@ -4366,73 +4548,107 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5.6559999999999999E-2</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="G10" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.147032</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="K10" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5.4848000000000001E-2</v>
+      </c>
+      <c r="N10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F10" s="19">
+      <c r="O10" s="19">
         <v>2.7132200000000002</v>
       </c>
-      <c r="G10" s="17">
+      <c r="P10" s="17">
         <v>0.87380000000000002</v>
       </c>
-      <c r="H10" s="22">
+      <c r="Q10" s="22">
         <v>1.2272130000000001</v>
       </c>
-      <c r="I10" s="25">
+      <c r="R10" s="25">
         <v>0.65</v>
       </c>
-      <c r="J10" s="25">
+      <c r="S10" s="25">
         <f t="shared" si="0"/>
         <v>199.42211250000003</v>
       </c>
-      <c r="K10" s="16">
+      <c r="T10" s="16">
         <v>611</v>
       </c>
-      <c r="L10" s="16">
+      <c r="U10" s="16">
         <v>18.120750999999998</v>
       </c>
-      <c r="M10" s="25">
+      <c r="V10" s="25">
         <v>0.49</v>
       </c>
-      <c r="N10" s="25">
+      <c r="W10" s="25">
         <f t="shared" si="1"/>
         <v>1812.0750999999998</v>
       </c>
-      <c r="O10" s="16">
+      <c r="X10" s="16">
         <v>932</v>
       </c>
-      <c r="P10" s="18">
-        <v>0.99197592778334998</v>
-      </c>
-      <c r="Q10" s="18">
+      <c r="Y10" s="38">
+        <v>0.92776603792012202</v>
+      </c>
+      <c r="Z10" s="38">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="R10" s="18">
-        <v>6.0299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA10" s="38">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>297</v>
       </c>
@@ -4440,101 +4656,148 @@
         <v>324</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="16">
+        <v>9.1235999999999998E-2</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="G11" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.13850299999999999</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="K11" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M11" s="16">
+        <v>5.7440999999999999E-2</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="19">
+      <c r="O11" s="19">
         <v>1.383823</v>
       </c>
-      <c r="G11" s="17">
+      <c r="P11" s="17">
         <v>0.87419999999999998</v>
       </c>
-      <c r="H11" s="22">
+      <c r="Q11" s="22">
         <v>1.2527509999999999</v>
       </c>
-      <c r="I11" s="25">
+      <c r="R11" s="25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="25">
+      <c r="S11" s="25">
         <f t="shared" si="0"/>
         <v>181.64889499999998</v>
       </c>
-      <c r="K11" s="16">
+      <c r="T11" s="16">
         <v>563</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="P11" s="18">
-        <v>0.99198396793587096</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="R11" s="18">
-        <v>6.0699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V11" s="25"/>
+      <c r="Y11" s="38">
+        <v>0.92713750163717301</v>
+      </c>
+      <c r="Z11" s="38">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="AA11" s="38">
+        <v>4.5899999999999899E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="J12" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="K12" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M12" s="16">
+        <v>6.4074000000000006E-2</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="19">
+      <c r="O12" s="19">
         <v>0.743919</v>
       </c>
-      <c r="G12" s="17">
+      <c r="P12" s="17">
         <v>0.875</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25"/>
-      <c r="L12" s="16">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="25"/>
+      <c r="U12" s="16">
         <v>10.534646</v>
       </c>
-      <c r="M12" s="25">
+      <c r="V12" s="25">
         <v>0.48</v>
       </c>
-      <c r="N12" s="25">
+      <c r="W12" s="25">
         <f t="shared" si="1"/>
         <v>1053.4646</v>
       </c>
-      <c r="O12" s="16">
+      <c r="X12" s="16">
         <v>861</v>
       </c>
-      <c r="P12" s="18">
-        <v>0.98306772908366502</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>6.1799999999999897E-2</v>
-      </c>
-      <c r="R12" s="18">
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y12" s="38">
+        <v>0.91938967417336603</v>
+      </c>
+      <c r="Z12" s="38">
+        <v>6.3899999999999901E-2</v>
+      </c>
+      <c r="AA12" s="38">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="19"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>185</v>
       </c>
@@ -4542,73 +4805,107 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="20"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.8964999999999997E-2</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="G15" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.10412299999999999</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="K15" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="M15" s="16">
+        <v>5.8664000000000001E-2</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="19">
+      <c r="O15" s="19">
         <v>19.615027000000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="P15" s="17">
         <v>0.95940000000000003</v>
       </c>
-      <c r="H15" s="22">
+      <c r="Q15" s="22">
         <v>1.1881010000000001</v>
       </c>
-      <c r="I15" s="25">
+      <c r="R15" s="25">
         <v>0.52</v>
       </c>
-      <c r="J15" s="25">
+      <c r="S15" s="25">
         <f t="shared" si="0"/>
         <v>154.45313000000002</v>
       </c>
-      <c r="K15" s="16">
+      <c r="T15" s="16">
         <v>637</v>
       </c>
-      <c r="L15" s="16">
+      <c r="U15" s="16">
         <v>7.9349769999999999</v>
       </c>
-      <c r="M15" s="25">
+      <c r="V15" s="25">
         <v>0.48</v>
       </c>
-      <c r="N15" s="25">
+      <c r="W15" s="25">
         <f t="shared" si="1"/>
         <v>793.49770000000001</v>
       </c>
-      <c r="O15" s="16">
+      <c r="X15" s="16">
         <v>962</v>
       </c>
-      <c r="P15" s="18">
-        <v>0.84255319148936103</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0.2437</v>
-      </c>
-      <c r="R15" s="18">
-        <v>0.2437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y15" s="38">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>297</v>
       </c>
@@ -4616,609 +4913,870 @@
         <v>330</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="16">
+        <v>6.1327E-2</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="G16" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.119482</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="K16" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="M16" s="14">
+        <v>6.0659999999999999E-2</v>
+      </c>
+      <c r="N16" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="19">
+      <c r="O16" s="19">
         <v>9.8313279999999992</v>
       </c>
-      <c r="G16" s="17">
+      <c r="P16" s="17">
         <v>0.92390000000000005</v>
       </c>
-      <c r="H16" s="22">
+      <c r="Q16" s="22">
         <v>1.3956770000000001</v>
       </c>
-      <c r="I16" s="25">
+      <c r="R16" s="25">
         <v>0.52</v>
       </c>
-      <c r="J16" s="25">
+      <c r="S16" s="25">
         <f t="shared" si="0"/>
         <v>181.43801000000002</v>
       </c>
-      <c r="K16" s="16">
+      <c r="T16" s="16">
         <v>595</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="P16" s="18">
-        <v>0.84148936170212696</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>0.2442</v>
-      </c>
-      <c r="R16" s="18">
-        <v>0.2442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V16" s="25"/>
+      <c r="Y16" s="38">
+        <v>0.833278277682305</v>
+      </c>
+      <c r="Z16" s="38">
+        <v>0.2437</v>
+      </c>
+      <c r="AA16" s="38">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="J17" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="K17" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="M17" s="16">
+        <v>6.8072999999999995E-2</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="19">
+      <c r="O17" s="19">
         <v>5.1920979999999997</v>
       </c>
-      <c r="G17" s="17">
+      <c r="P17" s="17">
         <v>0.876</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="25"/>
-      <c r="L17" s="16">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="25"/>
+      <c r="U17" s="16">
         <v>3.0385309999999999</v>
       </c>
-      <c r="M17" s="25">
+      <c r="V17" s="25">
         <v>0.48</v>
       </c>
-      <c r="N17" s="25">
+      <c r="W17" s="25">
         <f t="shared" si="1"/>
         <v>303.85309999999998</v>
       </c>
-      <c r="O17" s="16">
+      <c r="X17" s="16">
         <v>910</v>
       </c>
-      <c r="P17" s="18">
-        <v>0.88114387846291298</v>
-      </c>
-      <c r="Q17" s="18">
+      <c r="Y17" s="38">
+        <v>0.81817419438265904</v>
+      </c>
+      <c r="Z17" s="38">
         <v>0.50590000000000002</v>
       </c>
-      <c r="R17" s="18">
+      <c r="AA17" s="38">
         <v>0.50590000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="O18" s="19"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="F19" s="19"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="O19" s="19"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="O20" s="20"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.667913</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="G21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1.8814770000000001</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="K21" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1.2998130000000001</v>
+      </c>
+      <c r="N21" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="19">
+      <c r="O21" s="19">
         <v>102.494209</v>
       </c>
-      <c r="G21" s="17">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="P21" s="17">
+        <v>0.76527999999999996</v>
+      </c>
+      <c r="Q21" s="22">
         <v>20.427714999999999</v>
       </c>
-      <c r="I21" s="25">
+      <c r="R21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="25">
+      <c r="S21" s="25">
         <f t="shared" si="0"/>
         <v>5106.92875</v>
       </c>
-      <c r="K21" s="16">
+      <c r="T21" s="16">
         <v>2325</v>
       </c>
-      <c r="L21" s="23">
+      <c r="U21" s="23">
         <v>8.326805555555556E-3</v>
       </c>
-      <c r="M21" s="25">
+      <c r="V21" s="25">
         <v>0.4</v>
       </c>
-      <c r="N21" s="25">
+      <c r="W21" s="25">
         <v>28776</v>
       </c>
-      <c r="O21" s="16">
+      <c r="X21" s="16">
         <v>6000</v>
       </c>
-      <c r="P21" s="18">
-        <v>0.106796116504854</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>0.496928571428571</v>
-      </c>
-      <c r="R21" s="18">
-        <v>0.69839947600559005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y21" s="38">
+        <v>0.314003389025796</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>0.68953999999999904</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>0.68953999999999904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.594719</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="G22" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.71313099999999996</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="K22" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.617031</v>
+      </c>
+      <c r="N22" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F22" s="19">
+      <c r="O22" s="19">
         <v>51.282266999999997</v>
       </c>
-      <c r="G22" s="17">
-        <v>0.77110000000000001</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="P22" s="17">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="Q22" s="22">
         <v>17.972199</v>
       </c>
-      <c r="I22" s="25">
+      <c r="R22" s="25">
         <v>0.91</v>
       </c>
-      <c r="J22" s="25">
+      <c r="S22" s="25">
         <f t="shared" si="0"/>
         <v>4088.6752724999997</v>
       </c>
-      <c r="K22" s="16">
+      <c r="T22" s="16">
         <v>1381</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="P22" s="18">
-        <v>0.106796116504854</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>0.497</v>
-      </c>
-      <c r="R22" s="18">
-        <v>0.69849514700126103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V22" s="25"/>
+      <c r="Y22" s="38">
+        <v>0.31385767830314998</v>
+      </c>
+      <c r="Z22" s="38">
+        <v>0.68953999999999904</v>
+      </c>
+      <c r="AA22" s="38">
+        <v>0.68954000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="J23" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="K23" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1.3569519999999999</v>
+      </c>
+      <c r="N23" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F23" s="19">
+      <c r="O23" s="19">
         <v>26.108084000000002</v>
       </c>
-      <c r="G23" s="17">
-        <v>0.76770000000000005</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25"/>
-      <c r="L23" s="23">
+      <c r="P23" s="17">
+        <v>0.76337999999999995</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="25"/>
+      <c r="U23" s="23">
         <v>3.4860995370370371E-3</v>
       </c>
-      <c r="M23" s="25">
+      <c r="V23" s="25">
         <v>0.46</v>
       </c>
-      <c r="N23" s="25">
+      <c r="W23" s="25">
         <v>13855.2</v>
       </c>
-      <c r="O23" s="16">
+      <c r="X23" s="16">
         <v>5000</v>
       </c>
-      <c r="P23" s="18">
-        <v>9.90990990990991E-2</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="R23" s="18">
-        <v>0.69304537922517795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F24" s="19"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y23" s="38">
+        <v>0.31043381246577101</v>
+      </c>
+      <c r="Z23" s="38">
+        <v>0.68591999999999997</v>
+      </c>
+      <c r="AA23" s="38">
+        <v>0.68591999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O24" s="19"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O25" s="19"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.91836200000000001</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="G26" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1.1762550000000001</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="K26" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0.49174899999999999</v>
+      </c>
+      <c r="N26" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F26" s="19">
+      <c r="O26" s="19">
         <v>14.211776</v>
       </c>
-      <c r="G26" s="17">
-        <v>0.72270000000000001</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="P26" s="17">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="Q26" s="22">
         <v>17.054065999999999</v>
       </c>
-      <c r="I26" s="25">
+      <c r="R26" s="25">
         <v>0.85</v>
       </c>
-      <c r="J26" s="25">
+      <c r="S26" s="25">
         <f t="shared" si="0"/>
         <v>3623.9890249999999</v>
       </c>
-      <c r="K26" s="16">
+      <c r="T26" s="16">
         <v>2431</v>
       </c>
-      <c r="L26" s="23">
+      <c r="U26" s="23">
         <v>3.3737384259259259E-3</v>
       </c>
-      <c r="M26" s="25">
+      <c r="V26" s="25">
         <v>0.34</v>
       </c>
-      <c r="N26" s="25">
+      <c r="W26" s="25">
         <v>9911</v>
       </c>
-      <c r="O26" s="16">
+      <c r="X26" s="16">
         <v>5700</v>
       </c>
-      <c r="P26" s="18">
-        <v>0.18333333333333299</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>0.47114285714285697</v>
-      </c>
-      <c r="R26" s="18">
-        <v>0.66118256265148601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y26" s="18">
+        <v>0.297803754807208</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>0.65988000000000002</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>0.65988000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.33436700000000003</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="G27" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.45974100000000001</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="K27" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.65112099999999995</v>
+      </c>
+      <c r="N27" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F27" s="19">
+      <c r="O27" s="19">
         <v>7.1423300000000003</v>
       </c>
-      <c r="G27" s="17">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="P27" s="17">
+        <v>0.71826000000000001</v>
+      </c>
+      <c r="Q27" s="22">
         <v>17.033526999999999</v>
       </c>
-      <c r="I27" s="25">
+      <c r="R27" s="25">
         <v>0.59</v>
       </c>
-      <c r="J27" s="25">
+      <c r="S27" s="25">
         <f t="shared" si="0"/>
         <v>2512.4452324999997</v>
       </c>
-      <c r="K27" s="16">
+      <c r="T27" s="16">
         <v>1585</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="P27" s="18">
-        <v>0.17741935483870899</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>0.47128571428571397</v>
-      </c>
-      <c r="R27" s="18">
-        <v>0.66097155894930604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V27" s="25"/>
+      <c r="Y27" s="18">
+        <v>0.29795121877089398</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0.65976000000000001</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>0.65976000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="J28" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="K28" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0.31099500000000002</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O28" s="19">
         <v>3.8864350000000001</v>
       </c>
-      <c r="G28" s="14">
-        <v>68.349999999999994</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="25"/>
-      <c r="L28" s="23">
+      <c r="P28" s="17">
+        <v>0.68776000000000004</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="25"/>
+      <c r="U28" s="23">
         <v>7.9042824074074074E-4</v>
       </c>
-      <c r="M28" s="25">
+      <c r="V28" s="25">
         <v>0.49</v>
       </c>
-      <c r="N28" s="25">
+      <c r="W28" s="25">
         <v>3346.7</v>
       </c>
-      <c r="O28" s="16">
+      <c r="X28" s="16">
         <v>4300</v>
       </c>
-      <c r="P28" s="18">
-        <v>0.16828691087651401</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>0.47129768786586501</v>
-      </c>
-      <c r="R28" s="18">
-        <v>0.66037865879061197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F29" s="19"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y28" s="18">
+        <v>0.29973876836070701</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>0.63683999999999996</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>0.63683999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="19"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O30" s="20"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F31" s="19">
+        <v>436</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2.8854280000000001</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="I31" s="14">
+        <v>3.3533469999999999</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1.53444</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="O31" s="19">
         <v>275.42082799999997</v>
       </c>
-      <c r="G31" s="17">
-        <v>0.78690000000000004</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="P31" s="17">
+        <v>0.78464</v>
+      </c>
+      <c r="Q31" s="22">
         <v>33.951880000000003</v>
       </c>
-      <c r="I31" s="25">
+      <c r="R31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="25">
+      <c r="S31" s="25">
         <f t="shared" si="0"/>
         <v>8487.9700000000012</v>
       </c>
-      <c r="K31" s="16">
+      <c r="T31" s="16">
         <v>2505</v>
       </c>
-      <c r="L31" s="23">
+      <c r="U31" s="23">
         <v>1.4477291666666668E-2</v>
       </c>
-      <c r="M31" s="25">
+      <c r="V31" s="25">
         <v>0.42</v>
       </c>
-      <c r="N31" s="25">
+      <c r="W31" s="25">
         <v>52533</v>
       </c>
-      <c r="O31" s="16">
+      <c r="X31" s="16">
         <v>6900</v>
       </c>
-      <c r="P31" s="18">
-        <v>0.141304347826086</v>
-      </c>
-      <c r="Q31" s="18">
-        <v>0.50292857142857095</v>
-      </c>
-      <c r="R31" s="18">
-        <v>0.70409000590053195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Y31" s="18">
+        <v>0.34860960587978501</v>
+      </c>
+      <c r="Z31" s="18">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="AA31" s="18">
+        <v>0.70389999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="F32" s="19">
+        <v>438</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.87360499999999996</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1.027153</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0.73581700000000005</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O32" s="19">
         <v>137.96109300000001</v>
       </c>
-      <c r="G32" s="17">
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="P32" s="17">
+        <v>0.78478000000000003</v>
+      </c>
+      <c r="Q32" s="22">
         <v>30.493341999999998</v>
       </c>
-      <c r="I32" s="25">
+      <c r="R32" s="25">
         <v>0.91</v>
       </c>
-      <c r="J32" s="25">
+      <c r="S32" s="25">
         <f t="shared" si="0"/>
         <v>6937.2353050000002</v>
       </c>
-      <c r="K32" s="16">
+      <c r="T32" s="16">
         <v>1571</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="P32" s="18">
-        <v>0.141304347826086</v>
-      </c>
-      <c r="Q32" s="18">
-        <v>0.50335714285714195</v>
-      </c>
-      <c r="R32" s="18">
-        <v>0.70465111701164296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V32" s="25"/>
+      <c r="Y32" s="18">
+        <v>0.34836581392521898</v>
+      </c>
+      <c r="Z32" s="18">
+        <v>0.70398000000000005</v>
+      </c>
+      <c r="AA32" s="18">
+        <v>0.70398000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="J33" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M33" s="16">
+        <v>1.501522</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="O33" s="19">
         <v>69.570575000000005</v>
       </c>
-      <c r="G33" s="17">
-        <v>0.78449999999999998</v>
-      </c>
-      <c r="L33" s="23">
+      <c r="P33" s="17">
+        <v>0.78266000000000002</v>
+      </c>
+      <c r="U33" s="23">
         <v>7.6827083333333331E-3</v>
       </c>
-      <c r="M33" s="25">
+      <c r="V33" s="25">
         <v>0.46</v>
       </c>
-      <c r="N33" s="25">
+      <c r="W33" s="25">
         <v>30534.799999999999</v>
       </c>
-      <c r="O33" s="16">
+      <c r="X33" s="16">
         <v>5500</v>
       </c>
-      <c r="P33" s="18">
-        <v>0.13043478260869501</v>
-      </c>
-      <c r="Q33" s="18">
-        <v>0.50235714285714195</v>
-      </c>
-      <c r="R33" s="18">
-        <v>0.70350483782213602</v>
+      <c r="Y33" s="18">
+        <v>0.34745733290584402</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>0.70252000000000003</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>0.70252000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5228,20 +5786,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED26F139-4ED4-4DC4-8314-D4F979BF44BF}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -5254,14 +5812,17 @@
       <c r="B1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>427</v>
+      <c r="C1" t="s">
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
-        <v>389</v>
+        <v>377</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
       </c>
       <c r="G1" t="s">
         <v>356</v>
@@ -5283,17 +5844,17 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>391</v>
+      <c r="C2" s="33">
+        <v>0.99604352126607298</v>
+      </c>
+      <c r="D2" s="33">
+        <v>6.0399999999999898E-2</v>
+      </c>
+      <c r="E2" s="33">
+        <v>6.0399999999999898E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -5312,17 +5873,14 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>392</v>
+      <c r="C3" s="34">
+        <v>0.99505440158259095</v>
+      </c>
+      <c r="D3" s="33">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E3" s="33">
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="G3" t="s">
         <v>358</v>
@@ -5341,14 +5899,18 @@
       <c r="B4" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="34">
+        <v>0.98822374877330699</v>
+      </c>
+      <c r="D4" s="33">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="E4" s="33">
+        <v>6.3899999999999901E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
       <c r="G4" t="s">
         <v>57</v>
       </c>
@@ -5369,17 +5931,14 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>317</v>
+      <c r="C5" s="34">
+        <v>0.99197592778334998</v>
+      </c>
+      <c r="D5" s="33">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="G5" t="s">
         <v>358</v>
@@ -5398,17 +5957,17 @@
       <c r="B6" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>395</v>
+      <c r="C6" s="34">
+        <v>0.99198396793587096</v>
+      </c>
+      <c r="D6" s="33">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="E6" s="33">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>352</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -5427,14 +5986,15 @@
       <c r="B7" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="34">
+        <v>0.98306772908366502</v>
+      </c>
+      <c r="D7" s="33">
+        <v>6.1799999999999897E-2</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6.1800000000000001E-2</v>
+      </c>
       <c r="G7" t="s">
         <v>358</v>
       </c>
@@ -5455,14 +6015,18 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="C8" s="33">
+        <v>0.84255319148936103</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.2437</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.2437</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" t="s">
         <v>57</v>
       </c>
@@ -5480,14 +6044,15 @@
       <c r="B9" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="33">
+        <v>0.84148936170212696</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.2442</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.2442</v>
+      </c>
       <c r="G9" t="s">
         <v>358</v>
       </c>
@@ -5505,17 +6070,17 @@
       <c r="B10" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>313</v>
+      <c r="C10" s="33">
+        <v>0.88114387846291298</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>353</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -5537,17 +6102,14 @@
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>399</v>
+      <c r="C11" s="33">
+        <v>0.106796116504854</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.496928571428571</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.69839947600559005</v>
       </c>
       <c r="G11" t="s">
         <v>358</v>
@@ -5566,14 +6128,18 @@
       <c r="B12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" t="s">
-        <v>414</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="33">
+        <v>0.106796116504854</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.497</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.69849514700126103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>354</v>
+      </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
@@ -5591,14 +6157,15 @@
       <c r="B13" t="s">
         <v>358</v>
       </c>
-      <c r="C13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="33">
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.69304537922517795</v>
+      </c>
       <c r="G13" t="s">
         <v>358</v>
       </c>
@@ -5619,14 +6186,15 @@
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="33">
+        <v>0.18333333333333299</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.47114285714285697</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.66118256265148601</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="I14" s="29"/>
     </row>
@@ -5634,278 +6202,76 @@
       <c r="B15" t="s">
         <v>357</v>
       </c>
-      <c r="C15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" t="s">
-        <v>424</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>320</v>
+      <c r="C15" s="33">
+        <v>0.17741935483870899</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.47128571428571397</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.66097155894930604</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>358</v>
       </c>
-      <c r="C16" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="33">
+        <v>0.16828691087651401</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0.47129768786586501</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0.66037865879061197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>354</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D17" t="s">
-        <v>382</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="33">
+        <v>0.141304347826086</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.50292857142857095</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.70409000590053195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>357</v>
       </c>
-      <c r="C18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="33">
+        <v>0.141304347826086</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.50335714285714195</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.70465111701164296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>358</v>
       </c>
-      <c r="C19" t="s">
-        <v>386</v>
-      </c>
-      <c r="D19" t="s">
-        <v>429</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D21" t="s">
-        <v>431</v>
-      </c>
-      <c r="E21" t="s">
-        <v>408</v>
-      </c>
-      <c r="F21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>351</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>357</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="E26" t="s">
-        <v>417</v>
-      </c>
-      <c r="F26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>408</v>
-      </c>
-      <c r="D28" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C29" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" t="s">
-        <v>421</v>
-      </c>
-      <c r="D31" t="s">
-        <v>422</v>
-      </c>
-      <c r="E31" t="s">
-        <v>426</v>
-      </c>
-      <c r="F31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" t="s">
-        <v>380</v>
-      </c>
-      <c r="E32" t="s">
-        <v>426</v>
-      </c>
-      <c r="F32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C33" t="s">
-        <v>426</v>
-      </c>
-      <c r="D33" t="s">
-        <v>383</v>
-      </c>
-    </row>
+      <c r="C19" s="33">
+        <v>0.13043478260869501</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.50235714285714195</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.70350483782213602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
